--- a/data/matrix.xlsx
+++ b/data/matrix.xlsx
@@ -590,88 +590,88 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>35844</v>
+        <v>42612</v>
       </c>
       <c r="D2" t="n">
-        <v>142565</v>
+        <v>149364</v>
       </c>
       <c r="E2" t="n">
-        <v>33546</v>
+        <v>32046</v>
       </c>
       <c r="F2" t="n">
-        <v>9579</v>
+        <v>8764</v>
       </c>
       <c r="G2" t="n">
-        <v>43882</v>
+        <v>50463</v>
       </c>
       <c r="H2" t="n">
-        <v>59563</v>
+        <v>65099</v>
       </c>
       <c r="I2" t="n">
-        <v>16551</v>
+        <v>22821</v>
       </c>
       <c r="J2" t="n">
-        <v>18077</v>
+        <v>22628</v>
       </c>
       <c r="K2" t="n">
-        <v>11006</v>
+        <v>6373</v>
       </c>
       <c r="L2" t="n">
-        <v>26033</v>
+        <v>28915</v>
       </c>
       <c r="M2" t="n">
-        <v>33511</v>
+        <v>29983</v>
       </c>
       <c r="N2" t="n">
-        <v>69012</v>
+        <v>72846</v>
       </c>
       <c r="O2" t="n">
-        <v>19636</v>
+        <v>24764</v>
       </c>
       <c r="P2" t="n">
-        <v>59542</v>
+        <v>29956</v>
       </c>
       <c r="Q2" t="n">
-        <v>105538</v>
+        <v>113021</v>
       </c>
       <c r="R2" t="n">
-        <v>22964</v>
+        <v>26879</v>
       </c>
       <c r="S2" t="n">
-        <v>17211</v>
+        <v>20735</v>
       </c>
       <c r="T2" t="n">
-        <v>16851</v>
+        <v>19495</v>
       </c>
       <c r="U2" t="n">
-        <v>13481</v>
+        <v>18781</v>
       </c>
       <c r="V2" t="n">
-        <v>52158</v>
+        <v>62498</v>
       </c>
       <c r="W2" t="n">
-        <v>39813</v>
+        <v>46522</v>
       </c>
       <c r="X2" t="n">
-        <v>94126</v>
+        <v>100878</v>
       </c>
       <c r="Y2" t="n">
-        <v>77920</v>
+        <v>86099</v>
       </c>
       <c r="Z2" t="n">
-        <v>4735</v>
+        <v>10221</v>
       </c>
       <c r="AA2" t="n">
-        <v>9340</v>
+        <v>14019</v>
       </c>
       <c r="AB2" t="n">
-        <v>4766</v>
+        <v>11723</v>
       </c>
       <c r="AC2" t="n">
-        <v>14719</v>
+        <v>18525</v>
       </c>
       <c r="AD2" t="n">
-        <v>37391</v>
+        <v>41929</v>
       </c>
     </row>
     <row r="3">
@@ -681,91 +681,91 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38413</v>
+        <v>42607</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>126990</v>
+        <v>127022</v>
       </c>
       <c r="E3" t="n">
-        <v>72503</v>
+        <v>72673</v>
       </c>
       <c r="F3" t="n">
-        <v>41425</v>
+        <v>41486</v>
       </c>
       <c r="G3" t="n">
-        <v>27628</v>
+        <v>28121</v>
       </c>
       <c r="H3" t="n">
-        <v>43989</v>
+        <v>42757</v>
       </c>
       <c r="I3" t="n">
-        <v>28965</v>
+        <v>28469</v>
       </c>
       <c r="J3" t="n">
-        <v>27985</v>
+        <v>28216</v>
       </c>
       <c r="K3" t="n">
-        <v>44899</v>
+        <v>44456</v>
       </c>
       <c r="L3" t="n">
-        <v>36265</v>
+        <v>36476</v>
       </c>
       <c r="M3" t="n">
-        <v>64883</v>
+        <v>64880</v>
       </c>
       <c r="N3" t="n">
-        <v>63515</v>
+        <v>63822</v>
       </c>
       <c r="O3" t="n">
-        <v>48248</v>
+        <v>49849</v>
       </c>
       <c r="P3" t="n">
-        <v>43967</v>
+        <v>55041</v>
       </c>
       <c r="Q3" t="n">
-        <v>89963</v>
+        <v>90679</v>
       </c>
       <c r="R3" t="n">
-        <v>20409</v>
+        <v>28554</v>
       </c>
       <c r="S3" t="n">
-        <v>45823</v>
+        <v>45820</v>
       </c>
       <c r="T3" t="n">
-        <v>33768</v>
+        <v>34659</v>
       </c>
       <c r="U3" t="n">
-        <v>24530</v>
+        <v>26791</v>
       </c>
       <c r="V3" t="n">
-        <v>53813</v>
+        <v>53690</v>
       </c>
       <c r="W3" t="n">
-        <v>35263</v>
+        <v>35204</v>
       </c>
       <c r="X3" t="n">
-        <v>78552</v>
+        <v>78536</v>
       </c>
       <c r="Y3" t="n">
-        <v>62345</v>
+        <v>63757</v>
       </c>
       <c r="Z3" t="n">
-        <v>34706</v>
+        <v>34713</v>
       </c>
       <c r="AA3" t="n">
-        <v>38445</v>
+        <v>39837</v>
       </c>
       <c r="AB3" t="n">
-        <v>32918</v>
+        <v>32936</v>
       </c>
       <c r="AC3" t="n">
-        <v>34629</v>
+        <v>34908</v>
       </c>
       <c r="AD3" t="n">
-        <v>25641</v>
+        <v>25824</v>
       </c>
     </row>
     <row r="4">
@@ -775,91 +775,91 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145099</v>
+        <v>149323</v>
       </c>
       <c r="C4" t="n">
-        <v>126775</v>
+        <v>126804</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>179189</v>
+        <v>179388</v>
       </c>
       <c r="F4" t="n">
-        <v>148111</v>
+        <v>148201</v>
       </c>
       <c r="G4" t="n">
-        <v>103140</v>
+        <v>102657</v>
       </c>
       <c r="H4" t="n">
-        <v>91901</v>
+        <v>92814</v>
       </c>
       <c r="I4" t="n">
-        <v>130908</v>
+        <v>130750</v>
       </c>
       <c r="J4" t="n">
-        <v>151328</v>
+        <v>151121</v>
       </c>
       <c r="K4" t="n">
-        <v>151585</v>
+        <v>151171</v>
       </c>
       <c r="L4" t="n">
-        <v>134081</v>
+        <v>134321</v>
       </c>
       <c r="M4" t="n">
-        <v>171569</v>
+        <v>171595</v>
       </c>
       <c r="N4" t="n">
-        <v>86689</v>
+        <v>86451</v>
       </c>
       <c r="O4" t="n">
-        <v>154934</v>
+        <v>156564</v>
       </c>
       <c r="P4" t="n">
-        <v>91879</v>
+        <v>161757</v>
       </c>
       <c r="Q4" t="n">
-        <v>39690</v>
+        <v>39813</v>
       </c>
       <c r="R4" t="n">
-        <v>122810</v>
+        <v>124256</v>
       </c>
       <c r="S4" t="n">
-        <v>152509</v>
+        <v>152535</v>
       </c>
       <c r="T4" t="n">
-        <v>134575</v>
+        <v>135496</v>
       </c>
       <c r="U4" t="n">
-        <v>132881</v>
+        <v>133507</v>
       </c>
       <c r="V4" t="n">
-        <v>194193</v>
+        <v>194099</v>
       </c>
       <c r="W4" t="n">
-        <v>117856</v>
+        <v>116420</v>
       </c>
       <c r="X4" t="n">
-        <v>47731</v>
+        <v>47744</v>
       </c>
       <c r="Y4" t="n">
-        <v>76038</v>
+        <v>77479</v>
       </c>
       <c r="Z4" t="n">
-        <v>141392</v>
+        <v>141428</v>
       </c>
       <c r="AA4" t="n">
-        <v>145132</v>
+        <v>146552</v>
       </c>
       <c r="AB4" t="n">
-        <v>139604</v>
+        <v>139651</v>
       </c>
       <c r="AC4" t="n">
-        <v>137132</v>
+        <v>137440</v>
       </c>
       <c r="AD4" t="n">
-        <v>170772</v>
+        <v>170553</v>
       </c>
     </row>
     <row r="5">
@@ -869,91 +869,91 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31899</v>
+        <v>30739</v>
       </c>
       <c r="C5" t="n">
-        <v>70600</v>
+        <v>70775</v>
       </c>
       <c r="D5" t="n">
-        <v>177320</v>
+        <v>177527</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>39236</v>
+        <v>39472</v>
       </c>
       <c r="G5" t="n">
-        <v>78637</v>
+        <v>78626</v>
       </c>
       <c r="H5" t="n">
-        <v>94319</v>
+        <v>93262</v>
       </c>
       <c r="I5" t="n">
-        <v>49454</v>
+        <v>50984</v>
       </c>
       <c r="J5" t="n">
-        <v>43943</v>
+        <v>43882</v>
       </c>
       <c r="K5" t="n">
-        <v>36531</v>
+        <v>34931</v>
       </c>
       <c r="L5" t="n">
-        <v>57548</v>
+        <v>57078</v>
       </c>
       <c r="M5" t="n">
-        <v>22266</v>
+        <v>22093</v>
       </c>
       <c r="N5" t="n">
-        <v>100527</v>
+        <v>101010</v>
       </c>
       <c r="O5" t="n">
-        <v>51151</v>
+        <v>52927</v>
       </c>
       <c r="P5" t="n">
-        <v>94297</v>
+        <v>58120</v>
       </c>
       <c r="Q5" t="n">
-        <v>140293</v>
+        <v>141184</v>
       </c>
       <c r="R5" t="n">
-        <v>57719</v>
+        <v>55042</v>
       </c>
       <c r="S5" t="n">
-        <v>48726</v>
+        <v>48898</v>
       </c>
       <c r="T5" t="n">
-        <v>48366</v>
+        <v>47658</v>
       </c>
       <c r="U5" t="n">
-        <v>48236</v>
+        <v>46944</v>
       </c>
       <c r="V5" t="n">
-        <v>62399</v>
+        <v>62387</v>
       </c>
       <c r="W5" t="n">
-        <v>74569</v>
+        <v>74685</v>
       </c>
       <c r="X5" t="n">
-        <v>128882</v>
+        <v>129041</v>
       </c>
       <c r="Y5" t="n">
-        <v>112675</v>
+        <v>114262</v>
       </c>
       <c r="Z5" t="n">
-        <v>38202</v>
+        <v>38384</v>
       </c>
       <c r="AA5" t="n">
-        <v>35206</v>
+        <v>35274</v>
       </c>
       <c r="AB5" t="n">
-        <v>39734</v>
+        <v>39887</v>
       </c>
       <c r="AC5" t="n">
-        <v>46234</v>
+        <v>46689</v>
       </c>
       <c r="AD5" t="n">
-        <v>63256</v>
+        <v>63184</v>
       </c>
     </row>
     <row r="6">
@@ -963,91 +963,91 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8762</v>
+        <v>9209</v>
       </c>
       <c r="C6" t="n">
-        <v>40937</v>
+        <v>41003</v>
       </c>
       <c r="D6" t="n">
-        <v>147658</v>
+        <v>147755</v>
       </c>
       <c r="E6" t="n">
-        <v>41323</v>
+        <v>41559</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>48974</v>
+        <v>48854</v>
       </c>
       <c r="H6" t="n">
-        <v>64656</v>
+        <v>63490</v>
       </c>
       <c r="I6" t="n">
-        <v>16589</v>
+        <v>17188</v>
       </c>
       <c r="J6" t="n">
-        <v>28004</v>
+        <v>27833</v>
       </c>
       <c r="K6" t="n">
-        <v>12251</v>
+        <v>13831</v>
       </c>
       <c r="L6" t="n">
-        <v>24683</v>
+        <v>24103</v>
       </c>
       <c r="M6" t="n">
-        <v>34192</v>
+        <v>34255</v>
       </c>
       <c r="N6" t="n">
-        <v>67662</v>
+        <v>68035</v>
       </c>
       <c r="O6" t="n">
-        <v>18286</v>
+        <v>19953</v>
       </c>
       <c r="P6" t="n">
-        <v>64635</v>
+        <v>19681</v>
       </c>
       <c r="Q6" t="n">
-        <v>110631</v>
+        <v>111412</v>
       </c>
       <c r="R6" t="n">
-        <v>28057</v>
+        <v>25271</v>
       </c>
       <c r="S6" t="n">
-        <v>12345</v>
+        <v>12408</v>
       </c>
       <c r="T6" t="n">
-        <v>15501</v>
+        <v>14684</v>
       </c>
       <c r="U6" t="n">
-        <v>18574</v>
+        <v>17172</v>
       </c>
       <c r="V6" t="n">
-        <v>70868</v>
+        <v>70811</v>
       </c>
       <c r="W6" t="n">
-        <v>44906</v>
+        <v>44913</v>
       </c>
       <c r="X6" t="n">
-        <v>99219</v>
+        <v>99270</v>
       </c>
       <c r="Y6" t="n">
-        <v>83012</v>
+        <v>84490</v>
       </c>
       <c r="Z6" t="n">
-        <v>6464</v>
+        <v>6537</v>
       </c>
       <c r="AA6" t="n">
-        <v>23573</v>
+        <v>23532</v>
       </c>
       <c r="AB6" t="n">
-        <v>9938</v>
+        <v>9981</v>
       </c>
       <c r="AC6" t="n">
-        <v>13369</v>
+        <v>13714</v>
       </c>
       <c r="AD6" t="n">
-        <v>47447</v>
+        <v>47265</v>
       </c>
     </row>
     <row r="7">
@@ -1057,91 +1057,91 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45859</v>
+        <v>50070</v>
       </c>
       <c r="C7" t="n">
-        <v>25246</v>
+        <v>27551</v>
       </c>
       <c r="D7" t="n">
-        <v>105842</v>
+        <v>102929</v>
       </c>
       <c r="E7" t="n">
-        <v>79948</v>
+        <v>80135</v>
       </c>
       <c r="F7" t="n">
-        <v>48871</v>
+        <v>48949</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>16050</v>
+        <v>14772</v>
       </c>
       <c r="I7" t="n">
-        <v>31667</v>
+        <v>31497</v>
       </c>
       <c r="J7" t="n">
-        <v>52088</v>
+        <v>51868</v>
       </c>
       <c r="K7" t="n">
-        <v>52345</v>
+        <v>51919</v>
       </c>
       <c r="L7" t="n">
-        <v>34840</v>
+        <v>35068</v>
       </c>
       <c r="M7" t="n">
-        <v>72328</v>
+        <v>72343</v>
       </c>
       <c r="N7" t="n">
-        <v>40143</v>
+        <v>39284</v>
       </c>
       <c r="O7" t="n">
-        <v>55693</v>
+        <v>57312</v>
       </c>
       <c r="P7" t="n">
-        <v>16029</v>
+        <v>62504</v>
       </c>
       <c r="Q7" t="n">
-        <v>68814</v>
+        <v>66586</v>
       </c>
       <c r="R7" t="n">
-        <v>23569</v>
+        <v>25003</v>
       </c>
       <c r="S7" t="n">
-        <v>53268</v>
+        <v>53283</v>
       </c>
       <c r="T7" t="n">
-        <v>35334</v>
+        <v>36243</v>
       </c>
       <c r="U7" t="n">
-        <v>33641</v>
+        <v>34254</v>
       </c>
       <c r="V7" t="n">
-        <v>94952</v>
+        <v>94846</v>
       </c>
       <c r="W7" t="n">
-        <v>18230</v>
+        <v>18189</v>
       </c>
       <c r="X7" t="n">
-        <v>57403</v>
+        <v>54444</v>
       </c>
       <c r="Y7" t="n">
-        <v>41196</v>
+        <v>39664</v>
       </c>
       <c r="Z7" t="n">
-        <v>42152</v>
+        <v>42176</v>
       </c>
       <c r="AA7" t="n">
-        <v>45891</v>
+        <v>47299</v>
       </c>
       <c r="AB7" t="n">
-        <v>40363</v>
+        <v>40398</v>
       </c>
       <c r="AC7" t="n">
-        <v>37891</v>
+        <v>38187</v>
       </c>
       <c r="AD7" t="n">
-        <v>71531</v>
+        <v>71300</v>
       </c>
     </row>
     <row r="8">
@@ -1151,91 +1151,91 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61847</v>
+        <v>64880</v>
       </c>
       <c r="C8" t="n">
-        <v>43523</v>
+        <v>42361</v>
       </c>
       <c r="D8" t="n">
-        <v>92366</v>
+        <v>93279</v>
       </c>
       <c r="E8" t="n">
-        <v>95937</v>
+        <v>94945</v>
       </c>
       <c r="F8" t="n">
-        <v>64859</v>
+        <v>63758</v>
       </c>
       <c r="G8" t="n">
-        <v>16152</v>
+        <v>15457</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>47656</v>
+        <v>46307</v>
       </c>
       <c r="J8" t="n">
-        <v>68077</v>
+        <v>66678</v>
       </c>
       <c r="K8" t="n">
-        <v>68333</v>
+        <v>66728</v>
       </c>
       <c r="L8" t="n">
-        <v>50829</v>
+        <v>49878</v>
       </c>
       <c r="M8" t="n">
-        <v>88317</v>
+        <v>87152</v>
       </c>
       <c r="N8" t="n">
-        <v>36399</v>
+        <v>37589</v>
       </c>
       <c r="O8" t="n">
-        <v>71682</v>
+        <v>72121</v>
       </c>
       <c r="P8" t="n">
-        <v>21</v>
+        <v>77314</v>
       </c>
       <c r="Q8" t="n">
-        <v>55338</v>
+        <v>56936</v>
       </c>
       <c r="R8" t="n">
-        <v>39558</v>
+        <v>39812</v>
       </c>
       <c r="S8" t="n">
-        <v>69257</v>
+        <v>68092</v>
       </c>
       <c r="T8" t="n">
-        <v>51323</v>
+        <v>51053</v>
       </c>
       <c r="U8" t="n">
-        <v>49629</v>
+        <v>49064</v>
       </c>
       <c r="V8" t="n">
-        <v>110941</v>
+        <v>109656</v>
       </c>
       <c r="W8" t="n">
-        <v>27907</v>
+        <v>28869</v>
       </c>
       <c r="X8" t="n">
-        <v>43927</v>
+        <v>44794</v>
       </c>
       <c r="Y8" t="n">
-        <v>27720</v>
+        <v>30015</v>
       </c>
       <c r="Z8" t="n">
-        <v>58140</v>
+        <v>56985</v>
       </c>
       <c r="AA8" t="n">
-        <v>61880</v>
+        <v>62109</v>
       </c>
       <c r="AB8" t="n">
-        <v>56352</v>
+        <v>55208</v>
       </c>
       <c r="AC8" t="n">
-        <v>53880</v>
+        <v>52997</v>
       </c>
       <c r="AD8" t="n">
-        <v>87520</v>
+        <v>86110</v>
       </c>
     </row>
     <row r="9">
@@ -1245,91 +1245,91 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17201</v>
+        <v>23414</v>
       </c>
       <c r="C9" t="n">
-        <v>27510</v>
+        <v>27158</v>
       </c>
       <c r="D9" t="n">
-        <v>130660</v>
+        <v>130640</v>
       </c>
       <c r="E9" t="n">
-        <v>50801</v>
+        <v>53480</v>
       </c>
       <c r="F9" t="n">
-        <v>16877</v>
+        <v>18255</v>
       </c>
       <c r="G9" t="n">
-        <v>31977</v>
+        <v>31739</v>
       </c>
       <c r="H9" t="n">
-        <v>47658</v>
+        <v>46375</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>26358</v>
+        <v>25212</v>
       </c>
       <c r="K9" t="n">
-        <v>23687</v>
+        <v>25263</v>
       </c>
       <c r="L9" t="n">
-        <v>11655</v>
+        <v>12513</v>
       </c>
       <c r="M9" t="n">
-        <v>43670</v>
+        <v>45687</v>
       </c>
       <c r="N9" t="n">
-        <v>53603</v>
+        <v>55480</v>
       </c>
       <c r="O9" t="n">
-        <v>13733</v>
+        <v>14746</v>
       </c>
       <c r="P9" t="n">
-        <v>47637</v>
+        <v>23961</v>
       </c>
       <c r="Q9" t="n">
-        <v>93633</v>
+        <v>94297</v>
       </c>
       <c r="R9" t="n">
-        <v>10507</v>
+        <v>9022</v>
       </c>
       <c r="S9" t="n">
-        <v>19042</v>
+        <v>16037</v>
       </c>
       <c r="T9" t="n">
-        <v>5523</v>
+        <v>7510</v>
       </c>
       <c r="U9" t="n">
-        <v>6229</v>
+        <v>7589</v>
       </c>
       <c r="V9" t="n">
-        <v>69223</v>
+        <v>68190</v>
       </c>
       <c r="W9" t="n">
-        <v>26668</v>
+        <v>26557</v>
       </c>
       <c r="X9" t="n">
-        <v>82221</v>
+        <v>82154</v>
       </c>
       <c r="Y9" t="n">
-        <v>66014</v>
+        <v>67375</v>
       </c>
       <c r="Z9" t="n">
-        <v>16422</v>
+        <v>15520</v>
       </c>
       <c r="AA9" t="n">
-        <v>20162</v>
+        <v>20643</v>
       </c>
       <c r="AB9" t="n">
-        <v>10337</v>
+        <v>13742</v>
       </c>
       <c r="AC9" t="n">
-        <v>6587</v>
+        <v>8092</v>
       </c>
       <c r="AD9" t="n">
-        <v>45802</v>
+        <v>44644</v>
       </c>
     </row>
     <row r="10">
@@ -1339,91 +1339,91 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16997</v>
+        <v>22555</v>
       </c>
       <c r="C10" t="n">
-        <v>27803</v>
+        <v>28039</v>
       </c>
       <c r="D10" t="n">
-        <v>152143</v>
+        <v>151943</v>
       </c>
       <c r="E10" t="n">
-        <v>44407</v>
+        <v>44346</v>
       </c>
       <c r="F10" t="n">
-        <v>28675</v>
+        <v>28504</v>
       </c>
       <c r="G10" t="n">
-        <v>53460</v>
+        <v>53042</v>
       </c>
       <c r="H10" t="n">
-        <v>69142</v>
+        <v>67678</v>
       </c>
       <c r="I10" t="n">
-        <v>26129</v>
+        <v>25401</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>28754</v>
+        <v>26747</v>
       </c>
       <c r="L10" t="n">
-        <v>37401</v>
+        <v>41018</v>
       </c>
       <c r="M10" t="n">
-        <v>47007</v>
+        <v>46773</v>
       </c>
       <c r="N10" t="n">
-        <v>84874</v>
+        <v>84949</v>
       </c>
       <c r="O10" t="n">
-        <v>35498</v>
+        <v>36867</v>
       </c>
       <c r="P10" t="n">
-        <v>69120</v>
+        <v>42059</v>
       </c>
       <c r="Q10" t="n">
-        <v>115116</v>
+        <v>115600</v>
       </c>
       <c r="R10" t="n">
-        <v>32542</v>
+        <v>29459</v>
       </c>
       <c r="S10" t="n">
-        <v>33073</v>
+        <v>32838</v>
       </c>
       <c r="T10" t="n">
-        <v>32713</v>
+        <v>31598</v>
       </c>
       <c r="U10" t="n">
-        <v>23059</v>
+        <v>19658</v>
       </c>
       <c r="V10" t="n">
-        <v>39846</v>
+        <v>39959</v>
       </c>
       <c r="W10" t="n">
-        <v>49392</v>
+        <v>49101</v>
       </c>
       <c r="X10" t="n">
-        <v>103705</v>
+        <v>103458</v>
       </c>
       <c r="Y10" t="n">
-        <v>87498</v>
+        <v>88678</v>
       </c>
       <c r="Z10" t="n">
-        <v>21956</v>
+        <v>21731</v>
       </c>
       <c r="AA10" t="n">
-        <v>7827</v>
+        <v>8250</v>
       </c>
       <c r="AB10" t="n">
-        <v>20167</v>
+        <v>19954</v>
       </c>
       <c r="AC10" t="n">
-        <v>30581</v>
+        <v>30629</v>
       </c>
       <c r="AD10" t="n">
-        <v>23756</v>
+        <v>23744</v>
       </c>
     </row>
     <row r="11">
@@ -1433,91 +1433,91 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10434</v>
+        <v>6764</v>
       </c>
       <c r="C11" t="n">
-        <v>43975</v>
+        <v>44061</v>
       </c>
       <c r="D11" t="n">
-        <v>150696</v>
+        <v>150813</v>
       </c>
       <c r="E11" t="n">
-        <v>26861</v>
+        <v>25633</v>
       </c>
       <c r="F11" t="n">
-        <v>12422</v>
+        <v>12757</v>
       </c>
       <c r="G11" t="n">
-        <v>52012</v>
+        <v>51912</v>
       </c>
       <c r="H11" t="n">
-        <v>67694</v>
+        <v>66548</v>
       </c>
       <c r="I11" t="n">
-        <v>22830</v>
+        <v>24270</v>
       </c>
       <c r="J11" t="n">
-        <v>27463</v>
+        <v>26868</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>30923</v>
+        <v>30364</v>
       </c>
       <c r="M11" t="n">
-        <v>21670</v>
+        <v>20614</v>
       </c>
       <c r="N11" t="n">
-        <v>73902</v>
+        <v>74295</v>
       </c>
       <c r="O11" t="n">
-        <v>24526</v>
+        <v>26213</v>
       </c>
       <c r="P11" t="n">
-        <v>67673</v>
+        <v>24753</v>
       </c>
       <c r="Q11" t="n">
-        <v>113668</v>
+        <v>114470</v>
       </c>
       <c r="R11" t="n">
-        <v>31095</v>
+        <v>28328</v>
       </c>
       <c r="S11" t="n">
-        <v>22101</v>
+        <v>22184</v>
       </c>
       <c r="T11" t="n">
-        <v>21742</v>
+        <v>20944</v>
       </c>
       <c r="U11" t="n">
-        <v>21612</v>
+        <v>20230</v>
       </c>
       <c r="V11" t="n">
-        <v>67220</v>
+        <v>61062</v>
       </c>
       <c r="W11" t="n">
-        <v>47944</v>
+        <v>47971</v>
       </c>
       <c r="X11" t="n">
-        <v>102257</v>
+        <v>102327</v>
       </c>
       <c r="Y11" t="n">
-        <v>86050</v>
+        <v>87548</v>
       </c>
       <c r="Z11" t="n">
-        <v>11578</v>
+        <v>11670</v>
       </c>
       <c r="AA11" t="n">
-        <v>18725</v>
+        <v>18259</v>
       </c>
       <c r="AB11" t="n">
-        <v>13110</v>
+        <v>13172</v>
       </c>
       <c r="AC11" t="n">
-        <v>19610</v>
+        <v>19974</v>
       </c>
       <c r="AD11" t="n">
-        <v>46776</v>
+        <v>46169</v>
       </c>
     </row>
     <row r="12">
@@ -1527,91 +1527,91 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>25825</v>
+        <v>29486</v>
       </c>
       <c r="C12" t="n">
-        <v>35976</v>
+        <v>36790</v>
       </c>
       <c r="D12" t="n">
-        <v>133747</v>
+        <v>134592</v>
       </c>
       <c r="E12" t="n">
-        <v>59425</v>
+        <v>59062</v>
       </c>
       <c r="F12" t="n">
-        <v>25501</v>
+        <v>25029</v>
       </c>
       <c r="G12" t="n">
-        <v>35063</v>
+        <v>35692</v>
       </c>
       <c r="H12" t="n">
-        <v>50745</v>
+        <v>50328</v>
       </c>
       <c r="I12" t="n">
-        <v>12860</v>
+        <v>11768</v>
       </c>
       <c r="J12" t="n">
-        <v>37116</v>
+        <v>40656</v>
       </c>
       <c r="K12" t="n">
-        <v>32311</v>
+        <v>31335</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>52294</v>
+        <v>51759</v>
       </c>
       <c r="N12" t="n">
-        <v>42738</v>
+        <v>43886</v>
       </c>
       <c r="O12" t="n">
-        <v>8704</v>
+        <v>7859</v>
       </c>
       <c r="P12" t="n">
-        <v>50724</v>
+        <v>20126</v>
       </c>
       <c r="Q12" t="n">
-        <v>96719</v>
+        <v>98250</v>
       </c>
       <c r="R12" t="n">
-        <v>13841</v>
+        <v>14440</v>
       </c>
       <c r="S12" t="n">
-        <v>12738</v>
+        <v>12202</v>
       </c>
       <c r="T12" t="n">
-        <v>6770</v>
+        <v>7128</v>
       </c>
       <c r="U12" t="n">
-        <v>16582</v>
+        <v>19461</v>
       </c>
       <c r="V12" t="n">
-        <v>79980</v>
+        <v>83634</v>
       </c>
       <c r="W12" t="n">
-        <v>18347</v>
+        <v>19148</v>
       </c>
       <c r="X12" t="n">
-        <v>85308</v>
+        <v>86107</v>
       </c>
       <c r="Y12" t="n">
-        <v>69101</v>
+        <v>71328</v>
       </c>
       <c r="Z12" t="n">
-        <v>22409</v>
+        <v>21882</v>
       </c>
       <c r="AA12" t="n">
-        <v>30919</v>
+        <v>36087</v>
       </c>
       <c r="AB12" t="n">
-        <v>17376</v>
+        <v>16820</v>
       </c>
       <c r="AC12" t="n">
-        <v>9326</v>
+        <v>9072</v>
       </c>
       <c r="AD12" t="n">
-        <v>56559</v>
+        <v>60088</v>
       </c>
     </row>
     <row r="13">
@@ -1621,91 +1621,91 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32737</v>
+        <v>28940</v>
       </c>
       <c r="C13" t="n">
-        <v>64041</v>
+        <v>64043</v>
       </c>
       <c r="D13" t="n">
-        <v>170762</v>
+        <v>170795</v>
       </c>
       <c r="E13" t="n">
-        <v>22298</v>
+        <v>22126</v>
       </c>
       <c r="F13" t="n">
-        <v>32677</v>
+        <v>32740</v>
       </c>
       <c r="G13" t="n">
-        <v>72078</v>
+        <v>71895</v>
       </c>
       <c r="H13" t="n">
-        <v>87760</v>
+        <v>86531</v>
       </c>
       <c r="I13" t="n">
-        <v>42895</v>
+        <v>44253</v>
       </c>
       <c r="J13" t="n">
-        <v>46946</v>
+        <v>46712</v>
       </c>
       <c r="K13" t="n">
-        <v>21725</v>
+        <v>20637</v>
       </c>
       <c r="L13" t="n">
-        <v>50989</v>
+        <v>50347</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>93968</v>
+        <v>94278</v>
       </c>
       <c r="O13" t="n">
-        <v>44592</v>
+        <v>46196</v>
       </c>
       <c r="P13" t="n">
-        <v>87739</v>
+        <v>35294</v>
       </c>
       <c r="Q13" t="n">
-        <v>133734</v>
+        <v>134453</v>
       </c>
       <c r="R13" t="n">
-        <v>51161</v>
+        <v>48311</v>
       </c>
       <c r="S13" t="n">
         <v>42167</v>
       </c>
       <c r="T13" t="n">
-        <v>41808</v>
+        <v>40927</v>
       </c>
       <c r="U13" t="n">
-        <v>41678</v>
+        <v>40212</v>
       </c>
       <c r="V13" t="n">
-        <v>76135</v>
+        <v>76015</v>
       </c>
       <c r="W13" t="n">
-        <v>68010</v>
+        <v>67954</v>
       </c>
       <c r="X13" t="n">
-        <v>122323</v>
+        <v>122310</v>
       </c>
       <c r="Y13" t="n">
-        <v>106116</v>
+        <v>107531</v>
       </c>
       <c r="Z13" t="n">
-        <v>31643</v>
+        <v>31653</v>
       </c>
       <c r="AA13" t="n">
-        <v>38209</v>
+        <v>38104</v>
       </c>
       <c r="AB13" t="n">
-        <v>33175</v>
+        <v>33155</v>
       </c>
       <c r="AC13" t="n">
-        <v>39676</v>
+        <v>39957</v>
       </c>
       <c r="AD13" t="n">
-        <v>66259</v>
+        <v>66014</v>
       </c>
     </row>
     <row r="14">
@@ -1715,91 +1715,91 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68152</v>
+        <v>72650</v>
       </c>
       <c r="C14" t="n">
-        <v>63998</v>
+        <v>64303</v>
       </c>
       <c r="D14" t="n">
-        <v>86747</v>
+        <v>86417</v>
       </c>
       <c r="E14" t="n">
-        <v>101751</v>
+        <v>102226</v>
       </c>
       <c r="F14" t="n">
-        <v>67827</v>
+        <v>68193</v>
       </c>
       <c r="G14" t="n">
-        <v>40032</v>
+        <v>39824</v>
       </c>
       <c r="H14" t="n">
-        <v>36341</v>
+        <v>37529</v>
       </c>
       <c r="I14" t="n">
-        <v>54206</v>
+        <v>55021</v>
       </c>
       <c r="J14" t="n">
-        <v>83752</v>
+        <v>83820</v>
       </c>
       <c r="K14" t="n">
-        <v>74638</v>
+        <v>74499</v>
       </c>
       <c r="L14" t="n">
-        <v>42611</v>
+        <v>43434</v>
       </c>
       <c r="M14" t="n">
-        <v>94621</v>
+        <v>94923</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>50231</v>
+        <v>51612</v>
       </c>
       <c r="P14" t="n">
-        <v>36320</v>
+        <v>46209</v>
       </c>
       <c r="Q14" t="n">
-        <v>47723</v>
+        <v>47231</v>
       </c>
       <c r="R14" t="n">
-        <v>60034</v>
+        <v>61755</v>
       </c>
       <c r="S14" t="n">
-        <v>56178</v>
+        <v>56479</v>
       </c>
       <c r="T14" t="n">
-        <v>54135</v>
+        <v>50473</v>
       </c>
       <c r="U14" t="n">
-        <v>70105</v>
+        <v>71006</v>
       </c>
       <c r="V14" t="n">
-        <v>126616</v>
+        <v>126797</v>
       </c>
       <c r="W14" t="n">
-        <v>28155</v>
+        <v>28774</v>
       </c>
       <c r="X14" t="n">
-        <v>40480</v>
+        <v>40103</v>
       </c>
       <c r="Y14" t="n">
-        <v>43430</v>
+        <v>54550</v>
       </c>
       <c r="Z14" t="n">
-        <v>64735</v>
+        <v>65046</v>
       </c>
       <c r="AA14" t="n">
-        <v>77555</v>
+        <v>79251</v>
       </c>
       <c r="AB14" t="n">
-        <v>65686</v>
+        <v>65968</v>
       </c>
       <c r="AC14" t="n">
-        <v>62610</v>
+        <v>63194</v>
       </c>
       <c r="AD14" t="n">
-        <v>103195</v>
+        <v>103252</v>
       </c>
     </row>
     <row r="15">
@@ -1809,91 +1809,91 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24231</v>
+        <v>23734</v>
       </c>
       <c r="C15" t="n">
-        <v>52765</v>
+        <v>48074</v>
       </c>
       <c r="D15" t="n">
-        <v>159485</v>
+        <v>154826</v>
       </c>
       <c r="E15" t="n">
-        <v>57831</v>
+        <v>53310</v>
       </c>
       <c r="F15" t="n">
-        <v>23907</v>
+        <v>19277</v>
       </c>
       <c r="G15" t="n">
-        <v>60802</v>
+        <v>55925</v>
       </c>
       <c r="H15" t="n">
-        <v>76484</v>
+        <v>70561</v>
       </c>
       <c r="I15" t="n">
-        <v>13842</v>
+        <v>14198</v>
       </c>
       <c r="J15" t="n">
-        <v>39831</v>
+        <v>34904</v>
       </c>
       <c r="K15" t="n">
-        <v>30717</v>
+        <v>25583</v>
       </c>
       <c r="L15" t="n">
-        <v>8775</v>
+        <v>7983</v>
       </c>
       <c r="M15" t="n">
-        <v>50700</v>
+        <v>46007</v>
       </c>
       <c r="N15" t="n">
-        <v>49530</v>
+        <v>50172</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>76462</v>
+        <v>12070</v>
       </c>
       <c r="Q15" t="n">
-        <v>122458</v>
+        <v>118483</v>
       </c>
       <c r="R15" t="n">
-        <v>27542</v>
+        <v>32341</v>
       </c>
       <c r="S15" t="n">
-        <v>5898</v>
+        <v>5650</v>
       </c>
       <c r="T15" t="n">
-        <v>7930</v>
+        <v>9234</v>
       </c>
       <c r="U15" t="n">
-        <v>30401</v>
+        <v>24243</v>
       </c>
       <c r="V15" t="n">
-        <v>82695</v>
+        <v>77881</v>
       </c>
       <c r="W15" t="n">
-        <v>25835</v>
+        <v>26129</v>
       </c>
       <c r="X15" t="n">
-        <v>111047</v>
+        <v>106340</v>
       </c>
       <c r="Y15" t="n">
-        <v>94840</v>
+        <v>91561</v>
       </c>
       <c r="Z15" t="n">
-        <v>20814</v>
+        <v>16130</v>
       </c>
       <c r="AA15" t="n">
-        <v>33634</v>
+        <v>30335</v>
       </c>
       <c r="AB15" t="n">
-        <v>21766</v>
+        <v>17052</v>
       </c>
       <c r="AC15" t="n">
-        <v>10550</v>
+        <v>10583</v>
       </c>
       <c r="AD15" t="n">
-        <v>59274</v>
+        <v>54336</v>
       </c>
     </row>
     <row r="16">
@@ -1903,91 +1903,91 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>61826</v>
+        <v>30884</v>
       </c>
       <c r="C16" t="n">
-        <v>43501</v>
+        <v>55224</v>
       </c>
       <c r="D16" t="n">
-        <v>92345</v>
+        <v>161976</v>
       </c>
       <c r="E16" t="n">
-        <v>95916</v>
+        <v>60460</v>
       </c>
       <c r="F16" t="n">
-        <v>64838</v>
+        <v>20820</v>
       </c>
       <c r="G16" t="n">
-        <v>16130</v>
+        <v>63075</v>
       </c>
       <c r="H16" t="n">
-        <v>21</v>
+        <v>77711</v>
       </c>
       <c r="I16" t="n">
-        <v>47635</v>
+        <v>22849</v>
       </c>
       <c r="J16" t="n">
-        <v>68055</v>
+        <v>42054</v>
       </c>
       <c r="K16" t="n">
-        <v>68312</v>
+        <v>23713</v>
       </c>
       <c r="L16" t="n">
-        <v>50807</v>
+        <v>19365</v>
       </c>
       <c r="M16" t="n">
-        <v>88295</v>
+        <v>35730</v>
       </c>
       <c r="N16" t="n">
-        <v>36378</v>
+        <v>46478</v>
       </c>
       <c r="O16" t="n">
-        <v>71661</v>
+        <v>11854</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>55317</v>
+        <v>125633</v>
       </c>
       <c r="R16" t="n">
-        <v>39537</v>
+        <v>39491</v>
       </c>
       <c r="S16" t="n">
-        <v>69236</v>
+        <v>11001</v>
       </c>
       <c r="T16" t="n">
-        <v>51302</v>
+        <v>17479</v>
       </c>
       <c r="U16" t="n">
-        <v>49608</v>
+        <v>31393</v>
       </c>
       <c r="V16" t="n">
-        <v>110919</v>
+        <v>85031</v>
       </c>
       <c r="W16" t="n">
-        <v>27886</v>
+        <v>35645</v>
       </c>
       <c r="X16" t="n">
-        <v>43906</v>
+        <v>113490</v>
       </c>
       <c r="Y16" t="n">
-        <v>27699</v>
+        <v>98711</v>
       </c>
       <c r="Z16" t="n">
-        <v>58119</v>
+        <v>23280</v>
       </c>
       <c r="AA16" t="n">
-        <v>61858</v>
+        <v>37485</v>
       </c>
       <c r="AB16" t="n">
-        <v>56331</v>
+        <v>24202</v>
       </c>
       <c r="AC16" t="n">
-        <v>53858</v>
+        <v>19176</v>
       </c>
       <c r="AD16" t="n">
-        <v>87499</v>
+        <v>61485</v>
       </c>
     </row>
     <row r="17">
@@ -1997,91 +1997,91 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>108207</v>
+        <v>113166</v>
       </c>
       <c r="C17" t="n">
-        <v>89882</v>
+        <v>90647</v>
       </c>
       <c r="D17" t="n">
-        <v>39392</v>
+        <v>39670</v>
       </c>
       <c r="E17" t="n">
-        <v>142296</v>
+        <v>143232</v>
       </c>
       <c r="F17" t="n">
-        <v>111219</v>
+        <v>112045</v>
       </c>
       <c r="G17" t="n">
-        <v>66248</v>
+        <v>66501</v>
       </c>
       <c r="H17" t="n">
-        <v>55008</v>
+        <v>56657</v>
       </c>
       <c r="I17" t="n">
-        <v>94016</v>
+        <v>94594</v>
       </c>
       <c r="J17" t="n">
-        <v>114436</v>
+        <v>114965</v>
       </c>
       <c r="K17" t="n">
-        <v>114693</v>
+        <v>115015</v>
       </c>
       <c r="L17" t="n">
-        <v>97188</v>
+        <v>98164</v>
       </c>
       <c r="M17" t="n">
-        <v>134676</v>
+        <v>135439</v>
       </c>
       <c r="N17" t="n">
-        <v>47829</v>
+        <v>47230</v>
       </c>
       <c r="O17" t="n">
-        <v>118042</v>
+        <v>120408</v>
       </c>
       <c r="P17" t="n">
-        <v>54987</v>
+        <v>125600</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>85917</v>
+        <v>88099</v>
       </c>
       <c r="S17" t="n">
-        <v>115617</v>
+        <v>116379</v>
       </c>
       <c r="T17" t="n">
-        <v>97683</v>
+        <v>99340</v>
       </c>
       <c r="U17" t="n">
-        <v>95989</v>
+        <v>97350</v>
       </c>
       <c r="V17" t="n">
-        <v>157300</v>
+        <v>157943</v>
       </c>
       <c r="W17" t="n">
-        <v>80963</v>
+        <v>80264</v>
       </c>
       <c r="X17" t="n">
-        <v>14642</v>
+        <v>15392</v>
       </c>
       <c r="Y17" t="n">
-        <v>39145</v>
+        <v>41323</v>
       </c>
       <c r="Z17" t="n">
-        <v>104500</v>
+        <v>105272</v>
       </c>
       <c r="AA17" t="n">
-        <v>108239</v>
+        <v>110396</v>
       </c>
       <c r="AB17" t="n">
-        <v>102711</v>
+        <v>103495</v>
       </c>
       <c r="AC17" t="n">
-        <v>100239</v>
+        <v>101284</v>
       </c>
       <c r="AD17" t="n">
-        <v>133879</v>
+        <v>134397</v>
       </c>
     </row>
     <row r="18">
@@ -2091,91 +2091,91 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>25079</v>
+        <v>29059</v>
       </c>
       <c r="C18" t="n">
-        <v>21233</v>
+        <v>28243</v>
       </c>
       <c r="D18" t="n">
-        <v>123451</v>
+        <v>124893</v>
       </c>
       <c r="E18" t="n">
-        <v>59168</v>
+        <v>59125</v>
       </c>
       <c r="F18" t="n">
-        <v>28091</v>
+        <v>27938</v>
       </c>
       <c r="G18" t="n">
-        <v>24767</v>
+        <v>25992</v>
       </c>
       <c r="H18" t="n">
-        <v>40449</v>
+        <v>40628</v>
       </c>
       <c r="I18" t="n">
-        <v>10681</v>
+        <v>9166</v>
       </c>
       <c r="J18" t="n">
-        <v>31308</v>
+        <v>30858</v>
       </c>
       <c r="K18" t="n">
-        <v>31565</v>
+        <v>30908</v>
       </c>
       <c r="L18" t="n">
-        <v>13854</v>
+        <v>13851</v>
       </c>
       <c r="M18" t="n">
-        <v>51548</v>
+        <v>51332</v>
       </c>
       <c r="N18" t="n">
-        <v>53953</v>
+        <v>61693</v>
       </c>
       <c r="O18" t="n">
-        <v>34914</v>
+        <v>36301</v>
       </c>
       <c r="P18" t="n">
-        <v>40428</v>
+        <v>41493</v>
       </c>
       <c r="Q18" t="n">
-        <v>86423</v>
+        <v>88550</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>32489</v>
+        <v>32272</v>
       </c>
       <c r="T18" t="n">
-        <v>14348</v>
+        <v>15147</v>
       </c>
       <c r="U18" t="n">
-        <v>10411</v>
+        <v>13243</v>
       </c>
       <c r="V18" t="n">
-        <v>74172</v>
+        <v>73836</v>
       </c>
       <c r="W18" t="n">
-        <v>20361</v>
+        <v>22051</v>
       </c>
       <c r="X18" t="n">
-        <v>75012</v>
+        <v>76407</v>
       </c>
       <c r="Y18" t="n">
-        <v>58805</v>
+        <v>61628</v>
       </c>
       <c r="Z18" t="n">
-        <v>21372</v>
+        <v>21165</v>
       </c>
       <c r="AA18" t="n">
-        <v>25111</v>
+        <v>26289</v>
       </c>
       <c r="AB18" t="n">
-        <v>19584</v>
+        <v>19388</v>
       </c>
       <c r="AC18" t="n">
-        <v>16905</v>
+        <v>17091</v>
       </c>
       <c r="AD18" t="n">
-        <v>50751</v>
+        <v>50290</v>
       </c>
     </row>
     <row r="19">
@@ -2185,91 +2185,91 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16847</v>
+        <v>21043</v>
       </c>
       <c r="C19" t="n">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="D19" t="n">
-        <v>152101</v>
+        <v>152135</v>
       </c>
       <c r="E19" t="n">
-        <v>50447</v>
+        <v>50619</v>
       </c>
       <c r="F19" t="n">
-        <v>12331</v>
+        <v>12394</v>
       </c>
       <c r="G19" t="n">
-        <v>53418</v>
+        <v>53234</v>
       </c>
       <c r="H19" t="n">
-        <v>69100</v>
+        <v>67870</v>
       </c>
       <c r="I19" t="n">
-        <v>14059</v>
+        <v>14663</v>
       </c>
       <c r="J19" t="n">
-        <v>32447</v>
+        <v>32213</v>
       </c>
       <c r="K19" t="n">
-        <v>19605</v>
+        <v>22892</v>
       </c>
       <c r="L19" t="n">
-        <v>13024</v>
+        <v>12381</v>
       </c>
       <c r="M19" t="n">
         <v>43316</v>
       </c>
       <c r="N19" t="n">
-        <v>56003</v>
+        <v>56312</v>
       </c>
       <c r="O19" t="n">
-        <v>5637</v>
+        <v>5977</v>
       </c>
       <c r="P19" t="n">
-        <v>69078</v>
+        <v>10739</v>
       </c>
       <c r="Q19" t="n">
-        <v>115074</v>
+        <v>115792</v>
       </c>
       <c r="R19" t="n">
-        <v>32500</v>
+        <v>29650</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>8647</v>
+        <v>9293</v>
       </c>
       <c r="U19" t="n">
-        <v>23017</v>
+        <v>21552</v>
       </c>
       <c r="V19" t="n">
-        <v>75311</v>
+        <v>75190</v>
       </c>
       <c r="W19" t="n">
-        <v>32454</v>
+        <v>32416</v>
       </c>
       <c r="X19" t="n">
-        <v>103663</v>
+        <v>103649</v>
       </c>
       <c r="Y19" t="n">
-        <v>87456</v>
+        <v>88870</v>
       </c>
       <c r="Z19" t="n">
-        <v>13430</v>
+        <v>13439</v>
       </c>
       <c r="AA19" t="n">
-        <v>26250</v>
+        <v>27644</v>
       </c>
       <c r="AB19" t="n">
-        <v>14382</v>
+        <v>14361</v>
       </c>
       <c r="AC19" t="n">
-        <v>10709</v>
+        <v>10990</v>
       </c>
       <c r="AD19" t="n">
-        <v>51890</v>
+        <v>51645</v>
       </c>
     </row>
     <row r="20">
@@ -2279,91 +2279,91 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>16585</v>
+        <v>19451</v>
       </c>
       <c r="C20" t="n">
-        <v>33638</v>
+        <v>34578</v>
       </c>
       <c r="D20" t="n">
-        <v>134252</v>
+        <v>135224</v>
       </c>
       <c r="E20" t="n">
-        <v>50185</v>
+        <v>49027</v>
       </c>
       <c r="F20" t="n">
-        <v>16261</v>
+        <v>14993</v>
       </c>
       <c r="G20" t="n">
-        <v>35569</v>
+        <v>36323</v>
       </c>
       <c r="H20" t="n">
-        <v>51250</v>
+        <v>50959</v>
       </c>
       <c r="I20" t="n">
-        <v>5483</v>
+        <v>7026</v>
       </c>
       <c r="J20" t="n">
-        <v>32185</v>
+        <v>30620</v>
       </c>
       <c r="K20" t="n">
-        <v>23071</v>
+        <v>21300</v>
       </c>
       <c r="L20" t="n">
-        <v>6537</v>
+        <v>7310</v>
       </c>
       <c r="M20" t="n">
-        <v>43055</v>
+        <v>41724</v>
       </c>
       <c r="N20" t="n">
-        <v>48841</v>
+        <v>50566</v>
       </c>
       <c r="O20" t="n">
-        <v>7817</v>
+        <v>9543</v>
       </c>
       <c r="P20" t="n">
-        <v>51229</v>
+        <v>17230</v>
       </c>
       <c r="Q20" t="n">
-        <v>97225</v>
+        <v>98881</v>
       </c>
       <c r="R20" t="n">
-        <v>14346</v>
+        <v>15206</v>
       </c>
       <c r="S20" t="n">
-        <v>9028</v>
+        <v>9305</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>11480</v>
+        <v>12349</v>
       </c>
       <c r="V20" t="n">
-        <v>75050</v>
+        <v>73598</v>
       </c>
       <c r="W20" t="n">
-        <v>24515</v>
+        <v>25397</v>
       </c>
       <c r="X20" t="n">
-        <v>85813</v>
+        <v>86739</v>
       </c>
       <c r="Y20" t="n">
-        <v>69606</v>
+        <v>71959</v>
       </c>
       <c r="Z20" t="n">
-        <v>12773</v>
+        <v>11847</v>
       </c>
       <c r="AA20" t="n">
-        <v>25989</v>
+        <v>26051</v>
       </c>
       <c r="AB20" t="n">
-        <v>11160</v>
+        <v>10369</v>
       </c>
       <c r="AC20" t="n">
-        <v>3110</v>
+        <v>2061</v>
       </c>
       <c r="AD20" t="n">
-        <v>51629</v>
+        <v>50052</v>
       </c>
     </row>
     <row r="21">
@@ -2373,91 +2373,91 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>16474</v>
+        <v>18173</v>
       </c>
       <c r="C21" t="n">
-        <v>25407</v>
+        <v>27618</v>
       </c>
       <c r="D21" t="n">
-        <v>133549</v>
+        <v>134370</v>
       </c>
       <c r="E21" t="n">
-        <v>50563</v>
+        <v>48239</v>
       </c>
       <c r="F21" t="n">
-        <v>19486</v>
+        <v>17052</v>
       </c>
       <c r="G21" t="n">
-        <v>34866</v>
+        <v>35469</v>
       </c>
       <c r="H21" t="n">
-        <v>50547</v>
+        <v>50105</v>
       </c>
       <c r="I21" t="n">
-        <v>5986</v>
+        <v>7389</v>
       </c>
       <c r="J21" t="n">
-        <v>22703</v>
+        <v>19972</v>
       </c>
       <c r="K21" t="n">
-        <v>22960</v>
+        <v>20022</v>
       </c>
       <c r="L21" t="n">
-        <v>16613</v>
+        <v>18909</v>
       </c>
       <c r="M21" t="n">
-        <v>42943</v>
+        <v>40446</v>
       </c>
       <c r="N21" t="n">
-        <v>70074</v>
+        <v>71170</v>
       </c>
       <c r="O21" t="n">
-        <v>26309</v>
+        <v>25415</v>
       </c>
       <c r="P21" t="n">
-        <v>50526</v>
+        <v>30607</v>
       </c>
       <c r="Q21" t="n">
-        <v>96522</v>
+        <v>98027</v>
       </c>
       <c r="R21" t="n">
-        <v>10336</v>
+        <v>10988</v>
       </c>
       <c r="S21" t="n">
-        <v>23884</v>
+        <v>21386</v>
       </c>
       <c r="T21" t="n">
-        <v>11464</v>
+        <v>12230</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>65567</v>
+        <v>62950</v>
       </c>
       <c r="W21" t="n">
-        <v>30797</v>
+        <v>31528</v>
       </c>
       <c r="X21" t="n">
-        <v>85111</v>
+        <v>85884</v>
       </c>
       <c r="Y21" t="n">
-        <v>68904</v>
+        <v>71105</v>
       </c>
       <c r="Z21" t="n">
-        <v>12767</v>
+        <v>10279</v>
       </c>
       <c r="AA21" t="n">
-        <v>16506</v>
+        <v>15403</v>
       </c>
       <c r="AB21" t="n">
-        <v>10978</v>
+        <v>8502</v>
       </c>
       <c r="AC21" t="n">
-        <v>10345</v>
+        <v>11260</v>
       </c>
       <c r="AD21" t="n">
-        <v>42146</v>
+        <v>39404</v>
       </c>
     </row>
     <row r="22">
@@ -2467,91 +2467,91 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59448</v>
+        <v>62328</v>
       </c>
       <c r="C22" t="n">
-        <v>53516</v>
+        <v>53700</v>
       </c>
       <c r="D22" t="n">
-        <v>194594</v>
+        <v>194809</v>
       </c>
       <c r="E22" t="n">
-        <v>62926</v>
+        <v>62570</v>
       </c>
       <c r="F22" t="n">
-        <v>71126</v>
+        <v>71370</v>
       </c>
       <c r="G22" t="n">
-        <v>95911</v>
+        <v>95908</v>
       </c>
       <c r="H22" t="n">
-        <v>111592</v>
+        <v>110544</v>
       </c>
       <c r="I22" t="n">
-        <v>68580</v>
+        <v>68266</v>
       </c>
       <c r="J22" t="n">
-        <v>39548</v>
+        <v>39963</v>
       </c>
       <c r="K22" t="n">
-        <v>68702</v>
+        <v>66521</v>
       </c>
       <c r="L22" t="n">
-        <v>79851</v>
+        <v>83884</v>
       </c>
       <c r="M22" t="n">
-        <v>76232</v>
+        <v>75823</v>
       </c>
       <c r="N22" t="n">
-        <v>127324</v>
+        <v>127815</v>
       </c>
       <c r="O22" t="n">
-        <v>77948</v>
+        <v>79733</v>
       </c>
       <c r="P22" t="n">
-        <v>111571</v>
+        <v>84925</v>
       </c>
       <c r="Q22" t="n">
-        <v>157567</v>
+        <v>158466</v>
       </c>
       <c r="R22" t="n">
-        <v>74993</v>
+        <v>72324</v>
       </c>
       <c r="S22" t="n">
-        <v>75523</v>
+        <v>75704</v>
       </c>
       <c r="T22" t="n">
-        <v>75164</v>
+        <v>74464</v>
       </c>
       <c r="U22" t="n">
-        <v>65510</v>
+        <v>62523</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>91842</v>
+        <v>91967</v>
       </c>
       <c r="X22" t="n">
-        <v>146155</v>
+        <v>146323</v>
       </c>
       <c r="Y22" t="n">
-        <v>129949</v>
+        <v>131544</v>
       </c>
       <c r="Z22" t="n">
-        <v>64407</v>
+        <v>64597</v>
       </c>
       <c r="AA22" t="n">
-        <v>45342</v>
+        <v>44968</v>
       </c>
       <c r="AB22" t="n">
-        <v>62618</v>
+        <v>62820</v>
       </c>
       <c r="AC22" t="n">
-        <v>73032</v>
+        <v>73494</v>
       </c>
       <c r="AD22" t="n">
-        <v>27698</v>
+        <v>28386</v>
       </c>
     </row>
     <row r="23">
@@ -2561,91 +2561,91 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>42603</v>
+        <v>47290</v>
       </c>
       <c r="C23" t="n">
-        <v>34991</v>
+        <v>35504</v>
       </c>
       <c r="D23" t="n">
-        <v>117224</v>
+        <v>117768</v>
       </c>
       <c r="E23" t="n">
-        <v>76693</v>
+        <v>77356</v>
       </c>
       <c r="F23" t="n">
-        <v>45615</v>
+        <v>43759</v>
       </c>
       <c r="G23" t="n">
-        <v>18452</v>
+        <v>18780</v>
       </c>
       <c r="H23" t="n">
-        <v>27884</v>
+        <v>33504</v>
       </c>
       <c r="I23" t="n">
-        <v>26768</v>
+        <v>27073</v>
       </c>
       <c r="J23" t="n">
-        <v>48832</v>
+        <v>49088</v>
       </c>
       <c r="K23" t="n">
-        <v>49089</v>
+        <v>49139</v>
       </c>
       <c r="L23" t="n">
-        <v>18181</v>
+        <v>18406</v>
       </c>
       <c r="M23" t="n">
-        <v>69073</v>
+        <v>69563</v>
       </c>
       <c r="N23" t="n">
-        <v>28165</v>
+        <v>28835</v>
       </c>
       <c r="O23" t="n">
-        <v>26232</v>
+        <v>27016</v>
       </c>
       <c r="P23" t="n">
-        <v>27862</v>
+        <v>35027</v>
       </c>
       <c r="Q23" t="n">
-        <v>80196</v>
+        <v>81426</v>
       </c>
       <c r="R23" t="n">
-        <v>20377</v>
+        <v>22223</v>
       </c>
       <c r="S23" t="n">
-        <v>32341</v>
+        <v>32045</v>
       </c>
       <c r="T23" t="n">
-        <v>24674</v>
+        <v>26058</v>
       </c>
       <c r="U23" t="n">
-        <v>30385</v>
+        <v>31474</v>
       </c>
       <c r="V23" t="n">
-        <v>91697</v>
+        <v>92066</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>68785</v>
+        <v>69283</v>
       </c>
       <c r="Y23" t="n">
-        <v>52578</v>
+        <v>54504</v>
       </c>
       <c r="Z23" t="n">
-        <v>38896</v>
+        <v>39396</v>
       </c>
       <c r="AA23" t="n">
-        <v>42635</v>
+        <v>44519</v>
       </c>
       <c r="AB23" t="n">
-        <v>37108</v>
+        <v>37618</v>
       </c>
       <c r="AC23" t="n">
-        <v>27230</v>
+        <v>28002</v>
       </c>
       <c r="AD23" t="n">
-        <v>68276</v>
+        <v>68520</v>
       </c>
     </row>
     <row r="24">
@@ -2655,91 +2655,91 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>95275</v>
+        <v>99484</v>
       </c>
       <c r="C24" t="n">
-        <v>76950</v>
+        <v>76965</v>
       </c>
       <c r="D24" t="n">
-        <v>47835</v>
+        <v>47882</v>
       </c>
       <c r="E24" t="n">
-        <v>129364</v>
+        <v>129550</v>
       </c>
       <c r="F24" t="n">
-        <v>98287</v>
+        <v>98363</v>
       </c>
       <c r="G24" t="n">
-        <v>53316</v>
+        <v>52819</v>
       </c>
       <c r="H24" t="n">
-        <v>42076</v>
+        <v>42975</v>
       </c>
       <c r="I24" t="n">
-        <v>81083</v>
+        <v>80912</v>
       </c>
       <c r="J24" t="n">
-        <v>101504</v>
+        <v>101283</v>
       </c>
       <c r="K24" t="n">
-        <v>101761</v>
+        <v>101333</v>
       </c>
       <c r="L24" t="n">
-        <v>84256</v>
+        <v>84482</v>
       </c>
       <c r="M24" t="n">
-        <v>121744</v>
+        <v>121757</v>
       </c>
       <c r="N24" t="n">
-        <v>40073</v>
+        <v>39796</v>
       </c>
       <c r="O24" t="n">
-        <v>105109</v>
+        <v>106726</v>
       </c>
       <c r="P24" t="n">
-        <v>42055</v>
+        <v>111918</v>
       </c>
       <c r="Q24" t="n">
-        <v>16197</v>
+        <v>16928</v>
       </c>
       <c r="R24" t="n">
-        <v>72985</v>
+        <v>74417</v>
       </c>
       <c r="S24" t="n">
-        <v>102684</v>
+        <v>102697</v>
       </c>
       <c r="T24" t="n">
-        <v>84750</v>
+        <v>85658</v>
       </c>
       <c r="U24" t="n">
-        <v>83057</v>
+        <v>83668</v>
       </c>
       <c r="V24" t="n">
-        <v>144368</v>
+        <v>144260</v>
       </c>
       <c r="W24" t="n">
-        <v>68031</v>
+        <v>66582</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>26213</v>
+        <v>21781</v>
       </c>
       <c r="Z24" t="n">
-        <v>91568</v>
+        <v>91590</v>
       </c>
       <c r="AA24" t="n">
-        <v>95307</v>
+        <v>96714</v>
       </c>
       <c r="AB24" t="n">
-        <v>89779</v>
+        <v>89812</v>
       </c>
       <c r="AC24" t="n">
-        <v>87307</v>
+        <v>87602</v>
       </c>
       <c r="AD24" t="n">
-        <v>120947</v>
+        <v>120715</v>
       </c>
     </row>
     <row r="25">
@@ -2749,91 +2749,91 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>80822</v>
+        <v>85955</v>
       </c>
       <c r="C25" t="n">
-        <v>62498</v>
+        <v>63436</v>
       </c>
       <c r="D25" t="n">
-        <v>77107</v>
+        <v>78077</v>
       </c>
       <c r="E25" t="n">
-        <v>114912</v>
+        <v>116020</v>
       </c>
       <c r="F25" t="n">
-        <v>83834</v>
+        <v>84833</v>
       </c>
       <c r="G25" t="n">
-        <v>38863</v>
+        <v>39289</v>
       </c>
       <c r="H25" t="n">
-        <v>27624</v>
+        <v>29446</v>
       </c>
       <c r="I25" t="n">
-        <v>66631</v>
+        <v>67382</v>
       </c>
       <c r="J25" t="n">
-        <v>87051</v>
+        <v>87753</v>
       </c>
       <c r="K25" t="n">
-        <v>87308</v>
+        <v>87803</v>
       </c>
       <c r="L25" t="n">
-        <v>69804</v>
+        <v>70953</v>
       </c>
       <c r="M25" t="n">
-        <v>107292</v>
+        <v>108227</v>
       </c>
       <c r="N25" t="n">
-        <v>43331</v>
+        <v>53092</v>
       </c>
       <c r="O25" t="n">
-        <v>90657</v>
+        <v>93196</v>
       </c>
       <c r="P25" t="n">
-        <v>27602</v>
+        <v>98389</v>
       </c>
       <c r="Q25" t="n">
-        <v>40080</v>
+        <v>41734</v>
       </c>
       <c r="R25" t="n">
-        <v>58533</v>
+        <v>60888</v>
       </c>
       <c r="S25" t="n">
-        <v>88232</v>
+        <v>89168</v>
       </c>
       <c r="T25" t="n">
-        <v>70298</v>
+        <v>72128</v>
       </c>
       <c r="U25" t="n">
-        <v>68604</v>
+        <v>70139</v>
       </c>
       <c r="V25" t="n">
-        <v>129916</v>
+        <v>130731</v>
       </c>
       <c r="W25" t="n">
-        <v>53579</v>
+        <v>53052</v>
       </c>
       <c r="X25" t="n">
-        <v>28669</v>
+        <v>21500</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>77115</v>
+        <v>78060</v>
       </c>
       <c r="AA25" t="n">
-        <v>80855</v>
+        <v>83184</v>
       </c>
       <c r="AB25" t="n">
-        <v>75327</v>
+        <v>76283</v>
       </c>
       <c r="AC25" t="n">
-        <v>72855</v>
+        <v>74072</v>
       </c>
       <c r="AD25" t="n">
-        <v>106495</v>
+        <v>107185</v>
       </c>
     </row>
     <row r="26">
@@ -2843,91 +2843,91 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5153</v>
+        <v>11101</v>
       </c>
       <c r="C26" t="n">
-        <v>35448</v>
+        <v>35441</v>
       </c>
       <c r="D26" t="n">
-        <v>142169</v>
+        <v>142193</v>
       </c>
       <c r="E26" t="n">
-        <v>40514</v>
+        <v>40677</v>
       </c>
       <c r="F26" t="n">
-        <v>5909</v>
+        <v>5963</v>
       </c>
       <c r="G26" t="n">
-        <v>43485</v>
+        <v>43292</v>
       </c>
       <c r="H26" t="n">
-        <v>59167</v>
+        <v>57928</v>
       </c>
       <c r="I26" t="n">
-        <v>13116</v>
+        <v>13643</v>
       </c>
       <c r="J26" t="n">
-        <v>22514</v>
+        <v>22271</v>
       </c>
       <c r="K26" t="n">
-        <v>13400</v>
+        <v>12950</v>
       </c>
       <c r="L26" t="n">
-        <v>21210</v>
+        <v>20558</v>
       </c>
       <c r="M26" t="n">
-        <v>33383</v>
+        <v>33374</v>
       </c>
       <c r="N26" t="n">
-        <v>64189</v>
+        <v>64489</v>
       </c>
       <c r="O26" t="n">
-        <v>14813</v>
+        <v>16407</v>
       </c>
       <c r="P26" t="n">
-        <v>59146</v>
+        <v>21600</v>
       </c>
       <c r="Q26" t="n">
-        <v>105141</v>
+        <v>105850</v>
       </c>
       <c r="R26" t="n">
-        <v>22568</v>
+        <v>19708</v>
       </c>
       <c r="S26" t="n">
-        <v>12388</v>
+        <v>12378</v>
       </c>
       <c r="T26" t="n">
-        <v>12028</v>
+        <v>11138</v>
       </c>
       <c r="U26" t="n">
-        <v>13084</v>
+        <v>11610</v>
       </c>
       <c r="V26" t="n">
-        <v>65379</v>
+        <v>65249</v>
       </c>
       <c r="W26" t="n">
-        <v>39417</v>
+        <v>39351</v>
       </c>
       <c r="X26" t="n">
-        <v>93730</v>
+        <v>93708</v>
       </c>
       <c r="Y26" t="n">
-        <v>77523</v>
+        <v>78928</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>16317</v>
+        <v>17702</v>
       </c>
       <c r="AB26" t="n">
-        <v>2529</v>
+        <v>2499</v>
       </c>
       <c r="AC26" t="n">
-        <v>9896</v>
+        <v>10169</v>
       </c>
       <c r="AD26" t="n">
-        <v>41958</v>
+        <v>41703</v>
       </c>
     </row>
     <row r="27">
@@ -2937,91 +2937,91 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>10426</v>
+        <v>14125</v>
       </c>
       <c r="C27" t="n">
-        <v>39527</v>
+        <v>39488</v>
       </c>
       <c r="D27" t="n">
-        <v>146247</v>
+        <v>146240</v>
       </c>
       <c r="E27" t="n">
-        <v>35882</v>
+        <v>35916</v>
       </c>
       <c r="F27" t="n">
-        <v>22933</v>
+        <v>22858</v>
       </c>
       <c r="G27" t="n">
-        <v>47564</v>
+        <v>47340</v>
       </c>
       <c r="H27" t="n">
-        <v>63246</v>
+        <v>61976</v>
       </c>
       <c r="I27" t="n">
-        <v>20233</v>
+        <v>19698</v>
       </c>
       <c r="J27" t="n">
-        <v>7879</v>
+        <v>8276</v>
       </c>
       <c r="K27" t="n">
-        <v>20229</v>
+        <v>18318</v>
       </c>
       <c r="L27" t="n">
-        <v>31505</v>
+        <v>35315</v>
       </c>
       <c r="M27" t="n">
-        <v>38482</v>
+        <v>38344</v>
       </c>
       <c r="N27" t="n">
-        <v>78978</v>
+        <v>79247</v>
       </c>
       <c r="O27" t="n">
-        <v>29602</v>
+        <v>31165</v>
       </c>
       <c r="P27" t="n">
-        <v>63224</v>
+        <v>36357</v>
       </c>
       <c r="Q27" t="n">
-        <v>109220</v>
+        <v>109897</v>
       </c>
       <c r="R27" t="n">
-        <v>26646</v>
+        <v>23756</v>
       </c>
       <c r="S27" t="n">
-        <v>27177</v>
+        <v>27136</v>
       </c>
       <c r="T27" t="n">
-        <v>26817</v>
+        <v>25896</v>
       </c>
       <c r="U27" t="n">
-        <v>17163</v>
+        <v>13955</v>
       </c>
       <c r="V27" t="n">
-        <v>45564</v>
+        <v>44926</v>
       </c>
       <c r="W27" t="n">
-        <v>43496</v>
+        <v>43399</v>
       </c>
       <c r="X27" t="n">
-        <v>97809</v>
+        <v>97755</v>
       </c>
       <c r="Y27" t="n">
-        <v>81602</v>
+        <v>82976</v>
       </c>
       <c r="Z27" t="n">
-        <v>16060</v>
+        <v>16029</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>14271</v>
+        <v>14251</v>
       </c>
       <c r="AC27" t="n">
-        <v>24685</v>
+        <v>24926</v>
       </c>
       <c r="AD27" t="n">
-        <v>31619</v>
+        <v>31235</v>
       </c>
     </row>
     <row r="28">
@@ -3031,91 +3031,91 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5243</v>
+        <v>12500</v>
       </c>
       <c r="C28" t="n">
-        <v>33253</v>
+        <v>33737</v>
       </c>
       <c r="D28" t="n">
-        <v>139973</v>
+        <v>140489</v>
       </c>
       <c r="E28" t="n">
-        <v>41923</v>
+        <v>42076</v>
       </c>
       <c r="F28" t="n">
-        <v>10111</v>
+        <v>10154</v>
       </c>
       <c r="G28" t="n">
-        <v>41290</v>
+        <v>41588</v>
       </c>
       <c r="H28" t="n">
-        <v>56972</v>
+        <v>56224</v>
       </c>
       <c r="I28" t="n">
-        <v>10059</v>
+        <v>10575</v>
       </c>
       <c r="J28" t="n">
-        <v>20319</v>
+        <v>18045</v>
       </c>
       <c r="K28" t="n">
-        <v>14809</v>
+        <v>14348</v>
       </c>
       <c r="L28" t="n">
-        <v>17592</v>
+        <v>16929</v>
       </c>
       <c r="M28" t="n">
-        <v>34793</v>
+        <v>34772</v>
       </c>
       <c r="N28" t="n">
-        <v>66310</v>
+        <v>66599</v>
       </c>
       <c r="O28" t="n">
-        <v>16934</v>
+        <v>18517</v>
       </c>
       <c r="P28" t="n">
-        <v>56950</v>
+        <v>23709</v>
       </c>
       <c r="Q28" t="n">
-        <v>102946</v>
+        <v>103644</v>
       </c>
       <c r="R28" t="n">
-        <v>20372</v>
+        <v>18004</v>
       </c>
       <c r="S28" t="n">
-        <v>14509</v>
+        <v>14488</v>
       </c>
       <c r="T28" t="n">
-        <v>11053</v>
+        <v>9633</v>
       </c>
       <c r="U28" t="n">
-        <v>10889</v>
+        <v>9906</v>
       </c>
       <c r="V28" t="n">
-        <v>63183</v>
+        <v>61023</v>
       </c>
       <c r="W28" t="n">
-        <v>37222</v>
+        <v>37647</v>
       </c>
       <c r="X28" t="n">
-        <v>91535</v>
+        <v>92003</v>
       </c>
       <c r="Y28" t="n">
-        <v>75328</v>
+        <v>77224</v>
       </c>
       <c r="Z28" t="n">
-        <v>2576</v>
+        <v>2564</v>
       </c>
       <c r="AA28" t="n">
-        <v>14122</v>
+        <v>13476</v>
       </c>
       <c r="AB28" t="n">
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>8402</v>
+        <v>8664</v>
       </c>
       <c r="AD28" t="n">
-        <v>39762</v>
+        <v>37477</v>
       </c>
     </row>
     <row r="29">
@@ -3125,91 +3125,91 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>13972</v>
+        <v>17390</v>
       </c>
       <c r="C29" t="n">
-        <v>33384</v>
+        <v>32607</v>
       </c>
       <c r="D29" t="n">
-        <v>140104</v>
+        <v>139359</v>
       </c>
       <c r="E29" t="n">
-        <v>47572</v>
+        <v>46966</v>
       </c>
       <c r="F29" t="n">
-        <v>13648</v>
+        <v>12932</v>
       </c>
       <c r="G29" t="n">
-        <v>41421</v>
+        <v>40458</v>
       </c>
       <c r="H29" t="n">
-        <v>57103</v>
+        <v>55094</v>
       </c>
       <c r="I29" t="n">
-        <v>6793</v>
+        <v>6713</v>
       </c>
       <c r="J29" t="n">
-        <v>29572</v>
+        <v>28559</v>
       </c>
       <c r="K29" t="n">
-        <v>20458</v>
+        <v>19238</v>
       </c>
       <c r="L29" t="n">
-        <v>9707</v>
+        <v>9586</v>
       </c>
       <c r="M29" t="n">
-        <v>40442</v>
+        <v>39662</v>
       </c>
       <c r="N29" t="n">
-        <v>62869</v>
+        <v>62399</v>
       </c>
       <c r="O29" t="n">
-        <v>10472</v>
+        <v>10600</v>
       </c>
       <c r="P29" t="n">
-        <v>57081</v>
+        <v>19509</v>
       </c>
       <c r="Q29" t="n">
-        <v>103077</v>
+        <v>103016</v>
       </c>
       <c r="R29" t="n">
-        <v>17039</v>
+        <v>16874</v>
       </c>
       <c r="S29" t="n">
-        <v>10144</v>
+        <v>9365</v>
       </c>
       <c r="T29" t="n">
-        <v>2753</v>
+        <v>2393</v>
       </c>
       <c r="U29" t="n">
-        <v>10310</v>
+        <v>10288</v>
       </c>
       <c r="V29" t="n">
-        <v>72437</v>
+        <v>71537</v>
       </c>
       <c r="W29" t="n">
-        <v>27208</v>
+        <v>27673</v>
       </c>
       <c r="X29" t="n">
-        <v>91666</v>
+        <v>90873</v>
       </c>
       <c r="Y29" t="n">
-        <v>75459</v>
+        <v>76094</v>
       </c>
       <c r="Z29" t="n">
-        <v>10556</v>
+        <v>9786</v>
       </c>
       <c r="AA29" t="n">
-        <v>23376</v>
+        <v>23990</v>
       </c>
       <c r="AB29" t="n">
-        <v>9108</v>
+        <v>8308</v>
       </c>
       <c r="AC29" t="n">
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>49016</v>
+        <v>47991</v>
       </c>
     </row>
     <row r="30">
@@ -3219,88 +3219,88 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>35687</v>
+        <v>41320</v>
       </c>
       <c r="C30" t="n">
-        <v>25814</v>
+        <v>25432</v>
       </c>
       <c r="D30" t="n">
-        <v>170833</v>
+        <v>170228</v>
       </c>
       <c r="E30" t="n">
-        <v>63577</v>
+        <v>63111</v>
       </c>
       <c r="F30" t="n">
-        <v>47364</v>
+        <v>46789</v>
       </c>
       <c r="G30" t="n">
-        <v>72149</v>
+        <v>71328</v>
       </c>
       <c r="H30" t="n">
-        <v>87831</v>
+        <v>85964</v>
       </c>
       <c r="I30" t="n">
-        <v>44818</v>
+        <v>43686</v>
       </c>
       <c r="J30" t="n">
-        <v>23051</v>
+        <v>22647</v>
       </c>
       <c r="K30" t="n">
-        <v>47923</v>
+        <v>45513</v>
       </c>
       <c r="L30" t="n">
-        <v>56090</v>
+        <v>59303</v>
       </c>
       <c r="M30" t="n">
-        <v>66177</v>
+        <v>65539</v>
       </c>
       <c r="N30" t="n">
-        <v>103563</v>
+        <v>103234</v>
       </c>
       <c r="O30" t="n">
-        <v>54187</v>
+        <v>55152</v>
       </c>
       <c r="P30" t="n">
-        <v>87810</v>
+        <v>60345</v>
       </c>
       <c r="Q30" t="n">
-        <v>133805</v>
+        <v>133885</v>
       </c>
       <c r="R30" t="n">
-        <v>51232</v>
+        <v>47744</v>
       </c>
       <c r="S30" t="n">
-        <v>51762</v>
+        <v>51123</v>
       </c>
       <c r="T30" t="n">
-        <v>51402</v>
+        <v>49883</v>
       </c>
       <c r="U30" t="n">
-        <v>41748</v>
+        <v>37943</v>
       </c>
       <c r="V30" t="n">
-        <v>28022</v>
+        <v>28614</v>
       </c>
       <c r="W30" t="n">
-        <v>68081</v>
+        <v>67386</v>
       </c>
       <c r="X30" t="n">
-        <v>122394</v>
+        <v>121743</v>
       </c>
       <c r="Y30" t="n">
-        <v>106187</v>
+        <v>106963</v>
       </c>
       <c r="Z30" t="n">
-        <v>40645</v>
+        <v>40016</v>
       </c>
       <c r="AA30" t="n">
-        <v>31018</v>
+        <v>30275</v>
       </c>
       <c r="AB30" t="n">
-        <v>38857</v>
+        <v>38239</v>
       </c>
       <c r="AC30" t="n">
-        <v>49270</v>
+        <v>48914</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>

--- a/data/matrix.xlsx
+++ b/data/matrix.xlsx
@@ -590,88 +590,88 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>42612</v>
+        <v>40628</v>
       </c>
       <c r="D2" t="n">
-        <v>149364</v>
+        <v>142865</v>
       </c>
       <c r="E2" t="n">
-        <v>32046</v>
+        <v>27451</v>
       </c>
       <c r="F2" t="n">
-        <v>8764</v>
+        <v>8765</v>
       </c>
       <c r="G2" t="n">
-        <v>50463</v>
+        <v>48829</v>
       </c>
       <c r="H2" t="n">
-        <v>65099</v>
+        <v>63030</v>
       </c>
       <c r="I2" t="n">
-        <v>22821</v>
+        <v>17091</v>
       </c>
       <c r="J2" t="n">
-        <v>22628</v>
+        <v>20063</v>
       </c>
       <c r="K2" t="n">
         <v>6373</v>
       </c>
       <c r="L2" t="n">
-        <v>28915</v>
+        <v>23703</v>
       </c>
       <c r="M2" t="n">
-        <v>29983</v>
+        <v>25957</v>
       </c>
       <c r="N2" t="n">
-        <v>72846</v>
+        <v>66957</v>
       </c>
       <c r="O2" t="n">
-        <v>24764</v>
+        <v>22196</v>
       </c>
       <c r="P2" t="n">
-        <v>29956</v>
+        <v>28246</v>
       </c>
       <c r="Q2" t="n">
-        <v>113021</v>
+        <v>111389</v>
       </c>
       <c r="R2" t="n">
-        <v>26879</v>
+        <v>23602</v>
       </c>
       <c r="S2" t="n">
-        <v>20735</v>
+        <v>17633</v>
       </c>
       <c r="T2" t="n">
-        <v>19495</v>
+        <v>16394</v>
       </c>
       <c r="U2" t="n">
-        <v>18781</v>
+        <v>13674</v>
       </c>
       <c r="V2" t="n">
-        <v>62498</v>
+        <v>56824</v>
       </c>
       <c r="W2" t="n">
-        <v>46522</v>
+        <v>41657</v>
       </c>
       <c r="X2" t="n">
-        <v>100878</v>
+        <v>99244</v>
       </c>
       <c r="Y2" t="n">
-        <v>86099</v>
+        <v>84467</v>
       </c>
       <c r="Z2" t="n">
-        <v>10221</v>
+        <v>8278</v>
       </c>
       <c r="AA2" t="n">
-        <v>14019</v>
+        <v>12287</v>
       </c>
       <c r="AB2" t="n">
-        <v>11723</v>
+        <v>8601</v>
       </c>
       <c r="AC2" t="n">
-        <v>18525</v>
+        <v>15423</v>
       </c>
       <c r="AD2" t="n">
-        <v>41929</v>
+        <v>39362</v>
       </c>
     </row>
     <row r="3">
@@ -681,91 +681,91 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42607</v>
+        <v>40220</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>127022</v>
+        <v>122154</v>
       </c>
       <c r="E3" t="n">
-        <v>72673</v>
+        <v>66826</v>
       </c>
       <c r="F3" t="n">
-        <v>41486</v>
+        <v>40675</v>
       </c>
       <c r="G3" t="n">
-        <v>28121</v>
+        <v>27961</v>
       </c>
       <c r="H3" t="n">
-        <v>42757</v>
+        <v>42125</v>
       </c>
       <c r="I3" t="n">
-        <v>28469</v>
+        <v>28468</v>
       </c>
       <c r="J3" t="n">
-        <v>28216</v>
+        <v>26790</v>
       </c>
       <c r="K3" t="n">
         <v>44456</v>
       </c>
       <c r="L3" t="n">
-        <v>36476</v>
+        <v>33763</v>
       </c>
       <c r="M3" t="n">
-        <v>64880</v>
+        <v>64040</v>
       </c>
       <c r="N3" t="n">
-        <v>63822</v>
+        <v>62794</v>
       </c>
       <c r="O3" t="n">
-        <v>49849</v>
+        <v>41540</v>
       </c>
       <c r="P3" t="n">
-        <v>55041</v>
+        <v>51388</v>
       </c>
       <c r="Q3" t="n">
-        <v>90679</v>
+        <v>90678</v>
       </c>
       <c r="R3" t="n">
-        <v>28554</v>
+        <v>22450</v>
       </c>
       <c r="S3" t="n">
-        <v>45820</v>
+        <v>43464</v>
       </c>
       <c r="T3" t="n">
-        <v>34659</v>
+        <v>34658</v>
       </c>
       <c r="U3" t="n">
-        <v>26791</v>
+        <v>26793</v>
       </c>
       <c r="V3" t="n">
-        <v>53690</v>
+        <v>53331</v>
       </c>
       <c r="W3" t="n">
-        <v>35204</v>
+        <v>35202</v>
       </c>
       <c r="X3" t="n">
-        <v>78536</v>
+        <v>78533</v>
       </c>
       <c r="Y3" t="n">
-        <v>63757</v>
+        <v>63756</v>
       </c>
       <c r="Z3" t="n">
         <v>34713</v>
       </c>
       <c r="AA3" t="n">
-        <v>39837</v>
+        <v>32345</v>
       </c>
       <c r="AB3" t="n">
         <v>32936</v>
       </c>
       <c r="AC3" t="n">
-        <v>34908</v>
+        <v>34907</v>
       </c>
       <c r="AD3" t="n">
-        <v>25824</v>
+        <v>25825</v>
       </c>
     </row>
     <row r="4">
@@ -775,91 +775,91 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149323</v>
+        <v>141932</v>
       </c>
       <c r="C4" t="n">
-        <v>126804</v>
+        <v>119381</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>179388</v>
+        <v>168538</v>
       </c>
       <c r="F4" t="n">
-        <v>148201</v>
+        <v>142387</v>
       </c>
       <c r="G4" t="n">
-        <v>102657</v>
+        <v>97167</v>
       </c>
       <c r="H4" t="n">
-        <v>92814</v>
+        <v>82620</v>
       </c>
       <c r="I4" t="n">
-        <v>130750</v>
+        <v>125659</v>
       </c>
       <c r="J4" t="n">
-        <v>151121</v>
+        <v>145089</v>
       </c>
       <c r="K4" t="n">
-        <v>151171</v>
+        <v>146168</v>
       </c>
       <c r="L4" t="n">
-        <v>134321</v>
+        <v>124976</v>
       </c>
       <c r="M4" t="n">
-        <v>171595</v>
+        <v>165752</v>
       </c>
       <c r="N4" t="n">
-        <v>86451</v>
+        <v>86452</v>
       </c>
       <c r="O4" t="n">
-        <v>156564</v>
+        <v>132835</v>
       </c>
       <c r="P4" t="n">
-        <v>161757</v>
+        <v>132661</v>
       </c>
       <c r="Q4" t="n">
-        <v>39813</v>
+        <v>39812</v>
       </c>
       <c r="R4" t="n">
-        <v>124256</v>
+        <v>119164</v>
       </c>
       <c r="S4" t="n">
-        <v>152535</v>
+        <v>137178</v>
       </c>
       <c r="T4" t="n">
-        <v>135496</v>
+        <v>130404</v>
       </c>
       <c r="U4" t="n">
-        <v>133507</v>
+        <v>128505</v>
       </c>
       <c r="V4" t="n">
-        <v>194099</v>
+        <v>172712</v>
       </c>
       <c r="W4" t="n">
-        <v>116420</v>
+        <v>106570</v>
       </c>
       <c r="X4" t="n">
-        <v>47744</v>
+        <v>47743</v>
       </c>
       <c r="Y4" t="n">
-        <v>77479</v>
+        <v>58366</v>
       </c>
       <c r="Z4" t="n">
-        <v>141428</v>
+        <v>136425</v>
       </c>
       <c r="AA4" t="n">
-        <v>146552</v>
+        <v>141548</v>
       </c>
       <c r="AB4" t="n">
-        <v>139651</v>
+        <v>134648</v>
       </c>
       <c r="AC4" t="n">
-        <v>137440</v>
+        <v>132348</v>
       </c>
       <c r="AD4" t="n">
-        <v>170553</v>
+        <v>145206</v>
       </c>
     </row>
     <row r="5">
@@ -869,91 +869,91 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30739</v>
+        <v>27465</v>
       </c>
       <c r="C5" t="n">
-        <v>70775</v>
+        <v>67617</v>
       </c>
       <c r="D5" t="n">
-        <v>177527</v>
+        <v>169537</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>39472</v>
+        <v>34918</v>
       </c>
       <c r="G5" t="n">
-        <v>78626</v>
+        <v>75501</v>
       </c>
       <c r="H5" t="n">
-        <v>93262</v>
+        <v>89702</v>
       </c>
       <c r="I5" t="n">
-        <v>50984</v>
+        <v>43763</v>
       </c>
       <c r="J5" t="n">
-        <v>43882</v>
+        <v>43549</v>
       </c>
       <c r="K5" t="n">
-        <v>34931</v>
+        <v>25566</v>
       </c>
       <c r="L5" t="n">
-        <v>57078</v>
+        <v>50280</v>
       </c>
       <c r="M5" t="n">
         <v>22093</v>
       </c>
       <c r="N5" t="n">
-        <v>101010</v>
+        <v>93652</v>
       </c>
       <c r="O5" t="n">
-        <v>52927</v>
+        <v>48919</v>
       </c>
       <c r="P5" t="n">
-        <v>58120</v>
+        <v>50317</v>
       </c>
       <c r="Q5" t="n">
-        <v>141184</v>
+        <v>138061</v>
       </c>
       <c r="R5" t="n">
-        <v>55042</v>
+        <v>50121</v>
       </c>
       <c r="S5" t="n">
-        <v>48898</v>
+        <v>44891</v>
       </c>
       <c r="T5" t="n">
-        <v>47658</v>
+        <v>43089</v>
       </c>
       <c r="U5" t="n">
-        <v>46944</v>
+        <v>40193</v>
       </c>
       <c r="V5" t="n">
-        <v>62387</v>
+        <v>58419</v>
       </c>
       <c r="W5" t="n">
-        <v>74685</v>
+        <v>67810</v>
       </c>
       <c r="X5" t="n">
-        <v>129041</v>
+        <v>125916</v>
       </c>
       <c r="Y5" t="n">
-        <v>114262</v>
+        <v>111139</v>
       </c>
       <c r="Z5" t="n">
-        <v>38384</v>
+        <v>34376</v>
       </c>
       <c r="AA5" t="n">
-        <v>35274</v>
+        <v>35273</v>
       </c>
       <c r="AB5" t="n">
-        <v>39887</v>
+        <v>35120</v>
       </c>
       <c r="AC5" t="n">
-        <v>46689</v>
+        <v>42118</v>
       </c>
       <c r="AD5" t="n">
-        <v>63184</v>
+        <v>56423</v>
       </c>
     </row>
     <row r="6">
@@ -963,91 +963,91 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9209</v>
+        <v>9157</v>
       </c>
       <c r="C6" t="n">
-        <v>41003</v>
+        <v>41004</v>
       </c>
       <c r="D6" t="n">
-        <v>147755</v>
+        <v>142302</v>
       </c>
       <c r="E6" t="n">
-        <v>41559</v>
+        <v>36322</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>48854</v>
+        <v>48266</v>
       </c>
       <c r="H6" t="n">
-        <v>63490</v>
+        <v>62761</v>
       </c>
       <c r="I6" t="n">
-        <v>17188</v>
+        <v>16528</v>
       </c>
       <c r="J6" t="n">
-        <v>27833</v>
+        <v>23450</v>
       </c>
       <c r="K6" t="n">
-        <v>13831</v>
+        <v>13347</v>
       </c>
       <c r="L6" t="n">
-        <v>24103</v>
+        <v>21534</v>
       </c>
       <c r="M6" t="n">
-        <v>34255</v>
+        <v>26941</v>
       </c>
       <c r="N6" t="n">
-        <v>68035</v>
+        <v>64788</v>
       </c>
       <c r="O6" t="n">
-        <v>19953</v>
+        <v>17601</v>
       </c>
       <c r="P6" t="n">
-        <v>19681</v>
+        <v>19682</v>
       </c>
       <c r="Q6" t="n">
-        <v>111412</v>
+        <v>110826</v>
       </c>
       <c r="R6" t="n">
-        <v>25271</v>
+        <v>25040</v>
       </c>
       <c r="S6" t="n">
-        <v>12408</v>
+        <v>12407</v>
       </c>
       <c r="T6" t="n">
-        <v>14684</v>
+        <v>14225</v>
       </c>
       <c r="U6" t="n">
-        <v>17172</v>
+        <v>15112</v>
       </c>
       <c r="V6" t="n">
-        <v>70811</v>
+        <v>60230</v>
       </c>
       <c r="W6" t="n">
-        <v>44913</v>
+        <v>38946</v>
       </c>
       <c r="X6" t="n">
-        <v>99270</v>
+        <v>98681</v>
       </c>
       <c r="Y6" t="n">
-        <v>84490</v>
+        <v>83904</v>
       </c>
       <c r="Z6" t="n">
-        <v>6537</v>
+        <v>6538</v>
       </c>
       <c r="AA6" t="n">
-        <v>23532</v>
+        <v>16499</v>
       </c>
       <c r="AB6" t="n">
-        <v>9981</v>
+        <v>8070</v>
       </c>
       <c r="AC6" t="n">
-        <v>13714</v>
+        <v>13254</v>
       </c>
       <c r="AD6" t="n">
-        <v>47265</v>
+        <v>42749</v>
       </c>
     </row>
     <row r="7">
@@ -1057,91 +1057,91 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>50070</v>
+        <v>47682</v>
       </c>
       <c r="C7" t="n">
-        <v>27551</v>
+        <v>26146</v>
       </c>
       <c r="D7" t="n">
-        <v>102929</v>
+        <v>96474</v>
       </c>
       <c r="E7" t="n">
-        <v>80135</v>
+        <v>74288</v>
       </c>
       <c r="F7" t="n">
-        <v>48949</v>
+        <v>48137</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>14772</v>
+        <v>14773</v>
       </c>
       <c r="I7" t="n">
         <v>31497</v>
       </c>
       <c r="J7" t="n">
-        <v>51868</v>
+        <v>47922</v>
       </c>
       <c r="K7" t="n">
-        <v>51919</v>
+        <v>51918</v>
       </c>
       <c r="L7" t="n">
-        <v>35068</v>
+        <v>34761</v>
       </c>
       <c r="M7" t="n">
-        <v>72343</v>
+        <v>71502</v>
       </c>
       <c r="N7" t="n">
         <v>39284</v>
       </c>
       <c r="O7" t="n">
-        <v>57312</v>
+        <v>42620</v>
       </c>
       <c r="P7" t="n">
-        <v>62504</v>
+        <v>52693</v>
       </c>
       <c r="Q7" t="n">
-        <v>66586</v>
+        <v>66587</v>
       </c>
       <c r="R7" t="n">
-        <v>25003</v>
+        <v>25002</v>
       </c>
       <c r="S7" t="n">
-        <v>53283</v>
+        <v>44769</v>
       </c>
       <c r="T7" t="n">
-        <v>36243</v>
+        <v>36242</v>
       </c>
       <c r="U7" t="n">
-        <v>34254</v>
+        <v>34255</v>
       </c>
       <c r="V7" t="n">
-        <v>94846</v>
+        <v>79477</v>
       </c>
       <c r="W7" t="n">
-        <v>18189</v>
+        <v>18188</v>
       </c>
       <c r="X7" t="n">
-        <v>54444</v>
+        <v>53227</v>
       </c>
       <c r="Y7" t="n">
-        <v>39664</v>
+        <v>38076</v>
       </c>
       <c r="Z7" t="n">
-        <v>42176</v>
+        <v>42175</v>
       </c>
       <c r="AA7" t="n">
-        <v>47299</v>
+        <v>47298</v>
       </c>
       <c r="AB7" t="n">
         <v>40398</v>
       </c>
       <c r="AC7" t="n">
-        <v>38187</v>
+        <v>38186</v>
       </c>
       <c r="AD7" t="n">
-        <v>71300</v>
+        <v>51971</v>
       </c>
     </row>
     <row r="8">
@@ -1151,19 +1151,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>64880</v>
+        <v>62491</v>
       </c>
       <c r="C8" t="n">
-        <v>42361</v>
+        <v>40454</v>
       </c>
       <c r="D8" t="n">
-        <v>93279</v>
+        <v>82623</v>
       </c>
       <c r="E8" t="n">
-        <v>94945</v>
+        <v>89097</v>
       </c>
       <c r="F8" t="n">
-        <v>63758</v>
+        <v>62946</v>
       </c>
       <c r="G8" t="n">
         <v>15457</v>
@@ -1172,70 +1172,70 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>46307</v>
+        <v>46023</v>
       </c>
       <c r="J8" t="n">
-        <v>66678</v>
+        <v>62732</v>
       </c>
       <c r="K8" t="n">
-        <v>66728</v>
+        <v>66727</v>
       </c>
       <c r="L8" t="n">
-        <v>49878</v>
+        <v>47274</v>
       </c>
       <c r="M8" t="n">
-        <v>87152</v>
+        <v>86311</v>
       </c>
       <c r="N8" t="n">
-        <v>37589</v>
+        <v>37587</v>
       </c>
       <c r="O8" t="n">
-        <v>72121</v>
+        <v>55133</v>
       </c>
       <c r="P8" t="n">
-        <v>77314</v>
+        <v>63895</v>
       </c>
       <c r="Q8" t="n">
-        <v>56936</v>
+        <v>55026</v>
       </c>
       <c r="R8" t="n">
         <v>39812</v>
       </c>
       <c r="S8" t="n">
-        <v>68092</v>
+        <v>59295</v>
       </c>
       <c r="T8" t="n">
-        <v>51053</v>
+        <v>50768</v>
       </c>
       <c r="U8" t="n">
         <v>49064</v>
       </c>
       <c r="V8" t="n">
-        <v>109656</v>
+        <v>93785</v>
       </c>
       <c r="W8" t="n">
-        <v>28869</v>
+        <v>28868</v>
       </c>
       <c r="X8" t="n">
-        <v>44794</v>
+        <v>39376</v>
       </c>
       <c r="Y8" t="n">
-        <v>30015</v>
+        <v>24225</v>
       </c>
       <c r="Z8" t="n">
-        <v>56985</v>
+        <v>56984</v>
       </c>
       <c r="AA8" t="n">
-        <v>62109</v>
+        <v>62107</v>
       </c>
       <c r="AB8" t="n">
-        <v>55208</v>
+        <v>55207</v>
       </c>
       <c r="AC8" t="n">
-        <v>52997</v>
+        <v>52712</v>
       </c>
       <c r="AD8" t="n">
-        <v>86110</v>
+        <v>66279</v>
       </c>
     </row>
     <row r="9">
@@ -1245,91 +1245,91 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>23414</v>
+        <v>16992</v>
       </c>
       <c r="C9" t="n">
-        <v>27158</v>
+        <v>27159</v>
       </c>
       <c r="D9" t="n">
-        <v>130640</v>
+        <v>125774</v>
       </c>
       <c r="E9" t="n">
-        <v>53480</v>
+        <v>43598</v>
       </c>
       <c r="F9" t="n">
-        <v>18255</v>
+        <v>17633</v>
       </c>
       <c r="G9" t="n">
-        <v>31739</v>
+        <v>31738</v>
       </c>
       <c r="H9" t="n">
-        <v>46375</v>
+        <v>46233</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>25212</v>
+        <v>25214</v>
       </c>
       <c r="K9" t="n">
-        <v>25263</v>
+        <v>22407</v>
       </c>
       <c r="L9" t="n">
-        <v>12513</v>
+        <v>12511</v>
       </c>
       <c r="M9" t="n">
-        <v>45687</v>
+        <v>41991</v>
       </c>
       <c r="N9" t="n">
-        <v>55480</v>
+        <v>55392</v>
       </c>
       <c r="O9" t="n">
-        <v>14746</v>
+        <v>14745</v>
       </c>
       <c r="P9" t="n">
-        <v>23961</v>
+        <v>23960</v>
       </c>
       <c r="Q9" t="n">
-        <v>94297</v>
+        <v>94298</v>
       </c>
       <c r="R9" t="n">
-        <v>9022</v>
+        <v>9023</v>
       </c>
       <c r="S9" t="n">
-        <v>16037</v>
+        <v>15223</v>
       </c>
       <c r="T9" t="n">
-        <v>7510</v>
+        <v>7509</v>
       </c>
       <c r="U9" t="n">
-        <v>7589</v>
+        <v>7258</v>
       </c>
       <c r="V9" t="n">
-        <v>68190</v>
+        <v>61996</v>
       </c>
       <c r="W9" t="n">
         <v>26557</v>
       </c>
       <c r="X9" t="n">
-        <v>82154</v>
+        <v>82153</v>
       </c>
       <c r="Y9" t="n">
-        <v>67375</v>
+        <v>67376</v>
       </c>
       <c r="Z9" t="n">
-        <v>15520</v>
+        <v>12285</v>
       </c>
       <c r="AA9" t="n">
-        <v>20643</v>
+        <v>17252</v>
       </c>
       <c r="AB9" t="n">
-        <v>13742</v>
+        <v>11000</v>
       </c>
       <c r="AC9" t="n">
-        <v>8092</v>
+        <v>8079</v>
       </c>
       <c r="AD9" t="n">
-        <v>44644</v>
+        <v>42238</v>
       </c>
     </row>
     <row r="10">
@@ -1339,91 +1339,91 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22555</v>
+        <v>19992</v>
       </c>
       <c r="C10" t="n">
         <v>28039</v>
       </c>
       <c r="D10" t="n">
-        <v>151943</v>
+        <v>145665</v>
       </c>
       <c r="E10" t="n">
-        <v>44346</v>
+        <v>43187</v>
       </c>
       <c r="F10" t="n">
-        <v>28504</v>
+        <v>24124</v>
       </c>
       <c r="G10" t="n">
-        <v>53042</v>
+        <v>49191</v>
       </c>
       <c r="H10" t="n">
-        <v>67678</v>
+        <v>63828</v>
       </c>
       <c r="I10" t="n">
-        <v>25401</v>
+        <v>25398</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>26747</v>
+        <v>25960</v>
       </c>
       <c r="L10" t="n">
-        <v>41018</v>
+        <v>34095</v>
       </c>
       <c r="M10" t="n">
-        <v>46773</v>
+        <v>44878</v>
       </c>
       <c r="N10" t="n">
-        <v>84949</v>
+        <v>77223</v>
       </c>
       <c r="O10" t="n">
-        <v>36867</v>
+        <v>33343</v>
       </c>
       <c r="P10" t="n">
-        <v>42059</v>
+        <v>39799</v>
       </c>
       <c r="Q10" t="n">
-        <v>115600</v>
+        <v>115599</v>
       </c>
       <c r="R10" t="n">
-        <v>29459</v>
+        <v>27813</v>
       </c>
       <c r="S10" t="n">
-        <v>32838</v>
+        <v>30578</v>
       </c>
       <c r="T10" t="n">
-        <v>31598</v>
+        <v>26802</v>
       </c>
       <c r="U10" t="n">
-        <v>19658</v>
+        <v>19656</v>
       </c>
       <c r="V10" t="n">
         <v>39959</v>
       </c>
       <c r="W10" t="n">
-        <v>49101</v>
+        <v>48388</v>
       </c>
       <c r="X10" t="n">
-        <v>103458</v>
+        <v>102418</v>
       </c>
       <c r="Y10" t="n">
-        <v>88678</v>
+        <v>87267</v>
       </c>
       <c r="Z10" t="n">
-        <v>21731</v>
+        <v>18199</v>
       </c>
       <c r="AA10" t="n">
-        <v>8250</v>
+        <v>7998</v>
       </c>
       <c r="AB10" t="n">
-        <v>19954</v>
+        <v>17167</v>
       </c>
       <c r="AC10" t="n">
-        <v>30629</v>
+        <v>25831</v>
       </c>
       <c r="AD10" t="n">
-        <v>23744</v>
+        <v>20571</v>
       </c>
     </row>
     <row r="11">
@@ -1433,91 +1433,91 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6764</v>
+        <v>6765</v>
       </c>
       <c r="C11" t="n">
-        <v>44061</v>
+        <v>44062</v>
       </c>
       <c r="D11" t="n">
-        <v>150813</v>
+        <v>145947</v>
       </c>
       <c r="E11" t="n">
-        <v>25633</v>
+        <v>25634</v>
       </c>
       <c r="F11" t="n">
-        <v>12757</v>
+        <v>12253</v>
       </c>
       <c r="G11" t="n">
-        <v>51912</v>
+        <v>51911</v>
       </c>
       <c r="H11" t="n">
         <v>66548</v>
       </c>
       <c r="I11" t="n">
-        <v>24270</v>
+        <v>21956</v>
       </c>
       <c r="J11" t="n">
-        <v>26868</v>
+        <v>24427</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>30364</v>
+        <v>27615</v>
       </c>
       <c r="M11" t="n">
-        <v>20614</v>
+        <v>19584</v>
       </c>
       <c r="N11" t="n">
-        <v>74295</v>
+        <v>70763</v>
       </c>
       <c r="O11" t="n">
-        <v>26213</v>
+        <v>24778</v>
       </c>
       <c r="P11" t="n">
-        <v>24753</v>
+        <v>24751</v>
       </c>
       <c r="Q11" t="n">
-        <v>114470</v>
+        <v>114471</v>
       </c>
       <c r="R11" t="n">
-        <v>28328</v>
+        <v>28329</v>
       </c>
       <c r="S11" t="n">
-        <v>22184</v>
+        <v>19584</v>
       </c>
       <c r="T11" t="n">
-        <v>20944</v>
+        <v>20424</v>
       </c>
       <c r="U11" t="n">
-        <v>20230</v>
+        <v>18539</v>
       </c>
       <c r="V11" t="n">
         <v>61062</v>
       </c>
       <c r="W11" t="n">
-        <v>47971</v>
+        <v>45145</v>
       </c>
       <c r="X11" t="n">
-        <v>102327</v>
+        <v>102326</v>
       </c>
       <c r="Y11" t="n">
-        <v>87548</v>
+        <v>87549</v>
       </c>
       <c r="Z11" t="n">
         <v>11670</v>
       </c>
       <c r="AA11" t="n">
-        <v>18259</v>
+        <v>17476</v>
       </c>
       <c r="AB11" t="n">
         <v>13172</v>
       </c>
       <c r="AC11" t="n">
-        <v>19974</v>
+        <v>19453</v>
       </c>
       <c r="AD11" t="n">
-        <v>46169</v>
+        <v>43726</v>
       </c>
     </row>
     <row r="12">
@@ -1527,40 +1527,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>29486</v>
+        <v>24161</v>
       </c>
       <c r="C12" t="n">
-        <v>36790</v>
+        <v>34399</v>
       </c>
       <c r="D12" t="n">
-        <v>134592</v>
+        <v>126287</v>
       </c>
       <c r="E12" t="n">
-        <v>59062</v>
+        <v>50931</v>
       </c>
       <c r="F12" t="n">
-        <v>25029</v>
+        <v>21159</v>
       </c>
       <c r="G12" t="n">
-        <v>35692</v>
+        <v>34941</v>
       </c>
       <c r="H12" t="n">
-        <v>50328</v>
+        <v>49064</v>
       </c>
       <c r="I12" t="n">
-        <v>11768</v>
+        <v>11767</v>
       </c>
       <c r="J12" t="n">
-        <v>40656</v>
+        <v>33797</v>
       </c>
       <c r="K12" t="n">
-        <v>31335</v>
+        <v>28310</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>51759</v>
+        <v>44686</v>
       </c>
       <c r="N12" t="n">
         <v>43886</v>
@@ -1569,13 +1569,13 @@
         <v>7859</v>
       </c>
       <c r="P12" t="n">
-        <v>20126</v>
+        <v>18022</v>
       </c>
       <c r="Q12" t="n">
-        <v>98250</v>
+        <v>91119</v>
       </c>
       <c r="R12" t="n">
-        <v>14440</v>
+        <v>14443</v>
       </c>
       <c r="S12" t="n">
         <v>12202</v>
@@ -1584,34 +1584,34 @@
         <v>7128</v>
       </c>
       <c r="U12" t="n">
-        <v>19461</v>
+        <v>19025</v>
       </c>
       <c r="V12" t="n">
-        <v>83634</v>
+        <v>71063</v>
       </c>
       <c r="W12" t="n">
-        <v>19148</v>
+        <v>19149</v>
       </c>
       <c r="X12" t="n">
-        <v>86107</v>
+        <v>80952</v>
       </c>
       <c r="Y12" t="n">
-        <v>71328</v>
+        <v>67889</v>
       </c>
       <c r="Z12" t="n">
-        <v>21882</v>
+        <v>18182</v>
       </c>
       <c r="AA12" t="n">
-        <v>36087</v>
+        <v>26319</v>
       </c>
       <c r="AB12" t="n">
-        <v>16820</v>
+        <v>16540</v>
       </c>
       <c r="AC12" t="n">
         <v>9072</v>
       </c>
       <c r="AD12" t="n">
-        <v>60088</v>
+        <v>51929</v>
       </c>
     </row>
     <row r="13">
@@ -1621,91 +1621,91 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>28940</v>
+        <v>24572</v>
       </c>
       <c r="C13" t="n">
-        <v>64043</v>
+        <v>63609</v>
       </c>
       <c r="D13" t="n">
-        <v>170795</v>
+        <v>165494</v>
       </c>
       <c r="E13" t="n">
         <v>22126</v>
       </c>
       <c r="F13" t="n">
-        <v>32740</v>
+        <v>27033</v>
       </c>
       <c r="G13" t="n">
-        <v>71895</v>
+        <v>71458</v>
       </c>
       <c r="H13" t="n">
-        <v>86531</v>
+        <v>86095</v>
       </c>
       <c r="I13" t="n">
-        <v>44253</v>
+        <v>41503</v>
       </c>
       <c r="J13" t="n">
-        <v>46712</v>
+        <v>43974</v>
       </c>
       <c r="K13" t="n">
-        <v>20637</v>
+        <v>19547</v>
       </c>
       <c r="L13" t="n">
-        <v>50347</v>
+        <v>44694</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>94278</v>
+        <v>81305</v>
       </c>
       <c r="O13" t="n">
-        <v>46196</v>
+        <v>38977</v>
       </c>
       <c r="P13" t="n">
-        <v>35294</v>
+        <v>35293</v>
       </c>
       <c r="Q13" t="n">
-        <v>134453</v>
+        <v>128538</v>
       </c>
       <c r="R13" t="n">
-        <v>48311</v>
+        <v>47876</v>
       </c>
       <c r="S13" t="n">
-        <v>42167</v>
+        <v>33783</v>
       </c>
       <c r="T13" t="n">
-        <v>40927</v>
+        <v>39971</v>
       </c>
       <c r="U13" t="n">
-        <v>40212</v>
+        <v>38086</v>
       </c>
       <c r="V13" t="n">
-        <v>76015</v>
+        <v>75963</v>
       </c>
       <c r="W13" t="n">
-        <v>67954</v>
+        <v>63843</v>
       </c>
       <c r="X13" t="n">
-        <v>122310</v>
+        <v>121409</v>
       </c>
       <c r="Y13" t="n">
-        <v>107531</v>
+        <v>107096</v>
       </c>
       <c r="Z13" t="n">
-        <v>31653</v>
+        <v>30793</v>
       </c>
       <c r="AA13" t="n">
-        <v>38104</v>
+        <v>36859</v>
       </c>
       <c r="AB13" t="n">
-        <v>33155</v>
+        <v>32295</v>
       </c>
       <c r="AC13" t="n">
-        <v>39957</v>
+        <v>39000</v>
       </c>
       <c r="AD13" t="n">
-        <v>66014</v>
+        <v>63273</v>
       </c>
     </row>
     <row r="14">
@@ -1715,91 +1715,91 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>72650</v>
+        <v>67584</v>
       </c>
       <c r="C14" t="n">
-        <v>64303</v>
+        <v>62517</v>
       </c>
       <c r="D14" t="n">
         <v>86417</v>
       </c>
       <c r="E14" t="n">
-        <v>102226</v>
+        <v>94276</v>
       </c>
       <c r="F14" t="n">
-        <v>68193</v>
+        <v>64504</v>
       </c>
       <c r="G14" t="n">
-        <v>39824</v>
+        <v>39825</v>
       </c>
       <c r="H14" t="n">
-        <v>37529</v>
+        <v>37528</v>
       </c>
       <c r="I14" t="n">
-        <v>55021</v>
+        <v>55024</v>
       </c>
       <c r="J14" t="n">
-        <v>83820</v>
+        <v>77039</v>
       </c>
       <c r="K14" t="n">
-        <v>74499</v>
+        <v>69602</v>
       </c>
       <c r="L14" t="n">
         <v>43434</v>
       </c>
       <c r="M14" t="n">
-        <v>94923</v>
+        <v>81579</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>51612</v>
+        <v>51293</v>
       </c>
       <c r="P14" t="n">
         <v>46209</v>
       </c>
       <c r="Q14" t="n">
-        <v>47231</v>
+        <v>47233</v>
       </c>
       <c r="R14" t="n">
-        <v>61755</v>
+        <v>50173</v>
       </c>
       <c r="S14" t="n">
-        <v>56479</v>
+        <v>55636</v>
       </c>
       <c r="T14" t="n">
         <v>50473</v>
       </c>
       <c r="U14" t="n">
-        <v>71006</v>
+        <v>59425</v>
       </c>
       <c r="V14" t="n">
-        <v>126797</v>
+        <v>114408</v>
       </c>
       <c r="W14" t="n">
-        <v>28774</v>
+        <v>28775</v>
       </c>
       <c r="X14" t="n">
-        <v>40103</v>
+        <v>40104</v>
       </c>
       <c r="Y14" t="n">
-        <v>54550</v>
+        <v>47044</v>
       </c>
       <c r="Z14" t="n">
-        <v>65046</v>
+        <v>61527</v>
       </c>
       <c r="AA14" t="n">
-        <v>79251</v>
+        <v>69664</v>
       </c>
       <c r="AB14" t="n">
-        <v>65968</v>
+        <v>59885</v>
       </c>
       <c r="AC14" t="n">
-        <v>63194</v>
+        <v>52417</v>
       </c>
       <c r="AD14" t="n">
-        <v>103252</v>
+        <v>88342</v>
       </c>
     </row>
     <row r="15">
@@ -1809,91 +1809,91 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23734</v>
+        <v>21512</v>
       </c>
       <c r="C15" t="n">
-        <v>48074</v>
+        <v>41357</v>
       </c>
       <c r="D15" t="n">
-        <v>154826</v>
+        <v>132151</v>
       </c>
       <c r="E15" t="n">
-        <v>53310</v>
+        <v>48248</v>
       </c>
       <c r="F15" t="n">
-        <v>19277</v>
+        <v>17262</v>
       </c>
       <c r="G15" t="n">
-        <v>55925</v>
+        <v>42293</v>
       </c>
       <c r="H15" t="n">
-        <v>70561</v>
+        <v>54928</v>
       </c>
       <c r="I15" t="n">
         <v>14198</v>
       </c>
       <c r="J15" t="n">
-        <v>34904</v>
+        <v>34310</v>
       </c>
       <c r="K15" t="n">
-        <v>25583</v>
+        <v>25541</v>
       </c>
       <c r="L15" t="n">
-        <v>7983</v>
+        <v>7984</v>
       </c>
       <c r="M15" t="n">
-        <v>46007</v>
+        <v>39096</v>
       </c>
       <c r="N15" t="n">
-        <v>50172</v>
+        <v>48930</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>12070</v>
+        <v>10163</v>
       </c>
       <c r="Q15" t="n">
-        <v>118483</v>
+        <v>96163</v>
       </c>
       <c r="R15" t="n">
-        <v>32341</v>
+        <v>21795</v>
       </c>
       <c r="S15" t="n">
-        <v>5650</v>
+        <v>5649</v>
       </c>
       <c r="T15" t="n">
-        <v>9234</v>
+        <v>8869</v>
       </c>
       <c r="U15" t="n">
-        <v>24243</v>
+        <v>20119</v>
       </c>
       <c r="V15" t="n">
-        <v>77881</v>
+        <v>71576</v>
       </c>
       <c r="W15" t="n">
         <v>26129</v>
       </c>
       <c r="X15" t="n">
-        <v>106340</v>
+        <v>88778</v>
       </c>
       <c r="Y15" t="n">
-        <v>91561</v>
+        <v>73753</v>
       </c>
       <c r="Z15" t="n">
-        <v>16130</v>
+        <v>16131</v>
       </c>
       <c r="AA15" t="n">
-        <v>30335</v>
+        <v>26832</v>
       </c>
       <c r="AB15" t="n">
-        <v>17052</v>
+        <v>17053</v>
       </c>
       <c r="AC15" t="n">
         <v>10583</v>
       </c>
       <c r="AD15" t="n">
-        <v>54336</v>
+        <v>53609</v>
       </c>
     </row>
     <row r="16">
@@ -1903,82 +1903,82 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30884</v>
+        <v>29823</v>
       </c>
       <c r="C16" t="n">
-        <v>55224</v>
+        <v>50008</v>
       </c>
       <c r="D16" t="n">
-        <v>161976</v>
+        <v>132893</v>
       </c>
       <c r="E16" t="n">
-        <v>60460</v>
+        <v>49347</v>
       </c>
       <c r="F16" t="n">
-        <v>20820</v>
+        <v>20822</v>
       </c>
       <c r="G16" t="n">
-        <v>63075</v>
+        <v>52146</v>
       </c>
       <c r="H16" t="n">
-        <v>77711</v>
+        <v>64445</v>
       </c>
       <c r="I16" t="n">
         <v>22849</v>
       </c>
       <c r="J16" t="n">
-        <v>42054</v>
+        <v>41459</v>
       </c>
       <c r="K16" t="n">
         <v>23713</v>
       </c>
       <c r="L16" t="n">
-        <v>19365</v>
+        <v>18644</v>
       </c>
       <c r="M16" t="n">
-        <v>35730</v>
+        <v>35729</v>
       </c>
       <c r="N16" t="n">
-        <v>46478</v>
+        <v>46476</v>
       </c>
       <c r="O16" t="n">
-        <v>11854</v>
+        <v>10660</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>125633</v>
+        <v>93709</v>
       </c>
       <c r="R16" t="n">
-        <v>39491</v>
+        <v>31031</v>
       </c>
       <c r="S16" t="n">
-        <v>11001</v>
+        <v>11002</v>
       </c>
       <c r="T16" t="n">
-        <v>17479</v>
+        <v>17480</v>
       </c>
       <c r="U16" t="n">
-        <v>31393</v>
+        <v>28365</v>
       </c>
       <c r="V16" t="n">
-        <v>85031</v>
+        <v>78725</v>
       </c>
       <c r="W16" t="n">
-        <v>35645</v>
+        <v>35646</v>
       </c>
       <c r="X16" t="n">
-        <v>113490</v>
+        <v>86580</v>
       </c>
       <c r="Y16" t="n">
-        <v>98711</v>
+        <v>83270</v>
       </c>
       <c r="Z16" t="n">
         <v>23280</v>
       </c>
       <c r="AA16" t="n">
-        <v>37485</v>
+        <v>33981</v>
       </c>
       <c r="AB16" t="n">
         <v>24202</v>
@@ -1987,7 +1987,7 @@
         <v>19176</v>
       </c>
       <c r="AD16" t="n">
-        <v>61485</v>
+        <v>60758</v>
       </c>
     </row>
     <row r="17">
@@ -1997,91 +1997,91 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>113166</v>
+        <v>110779</v>
       </c>
       <c r="C17" t="n">
-        <v>90647</v>
+        <v>90648</v>
       </c>
       <c r="D17" t="n">
         <v>39670</v>
       </c>
       <c r="E17" t="n">
-        <v>143232</v>
+        <v>137385</v>
       </c>
       <c r="F17" t="n">
-        <v>112045</v>
+        <v>111234</v>
       </c>
       <c r="G17" t="n">
-        <v>66501</v>
+        <v>66503</v>
       </c>
       <c r="H17" t="n">
-        <v>56657</v>
+        <v>53193</v>
       </c>
       <c r="I17" t="n">
-        <v>94594</v>
+        <v>94595</v>
       </c>
       <c r="J17" t="n">
-        <v>114965</v>
+        <v>114425</v>
       </c>
       <c r="K17" t="n">
         <v>115015</v>
       </c>
       <c r="L17" t="n">
-        <v>98164</v>
+        <v>90666</v>
       </c>
       <c r="M17" t="n">
-        <v>135439</v>
+        <v>128811</v>
       </c>
       <c r="N17" t="n">
-        <v>47230</v>
+        <v>47232</v>
       </c>
       <c r="O17" t="n">
-        <v>120408</v>
+        <v>98525</v>
       </c>
       <c r="P17" t="n">
-        <v>125600</v>
+        <v>93441</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>88099</v>
+        <v>88100</v>
       </c>
       <c r="S17" t="n">
-        <v>116379</v>
+        <v>102868</v>
       </c>
       <c r="T17" t="n">
-        <v>99340</v>
+        <v>97705</v>
       </c>
       <c r="U17" t="n">
-        <v>97350</v>
+        <v>97352</v>
       </c>
       <c r="V17" t="n">
-        <v>157943</v>
+        <v>143979</v>
       </c>
       <c r="W17" t="n">
-        <v>80264</v>
+        <v>75447</v>
       </c>
       <c r="X17" t="n">
         <v>15392</v>
       </c>
       <c r="Y17" t="n">
-        <v>41323</v>
+        <v>37024</v>
       </c>
       <c r="Z17" t="n">
         <v>105272</v>
       </c>
       <c r="AA17" t="n">
-        <v>110396</v>
+        <v>110395</v>
       </c>
       <c r="AB17" t="n">
         <v>103495</v>
       </c>
       <c r="AC17" t="n">
-        <v>101284</v>
+        <v>99649</v>
       </c>
       <c r="AD17" t="n">
-        <v>134397</v>
+        <v>116473</v>
       </c>
     </row>
     <row r="18">
@@ -2091,91 +2091,91 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>29059</v>
+        <v>23257</v>
       </c>
       <c r="C18" t="n">
-        <v>28243</v>
+        <v>22493</v>
       </c>
       <c r="D18" t="n">
-        <v>124893</v>
+        <v>120027</v>
       </c>
       <c r="E18" t="n">
-        <v>59125</v>
+        <v>49863</v>
       </c>
       <c r="F18" t="n">
-        <v>27938</v>
+        <v>24659</v>
       </c>
       <c r="G18" t="n">
-        <v>25992</v>
+        <v>25991</v>
       </c>
       <c r="H18" t="n">
-        <v>40628</v>
+        <v>40627</v>
       </c>
       <c r="I18" t="n">
-        <v>9166</v>
+        <v>9167</v>
       </c>
       <c r="J18" t="n">
-        <v>30858</v>
+        <v>28039</v>
       </c>
       <c r="K18" t="n">
-        <v>30908</v>
+        <v>28672</v>
       </c>
       <c r="L18" t="n">
-        <v>13851</v>
+        <v>13852</v>
       </c>
       <c r="M18" t="n">
-        <v>51332</v>
+        <v>48256</v>
       </c>
       <c r="N18" t="n">
-        <v>61693</v>
+        <v>50886</v>
       </c>
       <c r="O18" t="n">
-        <v>36301</v>
+        <v>21629</v>
       </c>
       <c r="P18" t="n">
-        <v>41493</v>
+        <v>31599</v>
       </c>
       <c r="Q18" t="n">
-        <v>88550</v>
+        <v>88551</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>32272</v>
+        <v>23553</v>
       </c>
       <c r="T18" t="n">
-        <v>15147</v>
+        <v>15026</v>
       </c>
       <c r="U18" t="n">
-        <v>13243</v>
+        <v>10916</v>
       </c>
       <c r="V18" t="n">
-        <v>73836</v>
+        <v>66521</v>
       </c>
       <c r="W18" t="n">
         <v>22051</v>
       </c>
       <c r="X18" t="n">
-        <v>76407</v>
+        <v>76406</v>
       </c>
       <c r="Y18" t="n">
-        <v>61628</v>
+        <v>61629</v>
       </c>
       <c r="Z18" t="n">
-        <v>21165</v>
+        <v>18697</v>
       </c>
       <c r="AA18" t="n">
-        <v>26289</v>
+        <v>23517</v>
       </c>
       <c r="AB18" t="n">
-        <v>19388</v>
+        <v>17665</v>
       </c>
       <c r="AC18" t="n">
-        <v>17091</v>
+        <v>16005</v>
       </c>
       <c r="AD18" t="n">
-        <v>50290</v>
+        <v>43383</v>
       </c>
     </row>
     <row r="19">
@@ -2185,91 +2185,91 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>21043</v>
+        <v>18821</v>
       </c>
       <c r="C19" t="n">
-        <v>45383</v>
+        <v>41822</v>
       </c>
       <c r="D19" t="n">
-        <v>152135</v>
+        <v>137455</v>
       </c>
       <c r="E19" t="n">
-        <v>50619</v>
+        <v>45557</v>
       </c>
       <c r="F19" t="n">
-        <v>12394</v>
+        <v>12395</v>
       </c>
       <c r="G19" t="n">
-        <v>53234</v>
+        <v>43960</v>
       </c>
       <c r="H19" t="n">
-        <v>67870</v>
+        <v>58455</v>
       </c>
       <c r="I19" t="n">
         <v>14663</v>
       </c>
       <c r="J19" t="n">
-        <v>32213</v>
+        <v>31619</v>
       </c>
       <c r="K19" t="n">
-        <v>22892</v>
+        <v>20635</v>
       </c>
       <c r="L19" t="n">
-        <v>12381</v>
+        <v>12335</v>
       </c>
       <c r="M19" t="n">
-        <v>43316</v>
+        <v>34229</v>
       </c>
       <c r="N19" t="n">
-        <v>56312</v>
+        <v>54234</v>
       </c>
       <c r="O19" t="n">
-        <v>5977</v>
+        <v>5976</v>
       </c>
       <c r="P19" t="n">
         <v>10739</v>
       </c>
       <c r="Q19" t="n">
-        <v>115792</v>
+        <v>101467</v>
       </c>
       <c r="R19" t="n">
-        <v>29650</v>
+        <v>22711</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>9293</v>
+        <v>9294</v>
       </c>
       <c r="U19" t="n">
-        <v>21552</v>
+        <v>19117</v>
       </c>
       <c r="V19" t="n">
-        <v>75190</v>
+        <v>68070</v>
       </c>
       <c r="W19" t="n">
-        <v>32416</v>
+        <v>30852</v>
       </c>
       <c r="X19" t="n">
-        <v>103649</v>
+        <v>93287</v>
       </c>
       <c r="Y19" t="n">
-        <v>88870</v>
+        <v>79057</v>
       </c>
       <c r="Z19" t="n">
-        <v>13439</v>
+        <v>13142</v>
       </c>
       <c r="AA19" t="n">
-        <v>27644</v>
+        <v>23393</v>
       </c>
       <c r="AB19" t="n">
-        <v>14361</v>
+        <v>14362</v>
       </c>
       <c r="AC19" t="n">
-        <v>10990</v>
+        <v>10127</v>
       </c>
       <c r="AD19" t="n">
-        <v>51645</v>
+        <v>50918</v>
       </c>
     </row>
     <row r="20">
@@ -2279,55 +2279,55 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19451</v>
+        <v>17229</v>
       </c>
       <c r="C20" t="n">
-        <v>34578</v>
+        <v>34184</v>
       </c>
       <c r="D20" t="n">
-        <v>135224</v>
+        <v>130358</v>
       </c>
       <c r="E20" t="n">
-        <v>49027</v>
+        <v>43921</v>
       </c>
       <c r="F20" t="n">
-        <v>14993</v>
+        <v>14149</v>
       </c>
       <c r="G20" t="n">
-        <v>36323</v>
+        <v>36322</v>
       </c>
       <c r="H20" t="n">
-        <v>50959</v>
+        <v>50817</v>
       </c>
       <c r="I20" t="n">
-        <v>7026</v>
+        <v>7025</v>
       </c>
       <c r="J20" t="n">
-        <v>30620</v>
+        <v>26787</v>
       </c>
       <c r="K20" t="n">
         <v>21300</v>
       </c>
       <c r="L20" t="n">
-        <v>7310</v>
+        <v>7309</v>
       </c>
       <c r="M20" t="n">
-        <v>41724</v>
+        <v>39256</v>
       </c>
       <c r="N20" t="n">
-        <v>50566</v>
+        <v>50563</v>
       </c>
       <c r="O20" t="n">
-        <v>9543</v>
+        <v>9297</v>
       </c>
       <c r="P20" t="n">
-        <v>17230</v>
+        <v>17229</v>
       </c>
       <c r="Q20" t="n">
-        <v>98881</v>
+        <v>97796</v>
       </c>
       <c r="R20" t="n">
-        <v>15206</v>
+        <v>15073</v>
       </c>
       <c r="S20" t="n">
         <v>9305</v>
@@ -2336,34 +2336,34 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>12349</v>
+        <v>12351</v>
       </c>
       <c r="V20" t="n">
-        <v>73598</v>
+        <v>64053</v>
       </c>
       <c r="W20" t="n">
         <v>25397</v>
       </c>
       <c r="X20" t="n">
-        <v>86739</v>
+        <v>86737</v>
       </c>
       <c r="Y20" t="n">
-        <v>71959</v>
+        <v>71960</v>
       </c>
       <c r="Z20" t="n">
-        <v>11847</v>
+        <v>11172</v>
       </c>
       <c r="AA20" t="n">
-        <v>26051</v>
+        <v>19309</v>
       </c>
       <c r="AB20" t="n">
-        <v>10369</v>
+        <v>9530</v>
       </c>
       <c r="AC20" t="n">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="AD20" t="n">
-        <v>50052</v>
+        <v>46086</v>
       </c>
     </row>
     <row r="21">
@@ -2373,91 +2373,91 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>18173</v>
+        <v>13427</v>
       </c>
       <c r="C21" t="n">
-        <v>27618</v>
+        <v>27619</v>
       </c>
       <c r="D21" t="n">
-        <v>134370</v>
+        <v>129504</v>
       </c>
       <c r="E21" t="n">
-        <v>48239</v>
+        <v>40033</v>
       </c>
       <c r="F21" t="n">
-        <v>17052</v>
+        <v>14829</v>
       </c>
       <c r="G21" t="n">
-        <v>35469</v>
+        <v>35468</v>
       </c>
       <c r="H21" t="n">
         <v>50105</v>
       </c>
       <c r="I21" t="n">
-        <v>7389</v>
+        <v>7116</v>
       </c>
       <c r="J21" t="n">
-        <v>19972</v>
+        <v>19973</v>
       </c>
       <c r="K21" t="n">
-        <v>20022</v>
+        <v>18842</v>
       </c>
       <c r="L21" t="n">
-        <v>18909</v>
+        <v>18628</v>
       </c>
       <c r="M21" t="n">
-        <v>40446</v>
+        <v>38426</v>
       </c>
       <c r="N21" t="n">
-        <v>71170</v>
+        <v>60363</v>
       </c>
       <c r="O21" t="n">
-        <v>25415</v>
+        <v>20434</v>
       </c>
       <c r="P21" t="n">
-        <v>30607</v>
+        <v>28029</v>
       </c>
       <c r="Q21" t="n">
-        <v>98027</v>
+        <v>98028</v>
       </c>
       <c r="R21" t="n">
         <v>10988</v>
       </c>
       <c r="S21" t="n">
-        <v>21386</v>
+        <v>18947</v>
       </c>
       <c r="T21" t="n">
-        <v>12230</v>
+        <v>12229</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>62950</v>
+        <v>58431</v>
       </c>
       <c r="W21" t="n">
         <v>31528</v>
       </c>
       <c r="X21" t="n">
-        <v>85884</v>
+        <v>85883</v>
       </c>
       <c r="Y21" t="n">
-        <v>71105</v>
+        <v>71106</v>
       </c>
       <c r="Z21" t="n">
-        <v>10279</v>
+        <v>8867</v>
       </c>
       <c r="AA21" t="n">
-        <v>15403</v>
+        <v>13687</v>
       </c>
       <c r="AB21" t="n">
-        <v>8502</v>
+        <v>7835</v>
       </c>
       <c r="AC21" t="n">
-        <v>11260</v>
+        <v>11258</v>
       </c>
       <c r="AD21" t="n">
-        <v>39404</v>
+        <v>39272</v>
       </c>
     </row>
     <row r="22">
@@ -2467,91 +2467,91 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62328</v>
+        <v>55637</v>
       </c>
       <c r="C22" t="n">
-        <v>53700</v>
+        <v>53701</v>
       </c>
       <c r="D22" t="n">
-        <v>194809</v>
+        <v>175464</v>
       </c>
       <c r="E22" t="n">
-        <v>62570</v>
+        <v>58479</v>
       </c>
       <c r="F22" t="n">
-        <v>71370</v>
+        <v>60143</v>
       </c>
       <c r="G22" t="n">
-        <v>95908</v>
+        <v>81154</v>
       </c>
       <c r="H22" t="n">
-        <v>110544</v>
+        <v>95318</v>
       </c>
       <c r="I22" t="n">
-        <v>68266</v>
+        <v>62810</v>
       </c>
       <c r="J22" t="n">
         <v>39963</v>
       </c>
       <c r="K22" t="n">
-        <v>66521</v>
+        <v>61056</v>
       </c>
       <c r="L22" t="n">
-        <v>83884</v>
+        <v>72345</v>
       </c>
       <c r="M22" t="n">
-        <v>75823</v>
+        <v>75770</v>
       </c>
       <c r="N22" t="n">
-        <v>127815</v>
+        <v>115599</v>
       </c>
       <c r="O22" t="n">
-        <v>79733</v>
+        <v>70086</v>
       </c>
       <c r="P22" t="n">
-        <v>84925</v>
+        <v>76542</v>
       </c>
       <c r="Q22" t="n">
-        <v>158466</v>
+        <v>144379</v>
       </c>
       <c r="R22" t="n">
-        <v>72324</v>
+        <v>67776</v>
       </c>
       <c r="S22" t="n">
-        <v>75704</v>
+        <v>67321</v>
       </c>
       <c r="T22" t="n">
-        <v>74464</v>
+        <v>65052</v>
       </c>
       <c r="U22" t="n">
-        <v>62523</v>
+        <v>58121</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>91967</v>
+        <v>88351</v>
       </c>
       <c r="X22" t="n">
-        <v>146323</v>
+        <v>132234</v>
       </c>
       <c r="Y22" t="n">
-        <v>131544</v>
+        <v>117066</v>
       </c>
       <c r="Z22" t="n">
-        <v>64597</v>
+        <v>54942</v>
       </c>
       <c r="AA22" t="n">
-        <v>44968</v>
+        <v>44969</v>
       </c>
       <c r="AB22" t="n">
-        <v>62820</v>
+        <v>55417</v>
       </c>
       <c r="AC22" t="n">
-        <v>73494</v>
+        <v>64081</v>
       </c>
       <c r="AD22" t="n">
-        <v>28386</v>
+        <v>28387</v>
       </c>
     </row>
     <row r="23">
@@ -2561,91 +2561,91 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47290</v>
+        <v>42567</v>
       </c>
       <c r="C23" t="n">
-        <v>35504</v>
+        <v>35505</v>
       </c>
       <c r="D23" t="n">
-        <v>117768</v>
+        <v>107138</v>
       </c>
       <c r="E23" t="n">
-        <v>77356</v>
+        <v>69337</v>
       </c>
       <c r="F23" t="n">
-        <v>43759</v>
+        <v>39565</v>
       </c>
       <c r="G23" t="n">
-        <v>18780</v>
+        <v>18779</v>
       </c>
       <c r="H23" t="n">
-        <v>33504</v>
+        <v>29915</v>
       </c>
       <c r="I23" t="n">
-        <v>27073</v>
+        <v>27074</v>
       </c>
       <c r="J23" t="n">
-        <v>49088</v>
+        <v>49089</v>
       </c>
       <c r="K23" t="n">
-        <v>49139</v>
+        <v>46716</v>
       </c>
       <c r="L23" t="n">
         <v>18406</v>
       </c>
       <c r="M23" t="n">
-        <v>69563</v>
+        <v>63092</v>
       </c>
       <c r="N23" t="n">
         <v>28835</v>
       </c>
       <c r="O23" t="n">
-        <v>27016</v>
+        <v>26265</v>
       </c>
       <c r="P23" t="n">
         <v>35027</v>
       </c>
       <c r="Q23" t="n">
-        <v>81426</v>
+        <v>76034</v>
       </c>
       <c r="R23" t="n">
         <v>22223</v>
       </c>
       <c r="S23" t="n">
-        <v>32045</v>
+        <v>30608</v>
       </c>
       <c r="T23" t="n">
-        <v>26058</v>
+        <v>25534</v>
       </c>
       <c r="U23" t="n">
-        <v>31474</v>
+        <v>31475</v>
       </c>
       <c r="V23" t="n">
-        <v>92066</v>
+        <v>87818</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>69283</v>
+        <v>63765</v>
       </c>
       <c r="Y23" t="n">
-        <v>54504</v>
+        <v>48740</v>
       </c>
       <c r="Z23" t="n">
-        <v>39396</v>
+        <v>36588</v>
       </c>
       <c r="AA23" t="n">
-        <v>44519</v>
+        <v>44326</v>
       </c>
       <c r="AB23" t="n">
-        <v>37618</v>
+        <v>34946</v>
       </c>
       <c r="AC23" t="n">
-        <v>28002</v>
+        <v>27478</v>
       </c>
       <c r="AD23" t="n">
-        <v>68520</v>
+        <v>61330</v>
       </c>
     </row>
     <row r="24">
@@ -2655,70 +2655,70 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>99484</v>
+        <v>95937</v>
       </c>
       <c r="C24" t="n">
-        <v>76965</v>
+        <v>75444</v>
       </c>
       <c r="D24" t="n">
         <v>47882</v>
       </c>
       <c r="E24" t="n">
-        <v>129550</v>
+        <v>122543</v>
       </c>
       <c r="F24" t="n">
-        <v>98363</v>
+        <v>97011</v>
       </c>
       <c r="G24" t="n">
-        <v>52819</v>
+        <v>51299</v>
       </c>
       <c r="H24" t="n">
-        <v>42975</v>
+        <v>37801</v>
       </c>
       <c r="I24" t="n">
-        <v>80912</v>
+        <v>79391</v>
       </c>
       <c r="J24" t="n">
-        <v>101283</v>
+        <v>99221</v>
       </c>
       <c r="K24" t="n">
-        <v>101333</v>
+        <v>100792</v>
       </c>
       <c r="L24" t="n">
-        <v>84482</v>
+        <v>80038</v>
       </c>
       <c r="M24" t="n">
-        <v>121757</v>
+        <v>120376</v>
       </c>
       <c r="N24" t="n">
-        <v>39796</v>
+        <v>39797</v>
       </c>
       <c r="O24" t="n">
-        <v>106726</v>
+        <v>87897</v>
       </c>
       <c r="P24" t="n">
-        <v>111918</v>
+        <v>86006</v>
       </c>
       <c r="Q24" t="n">
-        <v>16928</v>
+        <v>16074</v>
       </c>
       <c r="R24" t="n">
-        <v>74417</v>
+        <v>72896</v>
       </c>
       <c r="S24" t="n">
-        <v>102697</v>
+        <v>92240</v>
       </c>
       <c r="T24" t="n">
-        <v>85658</v>
+        <v>84136</v>
       </c>
       <c r="U24" t="n">
-        <v>83668</v>
+        <v>82510</v>
       </c>
       <c r="V24" t="n">
-        <v>144260</v>
+        <v>128775</v>
       </c>
       <c r="W24" t="n">
-        <v>66582</v>
+        <v>61632</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -2727,19 +2727,19 @@
         <v>21781</v>
       </c>
       <c r="Z24" t="n">
-        <v>91590</v>
+        <v>91049</v>
       </c>
       <c r="AA24" t="n">
-        <v>96714</v>
+        <v>96172</v>
       </c>
       <c r="AB24" t="n">
-        <v>89812</v>
+        <v>89272</v>
       </c>
       <c r="AC24" t="n">
-        <v>87602</v>
+        <v>86080</v>
       </c>
       <c r="AD24" t="n">
-        <v>120715</v>
+        <v>101269</v>
       </c>
     </row>
     <row r="25">
@@ -2749,91 +2749,91 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>85955</v>
+        <v>83566</v>
       </c>
       <c r="C25" t="n">
-        <v>63436</v>
+        <v>63346</v>
       </c>
       <c r="D25" t="n">
-        <v>78077</v>
+        <v>58398</v>
       </c>
       <c r="E25" t="n">
-        <v>116020</v>
+        <v>110172</v>
       </c>
       <c r="F25" t="n">
-        <v>84833</v>
+        <v>84021</v>
       </c>
       <c r="G25" t="n">
-        <v>39289</v>
+        <v>38801</v>
       </c>
       <c r="H25" t="n">
-        <v>29446</v>
+        <v>24254</v>
       </c>
       <c r="I25" t="n">
-        <v>67382</v>
+        <v>67293</v>
       </c>
       <c r="J25" t="n">
-        <v>87753</v>
+        <v>86723</v>
       </c>
       <c r="K25" t="n">
-        <v>87803</v>
+        <v>87802</v>
       </c>
       <c r="L25" t="n">
-        <v>70953</v>
+        <v>66610</v>
       </c>
       <c r="M25" t="n">
-        <v>108227</v>
+        <v>107386</v>
       </c>
       <c r="N25" t="n">
-        <v>53092</v>
+        <v>47090</v>
       </c>
       <c r="O25" t="n">
-        <v>93196</v>
+        <v>74469</v>
       </c>
       <c r="P25" t="n">
-        <v>98389</v>
+        <v>83231</v>
       </c>
       <c r="Q25" t="n">
-        <v>41734</v>
+        <v>37149</v>
       </c>
       <c r="R25" t="n">
-        <v>60888</v>
+        <v>60798</v>
       </c>
       <c r="S25" t="n">
-        <v>89168</v>
+        <v>78812</v>
       </c>
       <c r="T25" t="n">
-        <v>72128</v>
+        <v>72038</v>
       </c>
       <c r="U25" t="n">
         <v>70139</v>
       </c>
       <c r="V25" t="n">
-        <v>130731</v>
+        <v>116677</v>
       </c>
       <c r="W25" t="n">
-        <v>53052</v>
+        <v>48204</v>
       </c>
       <c r="X25" t="n">
-        <v>21500</v>
+        <v>21499</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>78060</v>
+        <v>78059</v>
       </c>
       <c r="AA25" t="n">
-        <v>83184</v>
+        <v>83182</v>
       </c>
       <c r="AB25" t="n">
-        <v>76283</v>
+        <v>76282</v>
       </c>
       <c r="AC25" t="n">
-        <v>74072</v>
+        <v>73982</v>
       </c>
       <c r="AD25" t="n">
-        <v>107185</v>
+        <v>89171</v>
       </c>
     </row>
     <row r="26">
@@ -2843,91 +2843,91 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>11101</v>
+        <v>7706</v>
       </c>
       <c r="C26" t="n">
-        <v>35441</v>
+        <v>35443</v>
       </c>
       <c r="D26" t="n">
-        <v>142193</v>
+        <v>137098</v>
       </c>
       <c r="E26" t="n">
-        <v>40677</v>
+        <v>35157</v>
       </c>
       <c r="F26" t="n">
-        <v>5963</v>
+        <v>5962</v>
       </c>
       <c r="G26" t="n">
-        <v>43292</v>
+        <v>43062</v>
       </c>
       <c r="H26" t="n">
-        <v>57928</v>
+        <v>57557</v>
       </c>
       <c r="I26" t="n">
-        <v>13643</v>
+        <v>11324</v>
       </c>
       <c r="J26" t="n">
-        <v>22271</v>
+        <v>18520</v>
       </c>
       <c r="K26" t="n">
-        <v>12950</v>
+        <v>12754</v>
       </c>
       <c r="L26" t="n">
-        <v>20558</v>
+        <v>17575</v>
       </c>
       <c r="M26" t="n">
-        <v>33374</v>
+        <v>31946</v>
       </c>
       <c r="N26" t="n">
-        <v>64489</v>
+        <v>60931</v>
       </c>
       <c r="O26" t="n">
-        <v>16407</v>
+        <v>15144</v>
       </c>
       <c r="P26" t="n">
         <v>21600</v>
       </c>
       <c r="Q26" t="n">
-        <v>105850</v>
+        <v>105622</v>
       </c>
       <c r="R26" t="n">
-        <v>19708</v>
+        <v>19014</v>
       </c>
       <c r="S26" t="n">
-        <v>12378</v>
+        <v>12379</v>
       </c>
       <c r="T26" t="n">
-        <v>11138</v>
+        <v>10384</v>
       </c>
       <c r="U26" t="n">
-        <v>11610</v>
+        <v>9086</v>
       </c>
       <c r="V26" t="n">
-        <v>65249</v>
+        <v>55786</v>
       </c>
       <c r="W26" t="n">
-        <v>39351</v>
+        <v>34885</v>
       </c>
       <c r="X26" t="n">
-        <v>93708</v>
+        <v>93477</v>
       </c>
       <c r="Y26" t="n">
-        <v>78928</v>
+        <v>78700</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>17702</v>
+        <v>11042</v>
       </c>
       <c r="AB26" t="n">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="AC26" t="n">
-        <v>10169</v>
+        <v>9413</v>
       </c>
       <c r="AD26" t="n">
-        <v>41703</v>
+        <v>37819</v>
       </c>
     </row>
     <row r="27">
@@ -2937,91 +2937,91 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>14125</v>
+        <v>12783</v>
       </c>
       <c r="C27" t="n">
-        <v>39488</v>
+        <v>33850</v>
       </c>
       <c r="D27" t="n">
-        <v>146240</v>
+        <v>141374</v>
       </c>
       <c r="E27" t="n">
-        <v>35916</v>
+        <v>35189</v>
       </c>
       <c r="F27" t="n">
-        <v>22858</v>
+        <v>17601</v>
       </c>
       <c r="G27" t="n">
-        <v>47340</v>
+        <v>47338</v>
       </c>
       <c r="H27" t="n">
-        <v>61976</v>
+        <v>61975</v>
       </c>
       <c r="I27" t="n">
-        <v>19698</v>
+        <v>18037</v>
       </c>
       <c r="J27" t="n">
         <v>8276</v>
       </c>
       <c r="K27" t="n">
-        <v>18318</v>
+        <v>18319</v>
       </c>
       <c r="L27" t="n">
-        <v>35315</v>
+        <v>27572</v>
       </c>
       <c r="M27" t="n">
-        <v>38344</v>
+        <v>37903</v>
       </c>
       <c r="N27" t="n">
-        <v>79247</v>
+        <v>70826</v>
       </c>
       <c r="O27" t="n">
-        <v>31165</v>
+        <v>26820</v>
       </c>
       <c r="P27" t="n">
-        <v>36357</v>
+        <v>33276</v>
       </c>
       <c r="Q27" t="n">
-        <v>109897</v>
+        <v>109898</v>
       </c>
       <c r="R27" t="n">
         <v>23756</v>
       </c>
       <c r="S27" t="n">
-        <v>27136</v>
+        <v>24055</v>
       </c>
       <c r="T27" t="n">
-        <v>25896</v>
+        <v>20279</v>
       </c>
       <c r="U27" t="n">
-        <v>13955</v>
+        <v>13152</v>
       </c>
       <c r="V27" t="n">
-        <v>44926</v>
+        <v>44927</v>
       </c>
       <c r="W27" t="n">
-        <v>43399</v>
+        <v>43398</v>
       </c>
       <c r="X27" t="n">
-        <v>97755</v>
+        <v>97753</v>
       </c>
       <c r="Y27" t="n">
         <v>82976</v>
       </c>
       <c r="Z27" t="n">
-        <v>16029</v>
+        <v>11676</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>14251</v>
+        <v>10644</v>
       </c>
       <c r="AC27" t="n">
-        <v>24926</v>
+        <v>19308</v>
       </c>
       <c r="AD27" t="n">
-        <v>31235</v>
+        <v>27575</v>
       </c>
     </row>
     <row r="28">
@@ -3031,82 +3031,82 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>12500</v>
+        <v>7785</v>
       </c>
       <c r="C28" t="n">
-        <v>33737</v>
+        <v>33235</v>
       </c>
       <c r="D28" t="n">
-        <v>140489</v>
+        <v>135120</v>
       </c>
       <c r="E28" t="n">
-        <v>42076</v>
+        <v>34391</v>
       </c>
       <c r="F28" t="n">
-        <v>10154</v>
+        <v>8390</v>
       </c>
       <c r="G28" t="n">
-        <v>41588</v>
+        <v>41084</v>
       </c>
       <c r="H28" t="n">
-        <v>56224</v>
+        <v>55721</v>
       </c>
       <c r="I28" t="n">
         <v>10575</v>
       </c>
       <c r="J28" t="n">
-        <v>18045</v>
+        <v>17257</v>
       </c>
       <c r="K28" t="n">
-        <v>14348</v>
+        <v>13200</v>
       </c>
       <c r="L28" t="n">
-        <v>16929</v>
+        <v>16928</v>
       </c>
       <c r="M28" t="n">
-        <v>34772</v>
+        <v>32784</v>
       </c>
       <c r="N28" t="n">
-        <v>66599</v>
+        <v>60182</v>
       </c>
       <c r="O28" t="n">
-        <v>18517</v>
+        <v>16791</v>
       </c>
       <c r="P28" t="n">
-        <v>23709</v>
+        <v>23708</v>
       </c>
       <c r="Q28" t="n">
         <v>103644</v>
       </c>
       <c r="R28" t="n">
-        <v>18004</v>
+        <v>17502</v>
       </c>
       <c r="S28" t="n">
-        <v>14488</v>
+        <v>14014</v>
       </c>
       <c r="T28" t="n">
-        <v>9633</v>
+        <v>9635</v>
       </c>
       <c r="U28" t="n">
-        <v>9906</v>
+        <v>7823</v>
       </c>
       <c r="V28" t="n">
-        <v>61023</v>
+        <v>54523</v>
       </c>
       <c r="W28" t="n">
-        <v>37647</v>
+        <v>34136</v>
       </c>
       <c r="X28" t="n">
-        <v>92003</v>
+        <v>91499</v>
       </c>
       <c r="Y28" t="n">
-        <v>77224</v>
+        <v>76722</v>
       </c>
       <c r="Z28" t="n">
         <v>2564</v>
       </c>
       <c r="AA28" t="n">
-        <v>13476</v>
+        <v>9779</v>
       </c>
       <c r="AB28" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>8664</v>
       </c>
       <c r="AD28" t="n">
-        <v>37477</v>
+        <v>36556</v>
       </c>
     </row>
     <row r="29">
@@ -3125,91 +3125,91 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17390</v>
+        <v>15167</v>
       </c>
       <c r="C29" t="n">
-        <v>32607</v>
+        <v>32608</v>
       </c>
       <c r="D29" t="n">
-        <v>139359</v>
+        <v>132487</v>
       </c>
       <c r="E29" t="n">
-        <v>46966</v>
+        <v>41859</v>
       </c>
       <c r="F29" t="n">
-        <v>12932</v>
+        <v>12087</v>
       </c>
       <c r="G29" t="n">
-        <v>40458</v>
+        <v>38451</v>
       </c>
       <c r="H29" t="n">
-        <v>55094</v>
+        <v>52946</v>
       </c>
       <c r="I29" t="n">
         <v>6713</v>
       </c>
       <c r="J29" t="n">
-        <v>28559</v>
+        <v>24725</v>
       </c>
       <c r="K29" t="n">
         <v>19238</v>
       </c>
       <c r="L29" t="n">
-        <v>9586</v>
+        <v>9585</v>
       </c>
       <c r="M29" t="n">
-        <v>39662</v>
+        <v>37194</v>
       </c>
       <c r="N29" t="n">
-        <v>62399</v>
+        <v>52839</v>
       </c>
       <c r="O29" t="n">
-        <v>10600</v>
+        <v>10599</v>
       </c>
       <c r="P29" t="n">
-        <v>19509</v>
+        <v>18194</v>
       </c>
       <c r="Q29" t="n">
-        <v>103016</v>
+        <v>100072</v>
       </c>
       <c r="R29" t="n">
-        <v>16874</v>
+        <v>15092</v>
       </c>
       <c r="S29" t="n">
         <v>9365</v>
       </c>
       <c r="T29" t="n">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="U29" t="n">
-        <v>10288</v>
+        <v>10289</v>
       </c>
       <c r="V29" t="n">
-        <v>71537</v>
+        <v>61991</v>
       </c>
       <c r="W29" t="n">
         <v>27673</v>
       </c>
       <c r="X29" t="n">
-        <v>90873</v>
+        <v>88866</v>
       </c>
       <c r="Y29" t="n">
-        <v>76094</v>
+        <v>74089</v>
       </c>
       <c r="Z29" t="n">
-        <v>9786</v>
+        <v>9110</v>
       </c>
       <c r="AA29" t="n">
-        <v>23990</v>
+        <v>17247</v>
       </c>
       <c r="AB29" t="n">
-        <v>8308</v>
+        <v>7468</v>
       </c>
       <c r="AC29" t="n">
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>47991</v>
+        <v>44024</v>
       </c>
     </row>
     <row r="30">
@@ -3219,88 +3219,88 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>41320</v>
+        <v>40411</v>
       </c>
       <c r="C30" t="n">
-        <v>25432</v>
+        <v>25431</v>
       </c>
       <c r="D30" t="n">
-        <v>170228</v>
+        <v>147077</v>
       </c>
       <c r="E30" t="n">
-        <v>63111</v>
+        <v>56722</v>
       </c>
       <c r="F30" t="n">
-        <v>46789</v>
+        <v>44543</v>
       </c>
       <c r="G30" t="n">
-        <v>71328</v>
+        <v>52884</v>
       </c>
       <c r="H30" t="n">
-        <v>85964</v>
+        <v>67048</v>
       </c>
       <c r="I30" t="n">
-        <v>43686</v>
+        <v>41087</v>
       </c>
       <c r="J30" t="n">
-        <v>22647</v>
+        <v>21689</v>
       </c>
       <c r="K30" t="n">
         <v>45513</v>
       </c>
       <c r="L30" t="n">
-        <v>59303</v>
+        <v>50499</v>
       </c>
       <c r="M30" t="n">
-        <v>65539</v>
+        <v>65097</v>
       </c>
       <c r="N30" t="n">
-        <v>103234</v>
+        <v>87717</v>
       </c>
       <c r="O30" t="n">
-        <v>55152</v>
+        <v>53762</v>
       </c>
       <c r="P30" t="n">
-        <v>60345</v>
+        <v>60218</v>
       </c>
       <c r="Q30" t="n">
-        <v>133885</v>
+        <v>116109</v>
       </c>
       <c r="R30" t="n">
-        <v>47744</v>
+        <v>42578</v>
       </c>
       <c r="S30" t="n">
-        <v>51123</v>
+        <v>50997</v>
       </c>
       <c r="T30" t="n">
-        <v>49883</v>
+        <v>47221</v>
       </c>
       <c r="U30" t="n">
-        <v>37943</v>
+        <v>37942</v>
       </c>
       <c r="V30" t="n">
-        <v>28614</v>
+        <v>28613</v>
       </c>
       <c r="W30" t="n">
-        <v>67386</v>
+        <v>60125</v>
       </c>
       <c r="X30" t="n">
-        <v>121743</v>
+        <v>103964</v>
       </c>
       <c r="Y30" t="n">
-        <v>106963</v>
+        <v>88679</v>
       </c>
       <c r="Z30" t="n">
-        <v>40016</v>
+        <v>38618</v>
       </c>
       <c r="AA30" t="n">
-        <v>30275</v>
+        <v>27843</v>
       </c>
       <c r="AB30" t="n">
-        <v>38239</v>
+        <v>37586</v>
       </c>
       <c r="AC30" t="n">
-        <v>48914</v>
+        <v>46250</v>
       </c>
       <c r="AD30" t="n">
         <v>0</v>

--- a/data/matrix.xlsx
+++ b/data/matrix.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AK37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -579,6 +579,41 @@
           <t>Villefranche de Lauragais</t>
         </is>
       </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>METRO</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Auchan Gramont</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Leclerc St Orens</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Super U Flourens</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Leclerc Blagnac</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Leclerc Rouffiac</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Carrefour Supply Chain</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -590,88 +625,109 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>40628</v>
+        <v>40595</v>
       </c>
       <c r="D2" t="n">
-        <v>142865</v>
+        <v>147414.1</v>
       </c>
       <c r="E2" t="n">
-        <v>27451</v>
+        <v>31527.9</v>
       </c>
       <c r="F2" t="n">
-        <v>8765</v>
+        <v>10026.3</v>
       </c>
       <c r="G2" t="n">
-        <v>48829</v>
+        <v>48432.7</v>
       </c>
       <c r="H2" t="n">
-        <v>63030</v>
+        <v>65373.5</v>
       </c>
       <c r="I2" t="n">
-        <v>17091</v>
+        <v>19668.4</v>
       </c>
       <c r="J2" t="n">
-        <v>20063</v>
+        <v>22349.5</v>
       </c>
       <c r="K2" t="n">
-        <v>6373</v>
+        <v>6254.5</v>
       </c>
       <c r="L2" t="n">
-        <v>23703</v>
+        <v>25582.2</v>
       </c>
       <c r="M2" t="n">
-        <v>25957</v>
+        <v>29539.7</v>
       </c>
       <c r="N2" t="n">
-        <v>66957</v>
+        <v>71005.10000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>22196</v>
+        <v>21577.8</v>
       </c>
       <c r="P2" t="n">
-        <v>28246</v>
+        <v>27697.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>111389</v>
+        <v>110772.8</v>
       </c>
       <c r="R2" t="n">
-        <v>23602</v>
+        <v>24837.8</v>
       </c>
       <c r="S2" t="n">
-        <v>17633</v>
+        <v>18347.4</v>
       </c>
       <c r="T2" t="n">
-        <v>16394</v>
+        <v>16278.7</v>
       </c>
       <c r="U2" t="n">
-        <v>13674</v>
+        <v>16719.5</v>
       </c>
       <c r="V2" t="n">
-        <v>56824</v>
+        <v>65103.8</v>
       </c>
       <c r="W2" t="n">
-        <v>41657</v>
+        <v>44520.8</v>
       </c>
       <c r="X2" t="n">
-        <v>99244</v>
+        <v>97336.39999999999</v>
       </c>
       <c r="Y2" t="n">
-        <v>84467</v>
+        <v>84050.2</v>
       </c>
       <c r="Z2" t="n">
-        <v>8278</v>
+        <v>7805.5</v>
       </c>
       <c r="AA2" t="n">
-        <v>12287</v>
+        <v>13914.5</v>
       </c>
       <c r="AB2" t="n">
-        <v>8601</v>
+        <v>9667.1</v>
       </c>
       <c r="AC2" t="n">
-        <v>15423</v>
+        <v>14416.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>39362</v>
+        <v>41146.3</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>3786.3</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>6742.6</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>14394.4</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>17241</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>9234.9</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>8905.6</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>16507.9</v>
       </c>
     </row>
     <row r="3">
@@ -681,91 +737,112 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40220</v>
+        <v>40260.7</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>122154</v>
+        <v>127365.3</v>
       </c>
       <c r="E3" t="n">
-        <v>66826</v>
+        <v>71962.5</v>
       </c>
       <c r="F3" t="n">
-        <v>40675</v>
+        <v>41580.5</v>
       </c>
       <c r="G3" t="n">
-        <v>27961</v>
+        <v>28383.9</v>
       </c>
       <c r="H3" t="n">
-        <v>42125</v>
+        <v>45324.7</v>
       </c>
       <c r="I3" t="n">
-        <v>28468</v>
+        <v>28658.6</v>
       </c>
       <c r="J3" t="n">
-        <v>26790</v>
+        <v>38926.4</v>
       </c>
       <c r="K3" t="n">
-        <v>44456</v>
+        <v>44653.9</v>
       </c>
       <c r="L3" t="n">
-        <v>33763</v>
+        <v>36830.7</v>
       </c>
       <c r="M3" t="n">
-        <v>64040</v>
+        <v>66123</v>
       </c>
       <c r="N3" t="n">
-        <v>62794</v>
+        <v>63729.3</v>
       </c>
       <c r="O3" t="n">
-        <v>41540</v>
+        <v>50042.3</v>
       </c>
       <c r="P3" t="n">
-        <v>51388</v>
+        <v>55211.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>90678</v>
+        <v>90724</v>
       </c>
       <c r="R3" t="n">
-        <v>22450</v>
+        <v>28729.4</v>
       </c>
       <c r="S3" t="n">
-        <v>43464</v>
+        <v>46811.8</v>
       </c>
       <c r="T3" t="n">
-        <v>34658</v>
+        <v>35703.9</v>
       </c>
       <c r="U3" t="n">
-        <v>26793</v>
+        <v>26762.6</v>
       </c>
       <c r="V3" t="n">
-        <v>53331</v>
+        <v>54131.2</v>
       </c>
       <c r="W3" t="n">
-        <v>35202</v>
+        <v>35464.8</v>
       </c>
       <c r="X3" t="n">
-        <v>78533</v>
+        <v>77287.60000000001</v>
       </c>
       <c r="Y3" t="n">
-        <v>63756</v>
+        <v>64001.4</v>
       </c>
       <c r="Z3" t="n">
-        <v>34713</v>
+        <v>34523.7</v>
       </c>
       <c r="AA3" t="n">
-        <v>32345</v>
+        <v>38147.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>32936</v>
+        <v>33101.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>34907</v>
+        <v>34183.7</v>
       </c>
       <c r="AD3" t="n">
-        <v>25825</v>
+        <v>24963.8</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>41375.8</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>45826.1</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>38627</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>44777.1</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>40789.2</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>49340.3</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>38427.2</v>
       </c>
     </row>
     <row r="4">
@@ -775,91 +852,112 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141932</v>
+        <v>146920.7</v>
       </c>
       <c r="C4" t="n">
-        <v>119381</v>
+        <v>127035.4</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168538</v>
+        <v>178622.6</v>
       </c>
       <c r="F4" t="n">
-        <v>142387</v>
+        <v>148240.6</v>
       </c>
       <c r="G4" t="n">
-        <v>97167</v>
+        <v>102748.9</v>
       </c>
       <c r="H4" t="n">
-        <v>82620</v>
+        <v>93080.39999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>125659</v>
+        <v>130870.7</v>
       </c>
       <c r="J4" t="n">
-        <v>145089</v>
+        <v>151089.2</v>
       </c>
       <c r="K4" t="n">
-        <v>146168</v>
+        <v>151314</v>
       </c>
       <c r="L4" t="n">
-        <v>124976</v>
+        <v>138459.4</v>
       </c>
       <c r="M4" t="n">
-        <v>165752</v>
+        <v>172783.1</v>
       </c>
       <c r="N4" t="n">
-        <v>86452</v>
+        <v>86875.2</v>
       </c>
       <c r="O4" t="n">
-        <v>132835</v>
+        <v>148026.1</v>
       </c>
       <c r="P4" t="n">
-        <v>132661</v>
+        <v>151265.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>39812</v>
+        <v>39790</v>
       </c>
       <c r="R4" t="n">
-        <v>119164</v>
+        <v>124365.5</v>
       </c>
       <c r="S4" t="n">
-        <v>137178</v>
+        <v>143358.8</v>
       </c>
       <c r="T4" t="n">
-        <v>130404</v>
+        <v>135640.3</v>
       </c>
       <c r="U4" t="n">
-        <v>128505</v>
+        <v>134548.4</v>
       </c>
       <c r="V4" t="n">
-        <v>172712</v>
+        <v>199182.5</v>
       </c>
       <c r="W4" t="n">
-        <v>106570</v>
+        <v>112671</v>
       </c>
       <c r="X4" t="n">
-        <v>47743</v>
+        <v>47782.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>58366</v>
+        <v>77514.2</v>
       </c>
       <c r="Z4" t="n">
-        <v>136425</v>
+        <v>141183.7</v>
       </c>
       <c r="AA4" t="n">
-        <v>141548</v>
+        <v>144807.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>134648</v>
+        <v>139761.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>132348</v>
+        <v>137583.8</v>
       </c>
       <c r="AD4" t="n">
-        <v>145206</v>
+        <v>170015.1</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>148035.8</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>152486.2</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>145287.1</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>151437.2</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>147449.2</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>156000.3</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>138363.6</v>
       </c>
     </row>
     <row r="5">
@@ -869,91 +967,112 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>27465</v>
+        <v>30637.5</v>
       </c>
       <c r="C5" t="n">
-        <v>67617</v>
+        <v>70829.2</v>
       </c>
       <c r="D5" t="n">
-        <v>169537</v>
+        <v>177648.2</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>34918</v>
+        <v>40601.3</v>
       </c>
       <c r="G5" t="n">
-        <v>75501</v>
+        <v>78666.8</v>
       </c>
       <c r="H5" t="n">
-        <v>89702</v>
+        <v>95607.60000000001</v>
       </c>
       <c r="I5" t="n">
-        <v>43763</v>
+        <v>49902.6</v>
       </c>
       <c r="J5" t="n">
-        <v>43549</v>
+        <v>43742.4</v>
       </c>
       <c r="K5" t="n">
-        <v>25566</v>
+        <v>25585.5</v>
       </c>
       <c r="L5" t="n">
-        <v>50280</v>
+        <v>56976.4</v>
       </c>
       <c r="M5" t="n">
-        <v>22093</v>
+        <v>19456.5</v>
       </c>
       <c r="N5" t="n">
-        <v>93652</v>
+        <v>102399.2</v>
       </c>
       <c r="O5" t="n">
-        <v>48919</v>
+        <v>52972</v>
       </c>
       <c r="P5" t="n">
-        <v>50317</v>
+        <v>44891.8</v>
       </c>
       <c r="Q5" t="n">
-        <v>138061</v>
+        <v>141007</v>
       </c>
       <c r="R5" t="n">
-        <v>50121</v>
+        <v>55072</v>
       </c>
       <c r="S5" t="n">
-        <v>44891</v>
+        <v>49741.6</v>
       </c>
       <c r="T5" t="n">
-        <v>43089</v>
+        <v>47672.9</v>
       </c>
       <c r="U5" t="n">
-        <v>40193</v>
+        <v>45900.5</v>
       </c>
       <c r="V5" t="n">
-        <v>58419</v>
+        <v>63677.2</v>
       </c>
       <c r="W5" t="n">
-        <v>67810</v>
+        <v>74755</v>
       </c>
       <c r="X5" t="n">
-        <v>125916</v>
+        <v>127570.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>111139</v>
+        <v>114284.3</v>
       </c>
       <c r="Z5" t="n">
-        <v>34376</v>
+        <v>38039.7</v>
       </c>
       <c r="AA5" t="n">
-        <v>35273</v>
+        <v>35307.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>35120</v>
+        <v>39901.2</v>
       </c>
       <c r="AC5" t="n">
-        <v>42118</v>
+        <v>45810.3</v>
       </c>
       <c r="AD5" t="n">
-        <v>56423</v>
+        <v>62539.2</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>32500.4</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>27338.7</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>35787.3</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>38633.9</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>39809.9</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>20961.4</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>47902.1</v>
       </c>
     </row>
     <row r="6">
@@ -963,91 +1082,112 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9157</v>
+        <v>8820.5</v>
       </c>
       <c r="C6" t="n">
-        <v>41004</v>
+        <v>39350</v>
       </c>
       <c r="D6" t="n">
-        <v>142302</v>
+        <v>146169.1</v>
       </c>
       <c r="E6" t="n">
-        <v>36322</v>
+        <v>40955.1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>48266</v>
+        <v>47187.7</v>
       </c>
       <c r="H6" t="n">
-        <v>62761</v>
+        <v>64128.5</v>
       </c>
       <c r="I6" t="n">
-        <v>16528</v>
+        <v>17838.3</v>
       </c>
       <c r="J6" t="n">
-        <v>23450</v>
+        <v>26004.8</v>
       </c>
       <c r="K6" t="n">
-        <v>13347</v>
+        <v>13343.7</v>
       </c>
       <c r="L6" t="n">
-        <v>21534</v>
+        <v>24604</v>
       </c>
       <c r="M6" t="n">
-        <v>26941</v>
+        <v>26948.6</v>
       </c>
       <c r="N6" t="n">
-        <v>64788</v>
+        <v>70026.89999999999</v>
       </c>
       <c r="O6" t="n">
-        <v>17601</v>
+        <v>20599.7</v>
       </c>
       <c r="P6" t="n">
-        <v>19682</v>
+        <v>21364.4</v>
       </c>
       <c r="Q6" t="n">
-        <v>110826</v>
+        <v>109527.8</v>
       </c>
       <c r="R6" t="n">
-        <v>25040</v>
+        <v>23592.8</v>
       </c>
       <c r="S6" t="n">
-        <v>12407</v>
+        <v>12505.3</v>
       </c>
       <c r="T6" t="n">
-        <v>14225</v>
+        <v>15300.6</v>
       </c>
       <c r="U6" t="n">
-        <v>15112</v>
+        <v>15474.5</v>
       </c>
       <c r="V6" t="n">
-        <v>60230</v>
+        <v>74098.10000000001</v>
       </c>
       <c r="W6" t="n">
-        <v>38946</v>
+        <v>44642.6</v>
       </c>
       <c r="X6" t="n">
-        <v>98681</v>
+        <v>96091.3</v>
       </c>
       <c r="Y6" t="n">
-        <v>83904</v>
+        <v>82805.10000000001</v>
       </c>
       <c r="Z6" t="n">
-        <v>6538</v>
+        <v>5966.4</v>
       </c>
       <c r="AA6" t="n">
-        <v>16499</v>
+        <v>19722.7</v>
       </c>
       <c r="AB6" t="n">
-        <v>8070</v>
+        <v>7827.9</v>
       </c>
       <c r="AC6" t="n">
-        <v>13254</v>
+        <v>13438</v>
       </c>
       <c r="AD6" t="n">
-        <v>42749</v>
+        <v>44930.7</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>6575</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>16169.7</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>20202.7</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>26668.2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>2104.7</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>18332.8</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>15529.8</v>
       </c>
     </row>
     <row r="7">
@@ -1057,91 +1197,112 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47682</v>
+        <v>47556.8</v>
       </c>
       <c r="C7" t="n">
-        <v>26146</v>
+        <v>27671.5</v>
       </c>
       <c r="D7" t="n">
-        <v>96474</v>
+        <v>103014</v>
       </c>
       <c r="E7" t="n">
-        <v>74288</v>
+        <v>79258.60000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>48137</v>
+        <v>48876.6</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>14773</v>
+        <v>15475.6</v>
       </c>
       <c r="I7" t="n">
-        <v>31497</v>
+        <v>31506.7</v>
       </c>
       <c r="J7" t="n">
-        <v>47922</v>
+        <v>51725.2</v>
       </c>
       <c r="K7" t="n">
-        <v>51918</v>
+        <v>51950</v>
       </c>
       <c r="L7" t="n">
-        <v>34761</v>
+        <v>39095.4</v>
       </c>
       <c r="M7" t="n">
-        <v>71502</v>
+        <v>73419.10000000001</v>
       </c>
       <c r="N7" t="n">
-        <v>39284</v>
+        <v>38937.3</v>
       </c>
       <c r="O7" t="n">
-        <v>42620</v>
+        <v>48662.2</v>
       </c>
       <c r="P7" t="n">
-        <v>52693</v>
+        <v>51901.2</v>
       </c>
       <c r="Q7" t="n">
-        <v>66587</v>
+        <v>66372.8</v>
       </c>
       <c r="R7" t="n">
-        <v>25002</v>
+        <v>25001.6</v>
       </c>
       <c r="S7" t="n">
-        <v>44769</v>
+        <v>43994.8</v>
       </c>
       <c r="T7" t="n">
-        <v>36242</v>
+        <v>36276.4</v>
       </c>
       <c r="U7" t="n">
-        <v>34255</v>
+        <v>35184.4</v>
       </c>
       <c r="V7" t="n">
-        <v>79477</v>
+        <v>99818.5</v>
       </c>
       <c r="W7" t="n">
-        <v>18188</v>
+        <v>21424.4</v>
       </c>
       <c r="X7" t="n">
-        <v>53227</v>
+        <v>52936.3</v>
       </c>
       <c r="Y7" t="n">
-        <v>38076</v>
+        <v>39650.1</v>
       </c>
       <c r="Z7" t="n">
-        <v>42175</v>
+        <v>41819.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>47298</v>
+        <v>45443.2</v>
       </c>
       <c r="AB7" t="n">
-        <v>40398</v>
+        <v>40397.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>38186</v>
+        <v>38219.9</v>
       </c>
       <c r="AD7" t="n">
-        <v>51971</v>
+        <v>70651.10000000001</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>48671.9</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>53122.2</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>45923.1</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>52073.2</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>48085.2</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>56636.4</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>38999.6</v>
       </c>
     </row>
     <row r="8">
@@ -1151,91 +1312,112 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62491</v>
+        <v>64617.1</v>
       </c>
       <c r="C8" t="n">
-        <v>40454</v>
+        <v>44731.8</v>
       </c>
       <c r="D8" t="n">
-        <v>82623</v>
+        <v>93549.5</v>
       </c>
       <c r="E8" t="n">
-        <v>89097</v>
+        <v>96319</v>
       </c>
       <c r="F8" t="n">
-        <v>62946</v>
+        <v>65936.89999999999</v>
       </c>
       <c r="G8" t="n">
-        <v>15457</v>
+        <v>20445.3</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>46023</v>
+        <v>48567.1</v>
       </c>
       <c r="J8" t="n">
-        <v>62732</v>
+        <v>68785.60000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>66727</v>
+        <v>69010.39999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>47274</v>
+        <v>56155.8</v>
       </c>
       <c r="M8" t="n">
-        <v>86311</v>
+        <v>90479.5</v>
       </c>
       <c r="N8" t="n">
-        <v>37587</v>
+        <v>38827.1</v>
       </c>
       <c r="O8" t="n">
-        <v>55133</v>
+        <v>65722.5</v>
       </c>
       <c r="P8" t="n">
-        <v>63895</v>
+        <v>68961.60000000001</v>
       </c>
       <c r="Q8" t="n">
-        <v>55026</v>
+        <v>56908.3</v>
       </c>
       <c r="R8" t="n">
-        <v>39812</v>
+        <v>42061.9</v>
       </c>
       <c r="S8" t="n">
-        <v>59295</v>
+        <v>61055.2</v>
       </c>
       <c r="T8" t="n">
-        <v>50768</v>
+        <v>53336.7</v>
       </c>
       <c r="U8" t="n">
-        <v>49064</v>
+        <v>52244.8</v>
       </c>
       <c r="V8" t="n">
-        <v>93785</v>
+        <v>116878.9</v>
       </c>
       <c r="W8" t="n">
-        <v>28868</v>
+        <v>29970.7</v>
       </c>
       <c r="X8" t="n">
-        <v>39376</v>
+        <v>43471.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>24225</v>
+        <v>30185.6</v>
       </c>
       <c r="Z8" t="n">
-        <v>56984</v>
+        <v>58880.1</v>
       </c>
       <c r="AA8" t="n">
-        <v>62107</v>
+        <v>62503.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>55207</v>
+        <v>57457.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>52712</v>
+        <v>55280.2</v>
       </c>
       <c r="AD8" t="n">
-        <v>66279</v>
+        <v>87711.5</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>65732.2</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>70182.60000000001</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>62983.4</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>69133.60000000001</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>65145.6</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>73696.7</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>56060</v>
       </c>
     </row>
     <row r="9">
@@ -1245,91 +1427,112 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16992</v>
+        <v>19884.8</v>
       </c>
       <c r="C9" t="n">
-        <v>27159</v>
+        <v>27855.5</v>
       </c>
       <c r="D9" t="n">
-        <v>125774</v>
+        <v>130743.4</v>
       </c>
       <c r="E9" t="n">
-        <v>43598</v>
+        <v>51586.7</v>
       </c>
       <c r="F9" t="n">
-        <v>17633</v>
+        <v>17798.7</v>
       </c>
       <c r="G9" t="n">
-        <v>31738</v>
+        <v>31762</v>
       </c>
       <c r="H9" t="n">
-        <v>46233</v>
+        <v>48702.8</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>25214</v>
+        <v>24053.2</v>
       </c>
       <c r="K9" t="n">
-        <v>22407</v>
+        <v>24278</v>
       </c>
       <c r="L9" t="n">
-        <v>12511</v>
+        <v>12395</v>
       </c>
       <c r="M9" t="n">
-        <v>41991</v>
+        <v>45747.2</v>
       </c>
       <c r="N9" t="n">
-        <v>55392</v>
+        <v>56747.4</v>
       </c>
       <c r="O9" t="n">
-        <v>14745</v>
+        <v>14311.8</v>
       </c>
       <c r="P9" t="n">
-        <v>23960</v>
+        <v>23173.3</v>
       </c>
       <c r="Q9" t="n">
-        <v>94298</v>
+        <v>94102.10000000001</v>
       </c>
       <c r="R9" t="n">
-        <v>9023</v>
+        <v>10502.3</v>
       </c>
       <c r="S9" t="n">
-        <v>15223</v>
+        <v>15266.9</v>
       </c>
       <c r="T9" t="n">
-        <v>7509</v>
+        <v>7548.5</v>
       </c>
       <c r="U9" t="n">
-        <v>7258</v>
+        <v>7612.8</v>
       </c>
       <c r="V9" t="n">
-        <v>61996</v>
+        <v>72146.5</v>
       </c>
       <c r="W9" t="n">
-        <v>26557</v>
+        <v>26603.1</v>
       </c>
       <c r="X9" t="n">
-        <v>82153</v>
+        <v>80665.60000000001</v>
       </c>
       <c r="Y9" t="n">
-        <v>67376</v>
+        <v>67379.39999999999</v>
       </c>
       <c r="Z9" t="n">
-        <v>12285</v>
+        <v>14147.8</v>
       </c>
       <c r="AA9" t="n">
-        <v>17252</v>
+        <v>17771.2</v>
       </c>
       <c r="AB9" t="n">
-        <v>11000</v>
+        <v>11003</v>
       </c>
       <c r="AC9" t="n">
-        <v>8079</v>
+        <v>6955.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>42238</v>
+        <v>42979.1</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>20999.9</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25450.2</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>18251.1</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>24401.2</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>17007.4</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>28964.4</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>10271.7</v>
       </c>
     </row>
     <row r="10">
@@ -1339,91 +1542,112 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19992</v>
+        <v>22447.2</v>
       </c>
       <c r="C10" t="n">
-        <v>28039</v>
+        <v>39207.3</v>
       </c>
       <c r="D10" t="n">
-        <v>145665</v>
+        <v>152066.5</v>
       </c>
       <c r="E10" t="n">
-        <v>43187</v>
+        <v>43952.2</v>
       </c>
       <c r="F10" t="n">
-        <v>24124</v>
+        <v>28451.7</v>
       </c>
       <c r="G10" t="n">
-        <v>49191</v>
+        <v>53085.1</v>
       </c>
       <c r="H10" t="n">
-        <v>63828</v>
+        <v>70025.89999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>25398</v>
+        <v>24320.9</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>25960</v>
+        <v>26760.8</v>
       </c>
       <c r="L10" t="n">
-        <v>34095</v>
+        <v>36110.2</v>
       </c>
       <c r="M10" t="n">
-        <v>44878</v>
+        <v>47863.8</v>
       </c>
       <c r="N10" t="n">
-        <v>77223</v>
+        <v>86340.60000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>33343</v>
+        <v>36913.4</v>
       </c>
       <c r="P10" t="n">
-        <v>39799</v>
+        <v>42082.4</v>
       </c>
       <c r="Q10" t="n">
-        <v>115599</v>
+        <v>115425.3</v>
       </c>
       <c r="R10" t="n">
-        <v>27813</v>
+        <v>29490.2</v>
       </c>
       <c r="S10" t="n">
-        <v>30578</v>
+        <v>33682.9</v>
       </c>
       <c r="T10" t="n">
-        <v>26802</v>
+        <v>28756.6</v>
       </c>
       <c r="U10" t="n">
-        <v>19656</v>
+        <v>19653.4</v>
       </c>
       <c r="V10" t="n">
-        <v>39959</v>
+        <v>40032.3</v>
       </c>
       <c r="W10" t="n">
-        <v>48388</v>
+        <v>49173.2</v>
       </c>
       <c r="X10" t="n">
-        <v>102418</v>
+        <v>101988.8</v>
       </c>
       <c r="Y10" t="n">
-        <v>87267</v>
+        <v>88702.60000000001</v>
       </c>
       <c r="Z10" t="n">
-        <v>18199</v>
+        <v>21394.8</v>
       </c>
       <c r="AA10" t="n">
-        <v>7998</v>
+        <v>8541.1</v>
       </c>
       <c r="AB10" t="n">
-        <v>17167</v>
+        <v>19972.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>25831</v>
+        <v>26894.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>20571</v>
+        <v>23100.2</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>24310.1</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>17335.6</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>8536.700000000001</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>12392.7</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>27660.3</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>23535.8</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>31843.5</v>
       </c>
     </row>
     <row r="11">
@@ -1433,91 +1657,112 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6765</v>
+        <v>6180.5</v>
       </c>
       <c r="C11" t="n">
-        <v>44062</v>
+        <v>44094.6</v>
       </c>
       <c r="D11" t="n">
-        <v>145947</v>
+        <v>150913.6</v>
       </c>
       <c r="E11" t="n">
-        <v>25634</v>
+        <v>25651.7</v>
       </c>
       <c r="F11" t="n">
-        <v>12253</v>
+        <v>13866.7</v>
       </c>
       <c r="G11" t="n">
-        <v>51911</v>
+        <v>51932.2</v>
       </c>
       <c r="H11" t="n">
-        <v>66548</v>
+        <v>68873</v>
       </c>
       <c r="I11" t="n">
-        <v>21956</v>
+        <v>23168</v>
       </c>
       <c r="J11" t="n">
-        <v>24427</v>
+        <v>26719.9</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>27615</v>
+        <v>30241.8</v>
       </c>
       <c r="M11" t="n">
-        <v>19584</v>
+        <v>20938.8</v>
       </c>
       <c r="N11" t="n">
-        <v>70763</v>
+        <v>75664.60000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>24778</v>
+        <v>26237.4</v>
       </c>
       <c r="P11" t="n">
-        <v>24751</v>
+        <v>23101.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>114471</v>
+        <v>114272.4</v>
       </c>
       <c r="R11" t="n">
-        <v>28329</v>
+        <v>28337.4</v>
       </c>
       <c r="S11" t="n">
-        <v>19584</v>
+        <v>20440.6</v>
       </c>
       <c r="T11" t="n">
-        <v>20424</v>
+        <v>20938.3</v>
       </c>
       <c r="U11" t="n">
-        <v>18539</v>
+        <v>20219.1</v>
       </c>
       <c r="V11" t="n">
-        <v>61062</v>
+        <v>69474.2</v>
       </c>
       <c r="W11" t="n">
-        <v>45145</v>
+        <v>48020.4</v>
       </c>
       <c r="X11" t="n">
-        <v>102326</v>
+        <v>100835.9</v>
       </c>
       <c r="Y11" t="n">
-        <v>87549</v>
+        <v>87549.7</v>
       </c>
       <c r="Z11" t="n">
-        <v>11670</v>
+        <v>11305.1</v>
       </c>
       <c r="AA11" t="n">
-        <v>17476</v>
+        <v>18284.8</v>
       </c>
       <c r="AB11" t="n">
-        <v>13172</v>
+        <v>13166.6</v>
       </c>
       <c r="AC11" t="n">
-        <v>19453</v>
+        <v>19075.7</v>
       </c>
       <c r="AD11" t="n">
-        <v>43726</v>
+        <v>45516.6</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5681.2</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>11112.9</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>18764.7</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>21611.3</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>13075.3</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>12854.4</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>21167.5</v>
       </c>
     </row>
     <row r="12">
@@ -1527,91 +1772,112 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>24161</v>
+        <v>24090.2</v>
       </c>
       <c r="C12" t="n">
-        <v>34399</v>
+        <v>36566.9</v>
       </c>
       <c r="D12" t="n">
-        <v>126287</v>
+        <v>138288.9</v>
       </c>
       <c r="E12" t="n">
-        <v>50931</v>
+        <v>56447.7</v>
       </c>
       <c r="F12" t="n">
-        <v>21159</v>
+        <v>22725.1</v>
       </c>
       <c r="G12" t="n">
-        <v>34941</v>
+        <v>39307.5</v>
       </c>
       <c r="H12" t="n">
-        <v>49064</v>
+        <v>56248.3</v>
       </c>
       <c r="I12" t="n">
-        <v>11767</v>
+        <v>11894.8</v>
       </c>
       <c r="J12" t="n">
-        <v>33797</v>
+        <v>33976</v>
       </c>
       <c r="K12" t="n">
-        <v>28310</v>
+        <v>29139.1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>44686</v>
+        <v>50608.2</v>
       </c>
       <c r="N12" t="n">
-        <v>43886</v>
+        <v>44846.5</v>
       </c>
       <c r="O12" t="n">
-        <v>7859</v>
+        <v>7875.9</v>
       </c>
       <c r="P12" t="n">
-        <v>18022</v>
+        <v>20130</v>
       </c>
       <c r="Q12" t="n">
-        <v>91119</v>
+        <v>101647.7</v>
       </c>
       <c r="R12" t="n">
-        <v>14443</v>
+        <v>18047.8</v>
       </c>
       <c r="S12" t="n">
-        <v>12202</v>
+        <v>12223.7</v>
       </c>
       <c r="T12" t="n">
-        <v>7128</v>
+        <v>7177.2</v>
       </c>
       <c r="U12" t="n">
-        <v>19025</v>
+        <v>19212</v>
       </c>
       <c r="V12" t="n">
-        <v>71063</v>
+        <v>82069.3</v>
       </c>
       <c r="W12" t="n">
-        <v>19149</v>
+        <v>18632.7</v>
       </c>
       <c r="X12" t="n">
-        <v>80952</v>
+        <v>88211.2</v>
       </c>
       <c r="Y12" t="n">
-        <v>67889</v>
+        <v>74925</v>
       </c>
       <c r="Z12" t="n">
-        <v>18182</v>
+        <v>19295.4</v>
       </c>
       <c r="AA12" t="n">
-        <v>26319</v>
+        <v>27694</v>
       </c>
       <c r="AB12" t="n">
-        <v>16540</v>
+        <v>16579.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>9072</v>
+        <v>9120.700000000001</v>
       </c>
       <c r="AD12" t="n">
-        <v>51929</v>
+        <v>52901.9</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>25860.9</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>31662.3</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>28173.9</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>34324</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>21933.7</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>33825.4</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>9419.5</v>
       </c>
     </row>
     <row r="13">
@@ -1621,91 +1887,112 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>24572</v>
+        <v>29290.5</v>
       </c>
       <c r="C13" t="n">
-        <v>63609</v>
+        <v>65234</v>
       </c>
       <c r="D13" t="n">
-        <v>165494</v>
+        <v>172053.1</v>
       </c>
       <c r="E13" t="n">
-        <v>22126</v>
+        <v>20994.7</v>
       </c>
       <c r="F13" t="n">
-        <v>27033</v>
+        <v>27063.3</v>
       </c>
       <c r="G13" t="n">
-        <v>71458</v>
+        <v>73071.7</v>
       </c>
       <c r="H13" t="n">
-        <v>86095</v>
+        <v>90012.5</v>
       </c>
       <c r="I13" t="n">
-        <v>41503</v>
+        <v>44307.5</v>
       </c>
       <c r="J13" t="n">
-        <v>43974</v>
+        <v>47726</v>
       </c>
       <c r="K13" t="n">
-        <v>19547</v>
+        <v>20615.3</v>
       </c>
       <c r="L13" t="n">
-        <v>44694</v>
+        <v>51381.2</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>81305</v>
+        <v>75137.89999999999</v>
       </c>
       <c r="O13" t="n">
-        <v>38977</v>
+        <v>47376.9</v>
       </c>
       <c r="P13" t="n">
-        <v>35293</v>
+        <v>27801.9</v>
       </c>
       <c r="Q13" t="n">
-        <v>128538</v>
+        <v>135411.9</v>
       </c>
       <c r="R13" t="n">
-        <v>47876</v>
+        <v>49476.8</v>
       </c>
       <c r="S13" t="n">
-        <v>33783</v>
+        <v>34388.3</v>
       </c>
       <c r="T13" t="n">
-        <v>39971</v>
+        <v>42077.8</v>
       </c>
       <c r="U13" t="n">
-        <v>38086</v>
+        <v>41358.6</v>
       </c>
       <c r="V13" t="n">
-        <v>75963</v>
+        <v>75298.60000000001</v>
       </c>
       <c r="W13" t="n">
-        <v>63843</v>
+        <v>69159.89999999999</v>
       </c>
       <c r="X13" t="n">
-        <v>121409</v>
+        <v>121975.4</v>
       </c>
       <c r="Y13" t="n">
-        <v>107096</v>
+        <v>108689.2</v>
       </c>
       <c r="Z13" t="n">
-        <v>30793</v>
+        <v>32444.6</v>
       </c>
       <c r="AA13" t="n">
-        <v>36859</v>
+        <v>39290.9</v>
       </c>
       <c r="AB13" t="n">
-        <v>32295</v>
+        <v>34306.1</v>
       </c>
       <c r="AC13" t="n">
-        <v>39000</v>
+        <v>40215.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>63273</v>
+        <v>66522.7</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>26905.3</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>32119</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>39770.8</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>42617.4</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>27545.5</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>34282.1</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>42307</v>
       </c>
     </row>
     <row r="14">
@@ -1715,91 +2002,112 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>67584</v>
+        <v>70879.2</v>
       </c>
       <c r="C14" t="n">
-        <v>62517</v>
+        <v>64109.6</v>
       </c>
       <c r="D14" t="n">
-        <v>86417</v>
+        <v>86800</v>
       </c>
       <c r="E14" t="n">
-        <v>94276</v>
+        <v>103236.7</v>
       </c>
       <c r="F14" t="n">
-        <v>64504</v>
+        <v>69514.10000000001</v>
       </c>
       <c r="G14" t="n">
-        <v>39825</v>
+        <v>39498.1</v>
       </c>
       <c r="H14" t="n">
-        <v>37528</v>
+        <v>38771.6</v>
       </c>
       <c r="I14" t="n">
-        <v>55024</v>
+        <v>56800.5</v>
       </c>
       <c r="J14" t="n">
-        <v>77039</v>
+        <v>85082.5</v>
       </c>
       <c r="K14" t="n">
-        <v>69602</v>
+        <v>75928.10000000001</v>
       </c>
       <c r="L14" t="n">
-        <v>43434</v>
+        <v>44844.8</v>
       </c>
       <c r="M14" t="n">
-        <v>81579</v>
+        <v>75144.8</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>51293</v>
+        <v>51703.8</v>
       </c>
       <c r="P14" t="n">
-        <v>46209</v>
+        <v>47571.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>47233</v>
+        <v>48857.3</v>
       </c>
       <c r="R14" t="n">
-        <v>50173</v>
+        <v>55398.3</v>
       </c>
       <c r="S14" t="n">
-        <v>55636</v>
+        <v>57868.7</v>
       </c>
       <c r="T14" t="n">
-        <v>50473</v>
+        <v>51929.5</v>
       </c>
       <c r="U14" t="n">
-        <v>59425</v>
+        <v>65788.10000000001</v>
       </c>
       <c r="V14" t="n">
-        <v>114408</v>
+        <v>133175.8</v>
       </c>
       <c r="W14" t="n">
-        <v>28775</v>
+        <v>29033.2</v>
       </c>
       <c r="X14" t="n">
-        <v>40104</v>
+        <v>41194.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>47044</v>
+        <v>52630.8</v>
       </c>
       <c r="Z14" t="n">
-        <v>61527</v>
+        <v>66084.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>69664</v>
+        <v>78800.39999999999</v>
       </c>
       <c r="AB14" t="n">
-        <v>59885</v>
+        <v>67363.10000000001</v>
       </c>
       <c r="AC14" t="n">
-        <v>52417</v>
+        <v>53872.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>88342</v>
+        <v>104008.4</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>72649.89999999999</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>78451.3</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>79280.39999999999</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>85430.5</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>68722.8</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>80614.39999999999</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>58738.6</v>
       </c>
     </row>
     <row r="15">
@@ -1809,91 +2117,112 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21512</v>
+        <v>20595.9</v>
       </c>
       <c r="C15" t="n">
-        <v>41357</v>
+        <v>41281</v>
       </c>
       <c r="D15" t="n">
-        <v>132151</v>
+        <v>141969.9</v>
       </c>
       <c r="E15" t="n">
-        <v>48248</v>
+        <v>52953.3</v>
       </c>
       <c r="F15" t="n">
-        <v>17262</v>
+        <v>19230.7</v>
       </c>
       <c r="G15" t="n">
-        <v>42293</v>
+        <v>42988.5</v>
       </c>
       <c r="H15" t="n">
-        <v>54928</v>
+        <v>59929.3</v>
       </c>
       <c r="I15" t="n">
-        <v>14198</v>
+        <v>13750</v>
       </c>
       <c r="J15" t="n">
-        <v>34310</v>
+        <v>34799.1</v>
       </c>
       <c r="K15" t="n">
-        <v>25541</v>
+        <v>25644.7</v>
       </c>
       <c r="L15" t="n">
-        <v>7984</v>
+        <v>7831.5</v>
       </c>
       <c r="M15" t="n">
-        <v>39096</v>
+        <v>47113.8</v>
       </c>
       <c r="N15" t="n">
-        <v>48930</v>
+        <v>51476.1</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>10163</v>
+        <v>12089.9</v>
       </c>
       <c r="Q15" t="n">
-        <v>96163</v>
+        <v>105328.7</v>
       </c>
       <c r="R15" t="n">
-        <v>21795</v>
+        <v>21728.8</v>
       </c>
       <c r="S15" t="n">
-        <v>5649</v>
+        <v>5667.4</v>
       </c>
       <c r="T15" t="n">
-        <v>8869</v>
+        <v>8890</v>
       </c>
       <c r="U15" t="n">
-        <v>20119</v>
+        <v>22533.3</v>
       </c>
       <c r="V15" t="n">
-        <v>71576</v>
+        <v>82892.39999999999</v>
       </c>
       <c r="W15" t="n">
-        <v>26129</v>
+        <v>25947.7</v>
       </c>
       <c r="X15" t="n">
-        <v>88778</v>
+        <v>91892.2</v>
       </c>
       <c r="Y15" t="n">
-        <v>73753</v>
+        <v>78606</v>
       </c>
       <c r="Z15" t="n">
-        <v>16131</v>
+        <v>15801.1</v>
       </c>
       <c r="AA15" t="n">
-        <v>26832</v>
+        <v>28517.1</v>
       </c>
       <c r="AB15" t="n">
-        <v>17053</v>
+        <v>17079.7</v>
       </c>
       <c r="AC15" t="n">
-        <v>10583</v>
+        <v>10566</v>
       </c>
       <c r="AD15" t="n">
-        <v>53609</v>
+        <v>53725</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>22366.6</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>28168</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>28997</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>35147.1</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>18439.4</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>30331</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>7197</v>
       </c>
     </row>
     <row r="16">
@@ -1903,91 +2232,112 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>29823</v>
+        <v>27585.8</v>
       </c>
       <c r="C16" t="n">
-        <v>50008</v>
+        <v>55134.3</v>
       </c>
       <c r="D16" t="n">
-        <v>132893</v>
+        <v>151004.8</v>
       </c>
       <c r="E16" t="n">
-        <v>49347</v>
+        <v>45009.2</v>
       </c>
       <c r="F16" t="n">
-        <v>20822</v>
+        <v>20185.4</v>
       </c>
       <c r="G16" t="n">
-        <v>52146</v>
+        <v>52023.4</v>
       </c>
       <c r="H16" t="n">
-        <v>64445</v>
+        <v>68964.2</v>
       </c>
       <c r="I16" t="n">
-        <v>22849</v>
+        <v>22784.8</v>
       </c>
       <c r="J16" t="n">
-        <v>41459</v>
+        <v>41789.1</v>
       </c>
       <c r="K16" t="n">
-        <v>23713</v>
+        <v>23705.8</v>
       </c>
       <c r="L16" t="n">
-        <v>18644</v>
+        <v>20242</v>
       </c>
       <c r="M16" t="n">
-        <v>35729</v>
+        <v>27916.5</v>
       </c>
       <c r="N16" t="n">
-        <v>46476</v>
+        <v>47668</v>
       </c>
       <c r="O16" t="n">
-        <v>10660</v>
+        <v>12487.8</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>93709</v>
+        <v>114363.5</v>
       </c>
       <c r="R16" t="n">
-        <v>31031</v>
+        <v>30763.7</v>
       </c>
       <c r="S16" t="n">
-        <v>11002</v>
+        <v>10865.5</v>
       </c>
       <c r="T16" t="n">
-        <v>17480</v>
+        <v>17341.6</v>
       </c>
       <c r="U16" t="n">
-        <v>28365</v>
+        <v>29523.2</v>
       </c>
       <c r="V16" t="n">
-        <v>78725</v>
+        <v>89882.3</v>
       </c>
       <c r="W16" t="n">
-        <v>35646</v>
+        <v>35356.6</v>
       </c>
       <c r="X16" t="n">
-        <v>86580</v>
+        <v>100927.1</v>
       </c>
       <c r="Y16" t="n">
-        <v>83270</v>
+        <v>87640.89999999999</v>
       </c>
       <c r="Z16" t="n">
-        <v>23280</v>
+        <v>22791</v>
       </c>
       <c r="AA16" t="n">
-        <v>33981</v>
+        <v>35507</v>
       </c>
       <c r="AB16" t="n">
-        <v>24202</v>
+        <v>24069.6</v>
       </c>
       <c r="AC16" t="n">
-        <v>19176</v>
+        <v>19017.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>60758</v>
+        <v>60714.9</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>29356.5</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>35157.9</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>35986.9</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>42137.1</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>19120.9</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>37321</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>14254.3</v>
       </c>
     </row>
     <row r="17">
@@ -1997,91 +2347,112 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>110779</v>
+        <v>110453.5</v>
       </c>
       <c r="C17" t="n">
-        <v>90648</v>
+        <v>90568.10000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>39670</v>
+        <v>39585.2</v>
       </c>
       <c r="E17" t="n">
-        <v>137385</v>
+        <v>142155.3</v>
       </c>
       <c r="F17" t="n">
-        <v>111234</v>
+        <v>111773.3</v>
       </c>
       <c r="G17" t="n">
-        <v>66503</v>
+        <v>66281.60000000001</v>
       </c>
       <c r="H17" t="n">
-        <v>53193</v>
+        <v>56613.1</v>
       </c>
       <c r="I17" t="n">
-        <v>94595</v>
+        <v>94403.39999999999</v>
       </c>
       <c r="J17" t="n">
-        <v>114425</v>
+        <v>114621.9</v>
       </c>
       <c r="K17" t="n">
-        <v>115015</v>
+        <v>114846.7</v>
       </c>
       <c r="L17" t="n">
-        <v>90666</v>
+        <v>101992.1</v>
       </c>
       <c r="M17" t="n">
-        <v>128811</v>
+        <v>136315.8</v>
       </c>
       <c r="N17" t="n">
-        <v>47232</v>
+        <v>48860.6</v>
       </c>
       <c r="O17" t="n">
-        <v>98525</v>
+        <v>111558.9</v>
       </c>
       <c r="P17" t="n">
-        <v>93441</v>
+        <v>114797.9</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>88100</v>
+        <v>87898.3</v>
       </c>
       <c r="S17" t="n">
-        <v>102868</v>
+        <v>106891.5</v>
       </c>
       <c r="T17" t="n">
-        <v>97705</v>
+        <v>99173.10000000001</v>
       </c>
       <c r="U17" t="n">
-        <v>97352</v>
+        <v>98081.10000000001</v>
       </c>
       <c r="V17" t="n">
-        <v>143979</v>
+        <v>162715.2</v>
       </c>
       <c r="W17" t="n">
-        <v>75447</v>
+        <v>76203.7</v>
       </c>
       <c r="X17" t="n">
-        <v>15392</v>
+        <v>15844.4</v>
       </c>
       <c r="Y17" t="n">
-        <v>37024</v>
+        <v>41046.9</v>
       </c>
       <c r="Z17" t="n">
-        <v>105272</v>
+        <v>104716.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>110395</v>
+        <v>108339.9</v>
       </c>
       <c r="AB17" t="n">
-        <v>103495</v>
+        <v>103294</v>
       </c>
       <c r="AC17" t="n">
-        <v>99649</v>
+        <v>101116.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>116473</v>
+        <v>133547.8</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>111568.6</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>116018.9</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>108819.8</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>114969.9</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>110981.9</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>119533</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>101896.3</v>
       </c>
     </row>
     <row r="18">
@@ -2091,91 +2462,112 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>23257</v>
+        <v>26553.6</v>
       </c>
       <c r="C18" t="n">
-        <v>22493</v>
+        <v>28280.2</v>
       </c>
       <c r="D18" t="n">
-        <v>120027</v>
+        <v>124990.4</v>
       </c>
       <c r="E18" t="n">
-        <v>49863</v>
+        <v>58255.4</v>
       </c>
       <c r="F18" t="n">
-        <v>24659</v>
+        <v>27873.4</v>
       </c>
       <c r="G18" t="n">
-        <v>25991</v>
+        <v>26009</v>
       </c>
       <c r="H18" t="n">
-        <v>40627</v>
+        <v>42949.9</v>
       </c>
       <c r="I18" t="n">
-        <v>9167</v>
+        <v>10296.6</v>
       </c>
       <c r="J18" t="n">
-        <v>28039</v>
+        <v>30722</v>
       </c>
       <c r="K18" t="n">
-        <v>28672</v>
+        <v>30946.8</v>
       </c>
       <c r="L18" t="n">
-        <v>13852</v>
+        <v>17885.2</v>
       </c>
       <c r="M18" t="n">
-        <v>48256</v>
+        <v>52415.9</v>
       </c>
       <c r="N18" t="n">
-        <v>50886</v>
+        <v>55269.5</v>
       </c>
       <c r="O18" t="n">
-        <v>21629</v>
+        <v>27452</v>
       </c>
       <c r="P18" t="n">
-        <v>31599</v>
+        <v>30691</v>
       </c>
       <c r="Q18" t="n">
-        <v>88551</v>
+        <v>88349.2</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>23553</v>
+        <v>22784.7</v>
       </c>
       <c r="T18" t="n">
-        <v>15026</v>
+        <v>15066.2</v>
       </c>
       <c r="U18" t="n">
-        <v>10916</v>
+        <v>10925.3</v>
       </c>
       <c r="V18" t="n">
-        <v>66521</v>
+        <v>78815.3</v>
       </c>
       <c r="W18" t="n">
-        <v>22051</v>
+        <v>22097.2</v>
       </c>
       <c r="X18" t="n">
-        <v>76406</v>
+        <v>74912.7</v>
       </c>
       <c r="Y18" t="n">
-        <v>61629</v>
+        <v>61626.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>18697</v>
+        <v>20816.6</v>
       </c>
       <c r="AA18" t="n">
-        <v>23517</v>
+        <v>24440</v>
       </c>
       <c r="AB18" t="n">
-        <v>17665</v>
+        <v>19394.1</v>
       </c>
       <c r="AC18" t="n">
-        <v>16005</v>
+        <v>17009.7</v>
       </c>
       <c r="AD18" t="n">
-        <v>43383</v>
+        <v>49647.9</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>27668.7</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>32119</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>24919.9</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>31070</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>27082</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>35633.2</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>17789.5</v>
       </c>
     </row>
     <row r="19">
@@ -2185,91 +2577,112 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18821</v>
+        <v>19535.4</v>
       </c>
       <c r="C19" t="n">
-        <v>41822</v>
+        <v>47083.8</v>
       </c>
       <c r="D19" t="n">
-        <v>137455</v>
+        <v>142954.3</v>
       </c>
       <c r="E19" t="n">
-        <v>45557</v>
+        <v>51892.8</v>
       </c>
       <c r="F19" t="n">
-        <v>12395</v>
+        <v>12452.9</v>
       </c>
       <c r="G19" t="n">
-        <v>43960</v>
+        <v>43972.9</v>
       </c>
       <c r="H19" t="n">
-        <v>58455</v>
+        <v>60913.7</v>
       </c>
       <c r="I19" t="n">
-        <v>14663</v>
+        <v>14734.4</v>
       </c>
       <c r="J19" t="n">
-        <v>31619</v>
+        <v>33738.6</v>
       </c>
       <c r="K19" t="n">
-        <v>20635</v>
+        <v>20626.3</v>
       </c>
       <c r="L19" t="n">
-        <v>12335</v>
+        <v>12233.6</v>
       </c>
       <c r="M19" t="n">
-        <v>34229</v>
+        <v>34231.1</v>
       </c>
       <c r="N19" t="n">
-        <v>54234</v>
+        <v>57656.5</v>
       </c>
       <c r="O19" t="n">
-        <v>5976</v>
+        <v>5975.6</v>
       </c>
       <c r="P19" t="n">
-        <v>10739</v>
+        <v>10732</v>
       </c>
       <c r="Q19" t="n">
-        <v>101467</v>
+        <v>106313.1</v>
       </c>
       <c r="R19" t="n">
-        <v>22711</v>
+        <v>22713.2</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>9294</v>
+        <v>9291.1</v>
       </c>
       <c r="U19" t="n">
-        <v>19117</v>
+        <v>21472.8</v>
       </c>
       <c r="V19" t="n">
-        <v>68070</v>
+        <v>81831.89999999999</v>
       </c>
       <c r="W19" t="n">
-        <v>30852</v>
+        <v>32272.1</v>
       </c>
       <c r="X19" t="n">
-        <v>93287</v>
+        <v>92876.60000000001</v>
       </c>
       <c r="Y19" t="n">
-        <v>79057</v>
+        <v>79590.39999999999</v>
       </c>
       <c r="Z19" t="n">
-        <v>13142</v>
+        <v>14740.6</v>
       </c>
       <c r="AA19" t="n">
-        <v>23393</v>
+        <v>27456.6</v>
       </c>
       <c r="AB19" t="n">
-        <v>14362</v>
+        <v>16019.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>10127</v>
+        <v>10967.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>50918</v>
+        <v>52664.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>21306</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>27107.5</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>27936.5</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>34086.6</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>10664.7</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>29270.5</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>6203.9</v>
       </c>
     </row>
     <row r="20">
@@ -2279,91 +2692,112 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17229</v>
+        <v>16279</v>
       </c>
       <c r="C20" t="n">
-        <v>34184</v>
+        <v>34657.2</v>
       </c>
       <c r="D20" t="n">
-        <v>130358</v>
+        <v>135346.1</v>
       </c>
       <c r="E20" t="n">
-        <v>43921</v>
+        <v>48636.4</v>
       </c>
       <c r="F20" t="n">
-        <v>14149</v>
+        <v>14913.9</v>
       </c>
       <c r="G20" t="n">
-        <v>36322</v>
+        <v>36364.7</v>
       </c>
       <c r="H20" t="n">
-        <v>50817</v>
+        <v>53305.5</v>
       </c>
       <c r="I20" t="n">
-        <v>7025</v>
+        <v>7126.2</v>
       </c>
       <c r="J20" t="n">
-        <v>26787</v>
+        <v>27904.1</v>
       </c>
       <c r="K20" t="n">
-        <v>21300</v>
+        <v>21327.8</v>
       </c>
       <c r="L20" t="n">
-        <v>7309</v>
+        <v>7174.9</v>
       </c>
       <c r="M20" t="n">
-        <v>39256</v>
+        <v>42796.9</v>
       </c>
       <c r="N20" t="n">
-        <v>50563</v>
+        <v>51928.9</v>
       </c>
       <c r="O20" t="n">
-        <v>9297</v>
+        <v>8903.5</v>
       </c>
       <c r="P20" t="n">
-        <v>17229</v>
+        <v>17235.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>97796</v>
+        <v>98704.89999999999</v>
       </c>
       <c r="R20" t="n">
-        <v>15073</v>
+        <v>15105</v>
       </c>
       <c r="S20" t="n">
-        <v>9305</v>
+        <v>9329.5</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>12351</v>
+        <v>13662</v>
       </c>
       <c r="V20" t="n">
-        <v>64053</v>
+        <v>75997.39999999999</v>
       </c>
       <c r="W20" t="n">
-        <v>25397</v>
+        <v>25715.1</v>
       </c>
       <c r="X20" t="n">
-        <v>86737</v>
+        <v>85268.39999999999</v>
       </c>
       <c r="Y20" t="n">
-        <v>71960</v>
+        <v>71982.2</v>
       </c>
       <c r="Z20" t="n">
-        <v>11172</v>
+        <v>11484.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>19309</v>
+        <v>21622</v>
       </c>
       <c r="AB20" t="n">
-        <v>9530</v>
+        <v>9552.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>2062</v>
+        <v>2062.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>46086</v>
+        <v>46830</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>18049.7</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>23851.1</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>22102</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>28252.1</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>14122.5</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>26014.2</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>4334.3</v>
       </c>
     </row>
     <row r="21">
@@ -2373,91 +2807,112 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13427</v>
+        <v>15641.6</v>
       </c>
       <c r="C21" t="n">
-        <v>27619</v>
+        <v>27538.5</v>
       </c>
       <c r="D21" t="n">
-        <v>129504</v>
+        <v>135392.1</v>
       </c>
       <c r="E21" t="n">
-        <v>40033</v>
+        <v>47343.5</v>
       </c>
       <c r="F21" t="n">
-        <v>14829</v>
+        <v>16961.4</v>
       </c>
       <c r="G21" t="n">
-        <v>35468</v>
+        <v>36410.7</v>
       </c>
       <c r="H21" t="n">
-        <v>50105</v>
+        <v>53351.5</v>
       </c>
       <c r="I21" t="n">
-        <v>7116</v>
+        <v>7417.5</v>
       </c>
       <c r="J21" t="n">
-        <v>19973</v>
+        <v>19810.1</v>
       </c>
       <c r="K21" t="n">
-        <v>18842</v>
+        <v>20034.9</v>
       </c>
       <c r="L21" t="n">
-        <v>18628</v>
+        <v>19113.2</v>
       </c>
       <c r="M21" t="n">
-        <v>38426</v>
+        <v>41504</v>
       </c>
       <c r="N21" t="n">
-        <v>60363</v>
+        <v>64798.6</v>
       </c>
       <c r="O21" t="n">
-        <v>20434</v>
+        <v>25423.2</v>
       </c>
       <c r="P21" t="n">
-        <v>28029</v>
+        <v>30592.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>98028</v>
+        <v>98750.8</v>
       </c>
       <c r="R21" t="n">
-        <v>10988</v>
+        <v>11011.8</v>
       </c>
       <c r="S21" t="n">
-        <v>18947</v>
+        <v>22192.7</v>
       </c>
       <c r="T21" t="n">
-        <v>12229</v>
+        <v>13851</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>58431</v>
+        <v>67903.39999999999</v>
       </c>
       <c r="W21" t="n">
-        <v>31528</v>
+        <v>32498.8</v>
       </c>
       <c r="X21" t="n">
-        <v>85883</v>
+        <v>85314.39999999999</v>
       </c>
       <c r="Y21" t="n">
-        <v>71106</v>
+        <v>72028.2</v>
       </c>
       <c r="Z21" t="n">
-        <v>8867</v>
+        <v>9904.6</v>
       </c>
       <c r="AA21" t="n">
-        <v>13687</v>
+        <v>13528</v>
       </c>
       <c r="AB21" t="n">
-        <v>7835</v>
+        <v>8482.1</v>
       </c>
       <c r="AC21" t="n">
-        <v>11258</v>
+        <v>11988.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>39272</v>
+        <v>38736</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>16756.7</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>21207.1</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>14008</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>20158.1</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>16170.1</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>24721.2</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>20353.3</v>
       </c>
     </row>
     <row r="22">
@@ -2467,91 +2922,112 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>55637</v>
+        <v>56773.5</v>
       </c>
       <c r="C22" t="n">
-        <v>53701</v>
+        <v>53801.8</v>
       </c>
       <c r="D22" t="n">
-        <v>175464</v>
+        <v>199199.3</v>
       </c>
       <c r="E22" t="n">
-        <v>58479</v>
+        <v>63915.4</v>
       </c>
       <c r="F22" t="n">
-        <v>60143</v>
+        <v>75584.39999999999</v>
       </c>
       <c r="G22" t="n">
-        <v>81154</v>
+        <v>100217.9</v>
       </c>
       <c r="H22" t="n">
-        <v>95318</v>
+        <v>117158.7</v>
       </c>
       <c r="I22" t="n">
-        <v>62810</v>
+        <v>71453.60000000001</v>
       </c>
       <c r="J22" t="n">
-        <v>39963</v>
+        <v>39805.9</v>
       </c>
       <c r="K22" t="n">
-        <v>61056</v>
+        <v>61087.1</v>
       </c>
       <c r="L22" t="n">
-        <v>72345</v>
+        <v>83242.89999999999</v>
       </c>
       <c r="M22" t="n">
-        <v>75770</v>
+        <v>75215</v>
       </c>
       <c r="N22" t="n">
-        <v>115599</v>
+        <v>133473.4</v>
       </c>
       <c r="O22" t="n">
-        <v>70086</v>
+        <v>84046.2</v>
       </c>
       <c r="P22" t="n">
-        <v>76542</v>
+        <v>89215.2</v>
       </c>
       <c r="Q22" t="n">
-        <v>144379</v>
+        <v>162558</v>
       </c>
       <c r="R22" t="n">
-        <v>67776</v>
+        <v>76623</v>
       </c>
       <c r="S22" t="n">
-        <v>67321</v>
+        <v>80815.7</v>
       </c>
       <c r="T22" t="n">
-        <v>65052</v>
+        <v>75889.39999999999</v>
       </c>
       <c r="U22" t="n">
-        <v>58121</v>
+        <v>66786.2</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>88351</v>
+        <v>96306</v>
       </c>
       <c r="X22" t="n">
-        <v>132234</v>
+        <v>149121.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>117066</v>
+        <v>135835.3</v>
       </c>
       <c r="Z22" t="n">
-        <v>54942</v>
+        <v>68527.60000000001</v>
       </c>
       <c r="AA22" t="n">
-        <v>44969</v>
+        <v>44827.3</v>
       </c>
       <c r="AB22" t="n">
-        <v>55417</v>
+        <v>67105.10000000001</v>
       </c>
       <c r="AC22" t="n">
-        <v>64081</v>
+        <v>74026.8</v>
       </c>
       <c r="AD22" t="n">
-        <v>28387</v>
+        <v>29114.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>58636.5</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51661.9</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>44822.9</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>39542</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>74793.10000000001</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>56666.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>78976.3</v>
       </c>
     </row>
     <row r="23">
@@ -2561,91 +3037,112 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>42567</v>
+        <v>45057.3</v>
       </c>
       <c r="C23" t="n">
-        <v>35505</v>
+        <v>35459.5</v>
       </c>
       <c r="D23" t="n">
-        <v>107138</v>
+        <v>112576.1</v>
       </c>
       <c r="E23" t="n">
-        <v>69337</v>
+        <v>76347.3</v>
       </c>
       <c r="F23" t="n">
-        <v>39565</v>
+        <v>43692.1</v>
       </c>
       <c r="G23" t="n">
-        <v>18779</v>
+        <v>18619</v>
       </c>
       <c r="H23" t="n">
-        <v>29915</v>
+        <v>30244.1</v>
       </c>
       <c r="I23" t="n">
-        <v>27074</v>
+        <v>26942.2</v>
       </c>
       <c r="J23" t="n">
-        <v>49089</v>
+        <v>48813.9</v>
       </c>
       <c r="K23" t="n">
-        <v>46716</v>
+        <v>49038.7</v>
       </c>
       <c r="L23" t="n">
-        <v>18406</v>
+        <v>18423.3</v>
       </c>
       <c r="M23" t="n">
-        <v>63092</v>
+        <v>70507.8</v>
       </c>
       <c r="N23" t="n">
-        <v>28835</v>
+        <v>29091.2</v>
       </c>
       <c r="O23" t="n">
-        <v>26265</v>
+        <v>25725</v>
       </c>
       <c r="P23" t="n">
-        <v>35027</v>
+        <v>35041.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>76034</v>
+        <v>75934.8</v>
       </c>
       <c r="R23" t="n">
-        <v>22223</v>
+        <v>22090.2</v>
       </c>
       <c r="S23" t="n">
-        <v>30608</v>
+        <v>32046.8</v>
       </c>
       <c r="T23" t="n">
-        <v>25534</v>
+        <v>25507.9</v>
       </c>
       <c r="U23" t="n">
-        <v>31475</v>
+        <v>32273</v>
       </c>
       <c r="V23" t="n">
-        <v>87818</v>
+        <v>96907.10000000001</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>63765</v>
+        <v>62498.4</v>
       </c>
       <c r="Y23" t="n">
-        <v>48740</v>
+        <v>49212.2</v>
       </c>
       <c r="Z23" t="n">
-        <v>36588</v>
+        <v>38908.4</v>
       </c>
       <c r="AA23" t="n">
-        <v>44326</v>
+        <v>42531.8</v>
       </c>
       <c r="AB23" t="n">
-        <v>34946</v>
+        <v>37485.9</v>
       </c>
       <c r="AC23" t="n">
-        <v>27478</v>
+        <v>27451.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>61330</v>
+        <v>67739.7</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>45760.5</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>50210.8</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>43011.7</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>49161.8</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>42900.8</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>53725</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>27750.2</v>
       </c>
     </row>
     <row r="24">
@@ -2655,91 +3152,112 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>95937</v>
+        <v>96611.89999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>75444</v>
+        <v>76726.60000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>47882</v>
+        <v>47778.3</v>
       </c>
       <c r="E24" t="n">
-        <v>122543</v>
+        <v>128313.8</v>
       </c>
       <c r="F24" t="n">
-        <v>97011</v>
+        <v>97931.7</v>
       </c>
       <c r="G24" t="n">
-        <v>51299</v>
+        <v>52440.1</v>
       </c>
       <c r="H24" t="n">
-        <v>37801</v>
+        <v>42771.5</v>
       </c>
       <c r="I24" t="n">
-        <v>79391</v>
+        <v>80561.8</v>
       </c>
       <c r="J24" t="n">
-        <v>99221</v>
+        <v>100780.3</v>
       </c>
       <c r="K24" t="n">
-        <v>100792</v>
+        <v>101005.1</v>
       </c>
       <c r="L24" t="n">
-        <v>80038</v>
+        <v>88150.5</v>
       </c>
       <c r="M24" t="n">
-        <v>120376</v>
+        <v>122474.2</v>
       </c>
       <c r="N24" t="n">
-        <v>39797</v>
+        <v>39848.7</v>
       </c>
       <c r="O24" t="n">
-        <v>87897</v>
+        <v>97717.3</v>
       </c>
       <c r="P24" t="n">
-        <v>86006</v>
+        <v>100956.3</v>
       </c>
       <c r="Q24" t="n">
-        <v>16074</v>
+        <v>15521.7</v>
       </c>
       <c r="R24" t="n">
-        <v>72896</v>
+        <v>74056.7</v>
       </c>
       <c r="S24" t="n">
-        <v>92240</v>
+        <v>93049.89999999999</v>
       </c>
       <c r="T24" t="n">
-        <v>84136</v>
+        <v>85331.5</v>
       </c>
       <c r="U24" t="n">
-        <v>82510</v>
+        <v>84239.5</v>
       </c>
       <c r="V24" t="n">
-        <v>128775</v>
+        <v>148873.6</v>
       </c>
       <c r="W24" t="n">
-        <v>61632</v>
+        <v>62362.1</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>21781</v>
+        <v>21408.4</v>
       </c>
       <c r="Z24" t="n">
-        <v>91049</v>
+        <v>90874.89999999999</v>
       </c>
       <c r="AA24" t="n">
-        <v>96172</v>
+        <v>94498.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>89272</v>
+        <v>89452.39999999999</v>
       </c>
       <c r="AC24" t="n">
-        <v>86080</v>
+        <v>87275</v>
       </c>
       <c r="AD24" t="n">
-        <v>101269</v>
+        <v>119706.2</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>97727</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>102177.3</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>94978.2</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>101128.3</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>97140.39999999999</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>105691.5</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>88054.7</v>
       </c>
     </row>
     <row r="25">
@@ -2749,91 +3267,112 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>83566</v>
+        <v>83435.89999999999</v>
       </c>
       <c r="C25" t="n">
-        <v>63346</v>
+        <v>63550.5</v>
       </c>
       <c r="D25" t="n">
-        <v>58398</v>
+        <v>63554</v>
       </c>
       <c r="E25" t="n">
-        <v>110172</v>
+        <v>115137.7</v>
       </c>
       <c r="F25" t="n">
-        <v>84021</v>
+        <v>84755.7</v>
       </c>
       <c r="G25" t="n">
-        <v>38801</v>
+        <v>39264</v>
       </c>
       <c r="H25" t="n">
-        <v>24254</v>
+        <v>29595.5</v>
       </c>
       <c r="I25" t="n">
-        <v>67293</v>
+        <v>67385.8</v>
       </c>
       <c r="J25" t="n">
-        <v>86723</v>
+        <v>87604.3</v>
       </c>
       <c r="K25" t="n">
-        <v>87802</v>
+        <v>87829.10000000001</v>
       </c>
       <c r="L25" t="n">
-        <v>66610</v>
+        <v>74974.5</v>
       </c>
       <c r="M25" t="n">
-        <v>107386</v>
+        <v>109298.2</v>
       </c>
       <c r="N25" t="n">
-        <v>47090</v>
+        <v>47543.8</v>
       </c>
       <c r="O25" t="n">
-        <v>74469</v>
+        <v>84541.3</v>
       </c>
       <c r="P25" t="n">
-        <v>83231</v>
+        <v>87780.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>37149</v>
+        <v>41457.1</v>
       </c>
       <c r="R25" t="n">
-        <v>60798</v>
+        <v>60880.7</v>
       </c>
       <c r="S25" t="n">
-        <v>78812</v>
+        <v>79873.89999999999</v>
       </c>
       <c r="T25" t="n">
-        <v>72038</v>
+        <v>72155.5</v>
       </c>
       <c r="U25" t="n">
-        <v>70139</v>
+        <v>71063.5</v>
       </c>
       <c r="V25" t="n">
-        <v>116677</v>
+        <v>135697.6</v>
       </c>
       <c r="W25" t="n">
-        <v>48204</v>
+        <v>49186.1</v>
       </c>
       <c r="X25" t="n">
-        <v>21499</v>
+        <v>21572</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
       </c>
       <c r="Z25" t="n">
-        <v>78059</v>
+        <v>77698.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>83182</v>
+        <v>81322.2</v>
       </c>
       <c r="AB25" t="n">
-        <v>76282</v>
+        <v>76276.39999999999</v>
       </c>
       <c r="AC25" t="n">
-        <v>73982</v>
+        <v>74098.89999999999</v>
       </c>
       <c r="AD25" t="n">
-        <v>89171</v>
+        <v>106530.2</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>84550.89999999999</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>89001.3</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>81802.2</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>87952.3</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>83964.3</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>92515.39999999999</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>74878.7</v>
       </c>
     </row>
     <row r="26">
@@ -2843,91 +3382,112 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7706</v>
+        <v>7956.9</v>
       </c>
       <c r="C26" t="n">
-        <v>35443</v>
+        <v>35471.4</v>
       </c>
       <c r="D26" t="n">
-        <v>137098</v>
+        <v>142290.5</v>
       </c>
       <c r="E26" t="n">
-        <v>35157</v>
+        <v>40091.4</v>
       </c>
       <c r="F26" t="n">
-        <v>5962</v>
+        <v>7963.7</v>
       </c>
       <c r="G26" t="n">
-        <v>43062</v>
+        <v>43309.1</v>
       </c>
       <c r="H26" t="n">
-        <v>57557</v>
+        <v>60249.9</v>
       </c>
       <c r="I26" t="n">
-        <v>11324</v>
+        <v>14544.8</v>
       </c>
       <c r="J26" t="n">
-        <v>18520</v>
+        <v>22126.2</v>
       </c>
       <c r="K26" t="n">
-        <v>12754</v>
+        <v>12782.8</v>
       </c>
       <c r="L26" t="n">
-        <v>17575</v>
+        <v>20429.8</v>
       </c>
       <c r="M26" t="n">
-        <v>31946</v>
+        <v>34251.9</v>
       </c>
       <c r="N26" t="n">
-        <v>60931</v>
+        <v>65852.7</v>
       </c>
       <c r="O26" t="n">
-        <v>15144</v>
+        <v>16425.5</v>
       </c>
       <c r="P26" t="n">
-        <v>21600</v>
+        <v>21594.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>105622</v>
+        <v>105649.2</v>
       </c>
       <c r="R26" t="n">
-        <v>19014</v>
+        <v>19714.2</v>
       </c>
       <c r="S26" t="n">
-        <v>12379</v>
+        <v>13195</v>
       </c>
       <c r="T26" t="n">
-        <v>10384</v>
+        <v>11126.4</v>
       </c>
       <c r="U26" t="n">
-        <v>9086</v>
+        <v>11595.9</v>
       </c>
       <c r="V26" t="n">
-        <v>55786</v>
+        <v>70219.5</v>
       </c>
       <c r="W26" t="n">
-        <v>34885</v>
+        <v>39397.2</v>
       </c>
       <c r="X26" t="n">
-        <v>93477</v>
+        <v>92212.8</v>
       </c>
       <c r="Y26" t="n">
-        <v>78700</v>
+        <v>78926.60000000001</v>
       </c>
       <c r="Z26" t="n">
         <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>11042</v>
+        <v>10801</v>
       </c>
       <c r="AB26" t="n">
-        <v>2500</v>
+        <v>2494.4</v>
       </c>
       <c r="AC26" t="n">
-        <v>9413</v>
+        <v>9263.799999999999</v>
       </c>
       <c r="AD26" t="n">
-        <v>37819</v>
+        <v>41052.1</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>6848.4</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>15306.1</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>11280.9</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>17431</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>7172.4</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>17469.1</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>11355.6</v>
       </c>
     </row>
     <row r="27">
@@ -2937,91 +3497,112 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12783</v>
+        <v>14026.4</v>
       </c>
       <c r="C27" t="n">
-        <v>33850</v>
+        <v>39535.7</v>
       </c>
       <c r="D27" t="n">
-        <v>141374</v>
+        <v>146354.8</v>
       </c>
       <c r="E27" t="n">
-        <v>35189</v>
+        <v>35531.4</v>
       </c>
       <c r="F27" t="n">
-        <v>17601</v>
+        <v>22739.9</v>
       </c>
       <c r="G27" t="n">
-        <v>47338</v>
+        <v>47373.4</v>
       </c>
       <c r="H27" t="n">
-        <v>61975</v>
+        <v>64314.2</v>
       </c>
       <c r="I27" t="n">
-        <v>18037</v>
+        <v>18609.1</v>
       </c>
       <c r="J27" t="n">
-        <v>8276</v>
+        <v>8491.1</v>
       </c>
       <c r="K27" t="n">
-        <v>18319</v>
+        <v>18340</v>
       </c>
       <c r="L27" t="n">
-        <v>27572</v>
+        <v>30398.4</v>
       </c>
       <c r="M27" t="n">
-        <v>37903</v>
+        <v>39442.9</v>
       </c>
       <c r="N27" t="n">
-        <v>70826</v>
+        <v>80628.89999999999</v>
       </c>
       <c r="O27" t="n">
-        <v>26820</v>
+        <v>31201.7</v>
       </c>
       <c r="P27" t="n">
-        <v>33276</v>
+        <v>36370.7</v>
       </c>
       <c r="Q27" t="n">
-        <v>109898</v>
+        <v>109713.5</v>
       </c>
       <c r="R27" t="n">
-        <v>23756</v>
+        <v>23778.5</v>
       </c>
       <c r="S27" t="n">
-        <v>24055</v>
+        <v>27971.2</v>
       </c>
       <c r="T27" t="n">
-        <v>20279</v>
+        <v>23044.9</v>
       </c>
       <c r="U27" t="n">
-        <v>13152</v>
+        <v>13941.7</v>
       </c>
       <c r="V27" t="n">
-        <v>44927</v>
+        <v>45034.9</v>
       </c>
       <c r="W27" t="n">
-        <v>43398</v>
+        <v>43461.5</v>
       </c>
       <c r="X27" t="n">
-        <v>97753</v>
+        <v>96277.10000000001</v>
       </c>
       <c r="Y27" t="n">
-        <v>82976</v>
+        <v>82990.8</v>
       </c>
       <c r="Z27" t="n">
-        <v>11676</v>
+        <v>15683.1</v>
       </c>
       <c r="AA27" t="n">
         <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>10644</v>
+        <v>14260.6</v>
       </c>
       <c r="AC27" t="n">
-        <v>19308</v>
+        <v>21182.3</v>
       </c>
       <c r="AD27" t="n">
-        <v>27575</v>
+        <v>30580.3</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>15889.3</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>8914.799999999999</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>689.9</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>8579.1</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>21948.6</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>15115</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>26131.8</v>
       </c>
     </row>
     <row r="28">
@@ -3031,91 +3612,112 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7785</v>
+        <v>9983.200000000001</v>
       </c>
       <c r="C28" t="n">
-        <v>33235</v>
+        <v>33264</v>
       </c>
       <c r="D28" t="n">
-        <v>135120</v>
+        <v>140083</v>
       </c>
       <c r="E28" t="n">
-        <v>34391</v>
+        <v>41685.1</v>
       </c>
       <c r="F28" t="n">
-        <v>8390</v>
+        <v>10053.8</v>
       </c>
       <c r="G28" t="n">
-        <v>41084</v>
+        <v>41101.6</v>
       </c>
       <c r="H28" t="n">
-        <v>55721</v>
+        <v>58042.4</v>
       </c>
       <c r="I28" t="n">
-        <v>10575</v>
+        <v>10804.2</v>
       </c>
       <c r="J28" t="n">
-        <v>17257</v>
+        <v>19918.8</v>
       </c>
       <c r="K28" t="n">
-        <v>13200</v>
+        <v>14376.5</v>
       </c>
       <c r="L28" t="n">
-        <v>16928</v>
+        <v>16812.6</v>
       </c>
       <c r="M28" t="n">
-        <v>32784</v>
+        <v>35845.6</v>
       </c>
       <c r="N28" t="n">
-        <v>60182</v>
+        <v>67942.8</v>
       </c>
       <c r="O28" t="n">
-        <v>16791</v>
+        <v>18515.6</v>
       </c>
       <c r="P28" t="n">
-        <v>23708</v>
+        <v>23684.6</v>
       </c>
       <c r="Q28" t="n">
-        <v>103644</v>
+        <v>103441.8</v>
       </c>
       <c r="R28" t="n">
-        <v>17502</v>
+        <v>17506.8</v>
       </c>
       <c r="S28" t="n">
-        <v>14014</v>
+        <v>15285.1</v>
       </c>
       <c r="T28" t="n">
-        <v>9635</v>
+        <v>9640.299999999999</v>
       </c>
       <c r="U28" t="n">
-        <v>7823</v>
+        <v>9388.5</v>
       </c>
       <c r="V28" t="n">
-        <v>54523</v>
+        <v>68012.10000000001</v>
       </c>
       <c r="W28" t="n">
-        <v>34136</v>
+        <v>37189.8</v>
       </c>
       <c r="X28" t="n">
-        <v>91499</v>
+        <v>90005.3</v>
       </c>
       <c r="Y28" t="n">
-        <v>76722</v>
+        <v>76719.10000000001</v>
       </c>
       <c r="Z28" t="n">
-        <v>2564</v>
+        <v>2566.6</v>
       </c>
       <c r="AA28" t="n">
-        <v>9779</v>
+        <v>13636.7</v>
       </c>
       <c r="AB28" t="n">
         <v>0</v>
       </c>
       <c r="AC28" t="n">
-        <v>8664</v>
+        <v>7777.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>36556</v>
+        <v>38844.7</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>11098.3</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>9846.9</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>14116.7</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>20266.8</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>9262.5</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>19062.8</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>13445.7</v>
       </c>
     </row>
     <row r="29">
@@ -3125,91 +3727,112 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15167</v>
+        <v>14216.6</v>
       </c>
       <c r="C29" t="n">
-        <v>32608</v>
+        <v>32661.9</v>
       </c>
       <c r="D29" t="n">
-        <v>132487</v>
+        <v>137616.1</v>
       </c>
       <c r="E29" t="n">
-        <v>41859</v>
+        <v>46574</v>
       </c>
       <c r="F29" t="n">
-        <v>12087</v>
+        <v>12851.5</v>
       </c>
       <c r="G29" t="n">
-        <v>38451</v>
+        <v>38634.7</v>
       </c>
       <c r="H29" t="n">
-        <v>52946</v>
+        <v>55575.5</v>
       </c>
       <c r="I29" t="n">
-        <v>6713</v>
+        <v>6252.4</v>
       </c>
       <c r="J29" t="n">
-        <v>24725</v>
+        <v>25841.7</v>
       </c>
       <c r="K29" t="n">
-        <v>19238</v>
+        <v>19265.4</v>
       </c>
       <c r="L29" t="n">
-        <v>9585</v>
+        <v>9444.9</v>
       </c>
       <c r="M29" t="n">
-        <v>37194</v>
+        <v>40734.5</v>
       </c>
       <c r="N29" t="n">
-        <v>52839</v>
+        <v>54198.9</v>
       </c>
       <c r="O29" t="n">
-        <v>10599</v>
+        <v>10885.9</v>
       </c>
       <c r="P29" t="n">
-        <v>18194</v>
+        <v>19218.3</v>
       </c>
       <c r="Q29" t="n">
-        <v>100072</v>
+        <v>100974.8</v>
       </c>
       <c r="R29" t="n">
-        <v>15092</v>
+        <v>17375</v>
       </c>
       <c r="S29" t="n">
-        <v>9365</v>
+        <v>11311.9</v>
       </c>
       <c r="T29" t="n">
-        <v>2394</v>
+        <v>2388.9</v>
       </c>
       <c r="U29" t="n">
-        <v>10289</v>
+        <v>11599.6</v>
       </c>
       <c r="V29" t="n">
-        <v>61991</v>
+        <v>73934.89999999999</v>
       </c>
       <c r="W29" t="n">
-        <v>27673</v>
+        <v>27985.1</v>
       </c>
       <c r="X29" t="n">
-        <v>88866</v>
+        <v>87538.39999999999</v>
       </c>
       <c r="Y29" t="n">
-        <v>74089</v>
+        <v>74252.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>9110</v>
+        <v>9421.799999999999</v>
       </c>
       <c r="AA29" t="n">
-        <v>17247</v>
+        <v>19559.6</v>
       </c>
       <c r="AB29" t="n">
-        <v>7468</v>
+        <v>7489.9</v>
       </c>
       <c r="AC29" t="n">
         <v>0</v>
       </c>
       <c r="AD29" t="n">
-        <v>44024</v>
+        <v>44767.6</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>15987.3</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>21788.7</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>20039.5</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>26189.7</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>12060.1</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>23951.7</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>4143.6</v>
       </c>
     </row>
     <row r="30">
@@ -3219,90 +3842,916 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>40411</v>
+        <v>41113.9</v>
       </c>
       <c r="C30" t="n">
-        <v>25431</v>
+        <v>24941.1</v>
       </c>
       <c r="D30" t="n">
-        <v>147077</v>
+        <v>170255</v>
       </c>
       <c r="E30" t="n">
-        <v>56722</v>
+        <v>62619</v>
       </c>
       <c r="F30" t="n">
-        <v>44543</v>
+        <v>46640.1</v>
       </c>
       <c r="G30" t="n">
-        <v>52884</v>
+        <v>71273.60000000001</v>
       </c>
       <c r="H30" t="n">
-        <v>67048</v>
+        <v>88214.39999999999</v>
       </c>
       <c r="I30" t="n">
-        <v>41087</v>
+        <v>42509.3</v>
       </c>
       <c r="J30" t="n">
-        <v>21689</v>
+        <v>22572</v>
       </c>
       <c r="K30" t="n">
-        <v>45513</v>
+        <v>45427.5</v>
       </c>
       <c r="L30" t="n">
-        <v>50499</v>
+        <v>54298.6</v>
       </c>
       <c r="M30" t="n">
-        <v>65097</v>
+        <v>66530.5</v>
       </c>
       <c r="N30" t="n">
-        <v>87717</v>
+        <v>104529.1</v>
       </c>
       <c r="O30" t="n">
-        <v>53762</v>
+        <v>55101.9</v>
       </c>
       <c r="P30" t="n">
-        <v>60218</v>
+        <v>60270.9</v>
       </c>
       <c r="Q30" t="n">
-        <v>116109</v>
+        <v>133613.7</v>
       </c>
       <c r="R30" t="n">
-        <v>42578</v>
+        <v>47678.7</v>
       </c>
       <c r="S30" t="n">
-        <v>50997</v>
+        <v>51871.4</v>
       </c>
       <c r="T30" t="n">
-        <v>47221</v>
+        <v>46945.1</v>
       </c>
       <c r="U30" t="n">
-        <v>37942</v>
+        <v>37841.9</v>
       </c>
       <c r="V30" t="n">
-        <v>28613</v>
+        <v>29578.1</v>
       </c>
       <c r="W30" t="n">
-        <v>60125</v>
+        <v>67361.7</v>
       </c>
       <c r="X30" t="n">
-        <v>103964</v>
+        <v>120177.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>88679</v>
+        <v>106891.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>38618</v>
+        <v>39583.3</v>
       </c>
       <c r="AA30" t="n">
-        <v>27843</v>
+        <v>30203.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>37586</v>
+        <v>38160.8</v>
       </c>
       <c r="AC30" t="n">
-        <v>46250</v>
+        <v>45082.5</v>
       </c>
       <c r="AD30" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>42976.9</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>36002.3</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>30683.1</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>36833.2</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>45848.8</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>42202.5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>50032</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>METRO</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>3731.2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>39875.6</v>
+      </c>
+      <c r="D31" t="n">
+        <v>146694.7</v>
+      </c>
+      <c r="E31" t="n">
+        <v>33453.3</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8435.200000000001</v>
+      </c>
+      <c r="G31" t="n">
+        <v>47713.3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>64654.1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>18949</v>
+      </c>
+      <c r="J31" t="n">
+        <v>24274.9</v>
+      </c>
+      <c r="K31" t="n">
+        <v>5927.1</v>
+      </c>
+      <c r="L31" t="n">
+        <v>26022.8</v>
+      </c>
+      <c r="M31" t="n">
+        <v>27613.8</v>
+      </c>
+      <c r="N31" t="n">
+        <v>71445.7</v>
+      </c>
+      <c r="O31" t="n">
+        <v>22018.5</v>
+      </c>
+      <c r="P31" t="n">
+        <v>27187.5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>110053.4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>24118.4</v>
+      </c>
+      <c r="S31" t="n">
+        <v>18788</v>
+      </c>
+      <c r="T31" t="n">
+        <v>16719.3</v>
+      </c>
+      <c r="U31" t="n">
+        <v>16000.1</v>
+      </c>
+      <c r="V31" t="n">
+        <v>67029.2</v>
+      </c>
+      <c r="W31" t="n">
+        <v>43801.4</v>
+      </c>
+      <c r="X31" t="n">
+        <v>96617</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>83330.8</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>7086.1</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>15839.8</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>8947.700000000001</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>14856.8</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>43071.7</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="n">
+        <v>8667.9</v>
+      </c>
+      <c r="AG31" t="n">
+        <v>16319.7</v>
+      </c>
+      <c r="AH31" t="n">
+        <v>19166.3</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>7643.8</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>10831</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>16948.6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Auchan Gramont</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>6668.9</v>
+      </c>
+      <c r="C32" t="n">
+        <v>45236</v>
+      </c>
+      <c r="D32" t="n">
+        <v>152055</v>
+      </c>
+      <c r="E32" t="n">
+        <v>28173.9</v>
+      </c>
+      <c r="F32" t="n">
+        <v>16632.7</v>
+      </c>
+      <c r="G32" t="n">
+        <v>53073.6</v>
+      </c>
+      <c r="H32" t="n">
+        <v>70014.5</v>
+      </c>
+      <c r="I32" t="n">
+        <v>24309.4</v>
+      </c>
+      <c r="J32" t="n">
+        <v>17483.9</v>
+      </c>
+      <c r="K32" t="n">
+        <v>10982.5</v>
+      </c>
+      <c r="L32" t="n">
+        <v>33007.8</v>
+      </c>
+      <c r="M32" t="n">
+        <v>32085.4</v>
+      </c>
+      <c r="N32" t="n">
+        <v>78430.7</v>
+      </c>
+      <c r="O32" t="n">
+        <v>29003.4</v>
+      </c>
+      <c r="P32" t="n">
+        <v>34172.4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>115413.8</v>
+      </c>
+      <c r="R32" t="n">
+        <v>29478.8</v>
+      </c>
+      <c r="S32" t="n">
+        <v>25773</v>
+      </c>
+      <c r="T32" t="n">
+        <v>23704.3</v>
+      </c>
+      <c r="U32" t="n">
+        <v>19642</v>
+      </c>
+      <c r="V32" t="n">
+        <v>53873.8</v>
+      </c>
+      <c r="W32" t="n">
+        <v>49161.8</v>
+      </c>
+      <c r="X32" t="n">
+        <v>101977.3</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>88691.10000000001</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>14071.1</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>9048.799999999999</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>9804.4</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>21841.7</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>36280.6</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>8531.799999999999</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>9528.700000000001</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>12375.3</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>15841.3</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>7757.4</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>23933.5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Leclerc St Orens</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>14488.6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>39997.9</v>
+      </c>
+      <c r="D33" t="n">
+        <v>146817</v>
+      </c>
+      <c r="E33" t="n">
+        <v>35993.6</v>
+      </c>
+      <c r="F33" t="n">
+        <v>23202.1</v>
+      </c>
+      <c r="G33" t="n">
+        <v>47835.6</v>
+      </c>
+      <c r="H33" t="n">
+        <v>64776.4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>19071.3</v>
+      </c>
+      <c r="J33" t="n">
+        <v>8308.1</v>
+      </c>
+      <c r="K33" t="n">
+        <v>18802.2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>30860.6</v>
+      </c>
+      <c r="M33" t="n">
+        <v>39905.1</v>
+      </c>
+      <c r="N33" t="n">
+        <v>81091.10000000001</v>
+      </c>
+      <c r="O33" t="n">
+        <v>31663.9</v>
+      </c>
+      <c r="P33" t="n">
+        <v>36832.9</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>110175.7</v>
+      </c>
+      <c r="R33" t="n">
+        <v>24240.7</v>
+      </c>
+      <c r="S33" t="n">
+        <v>28433.4</v>
+      </c>
+      <c r="T33" t="n">
+        <v>23507.1</v>
+      </c>
+      <c r="U33" t="n">
+        <v>14403.9</v>
+      </c>
+      <c r="V33" t="n">
+        <v>44851.9</v>
+      </c>
+      <c r="W33" t="n">
+        <v>43923.7</v>
+      </c>
+      <c r="X33" t="n">
+        <v>96739.3</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>83453.10000000001</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>16145.3</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>672.1</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>14722.8</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>21644.5</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>31042.5</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>16351.5</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>9377</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>6927.4</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>22410.8</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>15577.2</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>26594</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Super U Flourens</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>17270.4</v>
+      </c>
+      <c r="C34" t="n">
+        <v>46112.3</v>
+      </c>
+      <c r="D34" t="n">
+        <v>152931.4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>38775.4</v>
+      </c>
+      <c r="F34" t="n">
+        <v>27234.2</v>
+      </c>
+      <c r="G34" t="n">
+        <v>53950</v>
+      </c>
+      <c r="H34" t="n">
+        <v>70890.8</v>
+      </c>
+      <c r="I34" t="n">
+        <v>25185.7</v>
+      </c>
+      <c r="J34" t="n">
+        <v>12703.2</v>
+      </c>
+      <c r="K34" t="n">
+        <v>21584</v>
+      </c>
+      <c r="L34" t="n">
+        <v>36975</v>
+      </c>
+      <c r="M34" t="n">
+        <v>42687</v>
+      </c>
+      <c r="N34" t="n">
+        <v>87205.5</v>
+      </c>
+      <c r="O34" t="n">
+        <v>37778.3</v>
+      </c>
+      <c r="P34" t="n">
+        <v>42947.3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>116290.1</v>
+      </c>
+      <c r="R34" t="n">
+        <v>30355.1</v>
+      </c>
+      <c r="S34" t="n">
+        <v>34547.8</v>
+      </c>
+      <c r="T34" t="n">
+        <v>29621.5</v>
+      </c>
+      <c r="U34" t="n">
+        <v>20518.3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>39522.2</v>
+      </c>
+      <c r="W34" t="n">
+        <v>50038.1</v>
+      </c>
+      <c r="X34" t="n">
+        <v>102853.7</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>89567.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>22259.7</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>8698.1</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>20837.2</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>27759</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>37156.9</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>19133.3</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>12158.8</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>9178</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>26442.9</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>18359</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>32708.4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Leclerc Blagnac</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>10806.4</v>
+      </c>
+      <c r="C35" t="n">
+        <v>41311.5</v>
+      </c>
+      <c r="D35" t="n">
+        <v>148130.5</v>
+      </c>
+      <c r="E35" t="n">
+        <v>42941</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1925.4</v>
+      </c>
+      <c r="G35" t="n">
+        <v>49149.1</v>
+      </c>
+      <c r="H35" t="n">
+        <v>66089.89999999999</v>
+      </c>
+      <c r="I35" t="n">
+        <v>17486.3</v>
+      </c>
+      <c r="J35" t="n">
+        <v>27966.3</v>
+      </c>
+      <c r="K35" t="n">
+        <v>13525.7</v>
+      </c>
+      <c r="L35" t="n">
+        <v>24252.1</v>
+      </c>
+      <c r="M35" t="n">
+        <v>27130.5</v>
+      </c>
+      <c r="N35" t="n">
+        <v>69675</v>
+      </c>
+      <c r="O35" t="n">
+        <v>20247.8</v>
+      </c>
+      <c r="P35" t="n">
+        <v>18911.7</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>111489.3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>25554.3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10707.2</v>
+      </c>
+      <c r="T35" t="n">
+        <v>14948.6</v>
+      </c>
+      <c r="U35" t="n">
+        <v>17436</v>
+      </c>
+      <c r="V35" t="n">
+        <v>76059.5</v>
+      </c>
+      <c r="W35" t="n">
+        <v>44290.6</v>
+      </c>
+      <c r="X35" t="n">
+        <v>98052.8</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>84766.60000000001</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>8968.200000000001</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>21684.2</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>10246.8</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>13086.1</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>46892.1</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>9698</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>18155.6</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>22164.1</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>28654</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>20318.7</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>15177.9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Leclerc Rouffiac</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>9472.5</v>
+      </c>
+      <c r="C36" t="n">
+        <v>49664.2</v>
+      </c>
+      <c r="D36" t="n">
+        <v>156483.2</v>
+      </c>
+      <c r="E36" t="n">
+        <v>21677.6</v>
+      </c>
+      <c r="F36" t="n">
+        <v>19436.3</v>
+      </c>
+      <c r="G36" t="n">
+        <v>57501.8</v>
+      </c>
+      <c r="H36" t="n">
+        <v>74442.60000000001</v>
+      </c>
+      <c r="I36" t="n">
+        <v>28737.6</v>
+      </c>
+      <c r="J36" t="n">
+        <v>24676.4</v>
+      </c>
+      <c r="K36" t="n">
+        <v>14043.3</v>
+      </c>
+      <c r="L36" t="n">
+        <v>35811.4</v>
+      </c>
+      <c r="M36" t="n">
+        <v>28958.6</v>
+      </c>
+      <c r="N36" t="n">
+        <v>81234.3</v>
+      </c>
+      <c r="O36" t="n">
+        <v>31807.1</v>
+      </c>
+      <c r="P36" t="n">
+        <v>36976</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>119842</v>
+      </c>
+      <c r="R36" t="n">
+        <v>33907</v>
+      </c>
+      <c r="S36" t="n">
+        <v>28576.6</v>
+      </c>
+      <c r="T36" t="n">
+        <v>26507.9</v>
+      </c>
+      <c r="U36" t="n">
+        <v>25788.7</v>
+      </c>
+      <c r="V36" t="n">
+        <v>55739.1</v>
+      </c>
+      <c r="W36" t="n">
+        <v>53590</v>
+      </c>
+      <c r="X36" t="n">
+        <v>106405.5</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>93119.3</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>16874.7</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>16241.3</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>18736.2</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>24645.3</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>43473.2</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>11335.4</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>8473.299999999999</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>16721.2</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>19567.9</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>18644.9</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>26737.2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Carrefour Supply Chain</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>16580.8</v>
+      </c>
+      <c r="C37" t="n">
+        <v>37400.6</v>
+      </c>
+      <c r="D37" t="n">
+        <v>138089.6</v>
+      </c>
+      <c r="E37" t="n">
+        <v>48938.3</v>
+      </c>
+      <c r="F37" t="n">
+        <v>15215.7</v>
+      </c>
+      <c r="G37" t="n">
+        <v>39108.2</v>
+      </c>
+      <c r="H37" t="n">
+        <v>56049</v>
+      </c>
+      <c r="I37" t="n">
+        <v>9869.6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>30784.1</v>
+      </c>
+      <c r="K37" t="n">
+        <v>21629.7</v>
+      </c>
+      <c r="L37" t="n">
+        <v>9397.5</v>
+      </c>
+      <c r="M37" t="n">
+        <v>43098.8</v>
+      </c>
+      <c r="N37" t="n">
+        <v>58789</v>
+      </c>
+      <c r="O37" t="n">
+        <v>7054.8</v>
+      </c>
+      <c r="P37" t="n">
+        <v>14058.7</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>101448.3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>17848.5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>6152.3</v>
+      </c>
+      <c r="T37" t="n">
+        <v>4426.4</v>
+      </c>
+      <c r="U37" t="n">
+        <v>18518.2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>78877.39999999999</v>
+      </c>
+      <c r="W37" t="n">
+        <v>27937.7</v>
+      </c>
+      <c r="X37" t="n">
+        <v>88011.89999999999</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>74725.7</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>11786</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>24502</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>13064.6</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>4118.5</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>49710</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>18351.5</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>24152.9</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>24982</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>31132.1</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>14424.4</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>26316</v>
+      </c>
+      <c r="AK37" t="n">
         <v>0</v>
       </c>
     </row>
